--- a/Parameter comparison-SLENDER.xlsx
+++ b/Parameter comparison-SLENDER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laszlo\My Tresors\Private\MUW\Grants\SLENDER 2.0-FWF+ANR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE8E450-039D-4C3F-9EDC-4368EF3F045D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73C1E64-047B-44F1-8634-96885A349673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{A9C0DBCC-606B-4251-8BAC-4242F00CAF5E}"/>
   </bookViews>
@@ -761,10 +761,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1107,7 +1107,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC82F1E4-8931-4BAB-8C31-1BA06A30DFC6}">
   <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1128,27 +1130,27 @@
       <c r="C2" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="89"/>
       <c r="F2" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="89"/>
-      <c r="H2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="89"/>
       <c r="I2" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="89"/>
       <c r="M2" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="90"/>
+      <c r="N2" s="89"/>
       <c r="O2" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="90"/>
+      <c r="P2" s="89"/>
     </row>
     <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="91"/>
@@ -1299,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="34">
-        <f t="shared" si="2"/>
+        <f>IF(M5=0,POWER(F5,G5)*6,0)</f>
         <v>384</v>
       </c>
     </row>
@@ -1761,27 +1763,27 @@
       <c r="C16" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="89"/>
-      <c r="E16" s="90"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="89"/>
       <c r="F16" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="G16" s="89"/>
-      <c r="H16" s="90"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="89"/>
       <c r="I16" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="J16" s="89"/>
-      <c r="K16" s="89"/>
-      <c r="L16" s="90"/>
+      <c r="J16" s="90"/>
+      <c r="K16" s="90"/>
+      <c r="L16" s="89"/>
       <c r="M16" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="N16" s="90"/>
+      <c r="N16" s="89"/>
       <c r="O16" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="P16" s="90"/>
+      <c r="P16" s="89"/>
     </row>
     <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="91"/>
@@ -1977,7 +1979,7 @@
         <v>5</v>
       </c>
       <c r="M20" s="26">
-        <f t="shared" si="9"/>
+        <f>IF(I20="maxPool",0,(POWER(L20,D20)*E20*H20)+H20)</f>
         <v>51264</v>
       </c>
       <c r="N20" s="27">
@@ -2260,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="N25" s="34">
-        <f t="shared" si="10"/>
+        <f>IF(M25=0,POWER(F25,G25)*H25,0)</f>
         <v>15488</v>
       </c>
       <c r="O25" s="33">
@@ -2395,27 +2397,27 @@
       <c r="C30" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="89"/>
-      <c r="E30" s="90"/>
+      <c r="D30" s="90"/>
+      <c r="E30" s="89"/>
       <c r="F30" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="G30" s="89"/>
-      <c r="H30" s="90"/>
+      <c r="G30" s="90"/>
+      <c r="H30" s="89"/>
       <c r="I30" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="J30" s="89"/>
-      <c r="K30" s="89"/>
-      <c r="L30" s="90"/>
+      <c r="J30" s="90"/>
+      <c r="K30" s="90"/>
+      <c r="L30" s="89"/>
       <c r="M30" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="N30" s="90"/>
+      <c r="N30" s="89"/>
       <c r="O30" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="P30" s="90"/>
+      <c r="P30" s="89"/>
     </row>
     <row r="31" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="91"/>
@@ -3050,25 +3052,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="I30:L30"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:H16"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="C2:E2"/>
@@ -3083,6 +3066,25 @@
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B13"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="I30:L30"/>
+    <mergeCell ref="B30:B31"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3094,7 +3096,7 @@
   <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3270,20 +3272,20 @@
       </c>
       <c r="S3" s="2"/>
       <c r="T3" s="2">
-        <f>(3*B3)+(6*D3)+(3*L3)+(2*(C3+E3+M3))</f>
-        <v>478</v>
+        <f>(6*B3)+(6*D3)+(3*L3)+(2*(C3+E3+M3))</f>
+        <v>628</v>
       </c>
       <c r="U3" s="2">
-        <f>(3*B3)+(6*D3)+(6*F3)+(3*L3)+(2*(C3+E3+G3+M3))</f>
-        <v>788</v>
+        <f>(6*B3)+(6*D3)+(6*F3)+(3*L3)+(2*(C3+E3+G3+M3))</f>
+        <v>938</v>
       </c>
       <c r="V3" s="2">
-        <f>(3*B3)+(6*D3)+(6*F3)+(6*H3)+(3*L3)+(2*(C3+E3+G3+I3+M3))</f>
-        <v>1098</v>
+        <f>(6*B3)+(6*D3)+(6*F3)+(6*H3)+(3*L3)+(2*(C3+E3+G3+I3+M3))</f>
+        <v>1248</v>
       </c>
       <c r="W3" s="2">
-        <f>(3*B3)+(6*D3)+(6*F3)+(6*H3)+(6*J3)+(3*L3)+(2*(C3+E3+G3+I3+K3+M3))</f>
-        <v>1408</v>
+        <f>(6*B3)+(6*D3)+(6*F3)+(6*H3)+(6*J3)+(3*L3)+(2*(C3+E3+G3+I3+K3+M3))</f>
+        <v>1558</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
@@ -3349,20 +3351,20 @@
       </c>
       <c r="S4" s="2"/>
       <c r="T4" s="2">
-        <f t="shared" ref="T4:T6" si="9">(3*B4)+(6*D4)+(3*L4)+(2*(C4+E4+M4))</f>
-        <v>948</v>
+        <f t="shared" ref="T4:T6" si="9">(6*B4)+(6*D4)+(3*L4)+(2*(C4+E4+M4))</f>
+        <v>1248</v>
       </c>
       <c r="U4" s="2">
-        <f t="shared" ref="U4:U6" si="10">(3*B4)+(6*D4)+(6*F4)+(3*L4)+(2*(C4+E4+G4+M4))</f>
-        <v>1568</v>
+        <f t="shared" ref="U4:U6" si="10">(6*B4)+(6*D4)+(6*F4)+(3*L4)+(2*(C4+E4+G4+M4))</f>
+        <v>1868</v>
       </c>
       <c r="V4" s="2">
-        <f t="shared" ref="V4:V6" si="11">(3*B4)+(6*D4)+(6*F4)+(6*H4)+(3*L4)+(2*(C4+E4+G4+I4+M4))</f>
-        <v>2188</v>
+        <f t="shared" ref="V4:V6" si="11">(6*B4)+(6*D4)+(6*F4)+(6*H4)+(3*L4)+(2*(C4+E4+G4+I4+M4))</f>
+        <v>2488</v>
       </c>
       <c r="W4" s="2">
-        <f t="shared" ref="W4:W6" si="12">(3*B4)+(6*D4)+(6*F4)+(6*H4)+(6*J4)+(3*L4)+(2*(C4+E4+G4+I4+K4+M4))</f>
-        <v>2808</v>
+        <f t="shared" ref="W4:W6" si="12">(6*B4)+(6*D4)+(6*F4)+(6*H4)+(6*J4)+(3*L4)+(2*(C4+E4+G4+I4+K4+M4))</f>
+        <v>3108</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
@@ -3433,19 +3435,19 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2">
         <f t="shared" si="9"/>
-        <v>1474</v>
+        <v>2074</v>
       </c>
       <c r="U5" s="2">
         <f t="shared" si="10"/>
-        <v>2025.3333333333335</v>
+        <v>2625.3333333333335</v>
       </c>
       <c r="V5" s="2">
         <f t="shared" si="11"/>
-        <v>2392.8888888888891</v>
+        <v>2992.8888888888891</v>
       </c>
       <c r="W5" s="2">
         <f t="shared" si="12"/>
-        <v>2637.9259259259261</v>
+        <v>3237.9259259259261</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
@@ -3516,19 +3518,19 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2">
         <f t="shared" si="9"/>
-        <v>3674</v>
+        <v>5174</v>
       </c>
       <c r="U6" s="2">
         <f t="shared" si="10"/>
-        <v>5051.333333333333</v>
+        <v>6551.333333333333</v>
       </c>
       <c r="V6" s="2">
         <f t="shared" si="11"/>
-        <v>5970.2222222222217</v>
+        <v>7470.2222222222217</v>
       </c>
       <c r="W6" s="2">
         <f t="shared" si="12"/>
-        <v>6582.8148148148139</v>
+        <v>8082.8148148148139</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
@@ -5279,67 +5281,67 @@
       </c>
       <c r="L3" s="4">
         <f t="shared" si="0"/>
-        <v>478</v>
+        <v>628</v>
       </c>
       <c r="M3" s="4">
         <f t="shared" si="0"/>
-        <v>788</v>
+        <v>938</v>
       </c>
       <c r="N3" s="4">
         <f t="shared" si="0"/>
-        <v>1098</v>
+        <v>1248</v>
       </c>
       <c r="O3" s="4">
         <f t="shared" si="0"/>
-        <v>1408</v>
+        <v>1558</v>
       </c>
       <c r="P3" s="4">
         <f>C11</f>
-        <v>948</v>
+        <v>1248</v>
       </c>
       <c r="Q3" s="4">
         <f>D11</f>
-        <v>1568</v>
+        <v>1868</v>
       </c>
       <c r="R3" s="4">
         <f>E11</f>
-        <v>2188</v>
+        <v>2488</v>
       </c>
       <c r="S3" s="4">
         <f>F11</f>
-        <v>2808</v>
+        <v>3108</v>
       </c>
       <c r="T3" s="4">
         <f>C12</f>
-        <v>1474</v>
+        <v>2074</v>
       </c>
       <c r="U3" s="4">
         <f>D12</f>
-        <v>2025.3333333333335</v>
+        <v>2625.3333333333335</v>
       </c>
       <c r="V3" s="4">
         <f>E12</f>
-        <v>2392.8888888888891</v>
+        <v>2992.8888888888891</v>
       </c>
       <c r="W3" s="4">
         <f>F12</f>
-        <v>2637.9259259259261</v>
+        <v>3237.9259259259261</v>
       </c>
       <c r="X3" s="4">
         <f>C13</f>
-        <v>3674</v>
+        <v>5174</v>
       </c>
       <c r="Y3" s="4">
         <f>D13</f>
-        <v>5051.333333333333</v>
+        <v>6551.333333333333</v>
       </c>
       <c r="Z3" s="4">
         <f>E13</f>
-        <v>5970.2222222222217</v>
+        <v>7470.2222222222217</v>
       </c>
       <c r="AA3" s="2">
         <f>F13</f>
-        <v>6582.8148148148139</v>
+        <v>8082.8148148148139</v>
       </c>
     </row>
     <row r="4" spans="2:27" x14ac:dyDescent="0.25">
@@ -5380,67 +5382,67 @@
       </c>
       <c r="L4" s="2">
         <f>$K4+L$3+(Convolutional!$N$5)</f>
-        <v>2718</v>
+        <v>2868</v>
       </c>
       <c r="M4" s="2">
         <f>$K4+M$3+(Convolutional!$N$5)</f>
-        <v>3028</v>
+        <v>3178</v>
       </c>
       <c r="N4" s="2">
         <f>$K4+N$3+(Convolutional!$N$5)</f>
-        <v>3338</v>
+        <v>3488</v>
       </c>
       <c r="O4" s="2">
         <f>$K4+O$3+(Convolutional!$N$5)</f>
-        <v>3648</v>
+        <v>3798</v>
       </c>
       <c r="P4" s="2">
         <f>$K4+P$3+(Convolutional!$N$5)</f>
-        <v>3188</v>
+        <v>3488</v>
       </c>
       <c r="Q4" s="2">
         <f>$K4+Q$3+(Convolutional!$N$5)</f>
-        <v>3808</v>
+        <v>4108</v>
       </c>
       <c r="R4" s="2">
         <f>$K4+R$3+(Convolutional!$N$5)</f>
-        <v>4428</v>
+        <v>4728</v>
       </c>
       <c r="S4" s="2">
         <f>$K4+S$3+(Convolutional!$N$5)</f>
-        <v>5048</v>
+        <v>5348</v>
       </c>
       <c r="T4" s="2">
         <f>$K4+T$3+(Convolutional!$N$5)</f>
-        <v>3714</v>
+        <v>4314</v>
       </c>
       <c r="U4" s="2">
         <f>$K4+U$3+(Convolutional!$N$5)</f>
-        <v>4265.3333333333339</v>
+        <v>4865.3333333333339</v>
       </c>
       <c r="V4" s="2">
         <f>$K4+V$3+(Convolutional!$N$5)</f>
-        <v>4632.8888888888887</v>
+        <v>5232.8888888888887</v>
       </c>
       <c r="W4" s="2">
         <f>$K4+W$3+(Convolutional!$N$5)</f>
-        <v>4877.9259259259261</v>
+        <v>5477.9259259259261</v>
       </c>
       <c r="X4" s="2">
         <f>$K4+X$3+(Convolutional!$N$5)</f>
-        <v>5914</v>
+        <v>7414</v>
       </c>
       <c r="Y4" s="2">
         <f>$K4+Y$3+(Convolutional!$N$5)</f>
-        <v>7291.333333333333</v>
+        <v>8791.3333333333321</v>
       </c>
       <c r="Z4" s="2">
         <f>$K4+Z$3+(Convolutional!$N$5)</f>
-        <v>8210.2222222222226</v>
+        <v>9710.2222222222226</v>
       </c>
       <c r="AA4" s="2">
         <f>$K4+AA$3+(Convolutional!$N$5)</f>
-        <v>8822.8148148148139</v>
+        <v>10322.814814814814</v>
       </c>
     </row>
     <row r="5" spans="2:27" x14ac:dyDescent="0.25">
@@ -5478,67 +5480,67 @@
       </c>
       <c r="L5" s="2">
         <f>$K5+L$3+(Convolutional!$N$7)</f>
-        <v>3358</v>
+        <v>3508</v>
       </c>
       <c r="M5" s="2">
         <f>$K5+M$3+(Convolutional!$N$7)</f>
-        <v>3668</v>
+        <v>3818</v>
       </c>
       <c r="N5" s="2">
         <f>$K5+N$3+(Convolutional!$N$7)</f>
-        <v>3978</v>
+        <v>4128</v>
       </c>
       <c r="O5" s="2">
         <f>$K5+O$3+(Convolutional!$N$7)</f>
-        <v>4288</v>
+        <v>4438</v>
       </c>
       <c r="P5" s="2">
         <f>$K5+P$3+(Convolutional!$N$7)</f>
-        <v>3828</v>
+        <v>4128</v>
       </c>
       <c r="Q5" s="2">
         <f>$K5+Q$3+(Convolutional!$N$7)</f>
-        <v>4448</v>
+        <v>4748</v>
       </c>
       <c r="R5" s="2">
         <f>$K5+R$3+(Convolutional!$N$7)</f>
-        <v>5068</v>
+        <v>5368</v>
       </c>
       <c r="S5" s="2">
         <f>$K5+S$3+(Convolutional!$N$7)</f>
-        <v>5688</v>
+        <v>5988</v>
       </c>
       <c r="T5" s="2">
         <f>$K5+T$3+(Convolutional!$N$7)</f>
-        <v>4354</v>
+        <v>4954</v>
       </c>
       <c r="U5" s="2">
         <f>$K5+U$3+(Convolutional!$N$7)</f>
-        <v>4905.3333333333339</v>
+        <v>5505.3333333333339</v>
       </c>
       <c r="V5" s="2">
         <f>$K5+V$3+(Convolutional!$N$7)</f>
-        <v>5272.8888888888887</v>
+        <v>5872.8888888888887</v>
       </c>
       <c r="W5" s="2">
         <f>$K5+W$3+(Convolutional!$N$7)</f>
-        <v>5517.9259259259261</v>
+        <v>6117.9259259259261</v>
       </c>
       <c r="X5" s="2">
         <f>$K5+X$3+(Convolutional!$N$7)</f>
-        <v>6554</v>
+        <v>8054</v>
       </c>
       <c r="Y5" s="2">
         <f>$K5+Y$3+(Convolutional!$N$7)</f>
-        <v>7931.333333333333</v>
+        <v>9431.3333333333321</v>
       </c>
       <c r="Z5" s="2">
         <f>$K5+Z$3+(Convolutional!$N$7)</f>
-        <v>8850.2222222222226</v>
+        <v>10350.222222222223</v>
       </c>
       <c r="AA5" s="2">
         <f>$K5+AA$3+(Convolutional!$N$7)</f>
-        <v>9462.8148148148139</v>
+        <v>10962.814814814814</v>
       </c>
     </row>
     <row r="6" spans="2:27" x14ac:dyDescent="0.25">
@@ -5576,67 +5578,67 @@
       </c>
       <c r="L6" s="2">
         <f>$K6+L$3+(Convolutional!$N$9)</f>
-        <v>5486</v>
+        <v>5636</v>
       </c>
       <c r="M6" s="2">
         <f>$K6+M$3+(Convolutional!$N$9)</f>
-        <v>5796</v>
+        <v>5946</v>
       </c>
       <c r="N6" s="2">
         <f>$K6+N$3+(Convolutional!$N$9)</f>
-        <v>6106</v>
+        <v>6256</v>
       </c>
       <c r="O6" s="2">
         <f>$K6+O$3+(Convolutional!$N$9)</f>
-        <v>6416</v>
+        <v>6566</v>
       </c>
       <c r="P6" s="2">
         <f>$K6+P$3+(Convolutional!$N$9)</f>
-        <v>5956</v>
+        <v>6256</v>
       </c>
       <c r="Q6" s="2">
         <f>$K6+Q$3+(Convolutional!$N$9)</f>
-        <v>6576</v>
+        <v>6876</v>
       </c>
       <c r="R6" s="2">
         <f>$K6+R$3+(Convolutional!$N$9)</f>
-        <v>7196</v>
+        <v>7496</v>
       </c>
       <c r="S6" s="2">
         <f>$K6+S$3+(Convolutional!$N$9)</f>
-        <v>7816</v>
+        <v>8116</v>
       </c>
       <c r="T6" s="2">
         <f>$K6+T$3+(Convolutional!$N$9)</f>
-        <v>6482</v>
+        <v>7082</v>
       </c>
       <c r="U6" s="2">
         <f>$K6+U$3+(Convolutional!$N$9)</f>
-        <v>7033.3333333333339</v>
+        <v>7633.3333333333339</v>
       </c>
       <c r="V6" s="2">
         <f>$K6+V$3+(Convolutional!$N$9)</f>
-        <v>7400.8888888888887</v>
+        <v>8000.8888888888887</v>
       </c>
       <c r="W6" s="2">
         <f>$K6+W$3+(Convolutional!$N$9)</f>
-        <v>7645.9259259259261</v>
+        <v>8245.925925925927</v>
       </c>
       <c r="X6" s="2">
         <f>$K6+X$3+(Convolutional!$N$9)</f>
-        <v>8682</v>
+        <v>10182</v>
       </c>
       <c r="Y6" s="2">
         <f>$K6+Y$3+(Convolutional!$N$9)</f>
-        <v>10059.333333333332</v>
+        <v>11559.333333333332</v>
       </c>
       <c r="Z6" s="2">
         <f>$K6+Z$3+(Convolutional!$N$9)</f>
-        <v>10978.222222222223</v>
+        <v>12478.222222222223</v>
       </c>
       <c r="AA6" s="2">
         <f>$K6+AA$3+(Convolutional!$N$9)</f>
-        <v>11590.814814814814</v>
+        <v>13090.814814814814</v>
       </c>
     </row>
     <row r="7" spans="2:27" x14ac:dyDescent="0.25">
@@ -5655,67 +5657,67 @@
       </c>
       <c r="L7" s="2">
         <f>$K7+L$3+(Convolutional!$N$11)</f>
-        <v>6894</v>
+        <v>7044</v>
       </c>
       <c r="M7" s="2">
         <f>$K7+M$3+(Convolutional!$N$11)</f>
-        <v>7204</v>
+        <v>7354</v>
       </c>
       <c r="N7" s="2">
         <f>$K7+N$3+(Convolutional!$N$11)</f>
-        <v>7514</v>
+        <v>7664</v>
       </c>
       <c r="O7" s="2">
         <f>$K7+O$3+(Convolutional!$N$11)</f>
-        <v>7824</v>
+        <v>7974</v>
       </c>
       <c r="P7" s="2">
         <f>$K7+P$3+(Convolutional!$N$11)</f>
-        <v>7364</v>
+        <v>7664</v>
       </c>
       <c r="Q7" s="2">
         <f>$K7+Q$3+(Convolutional!$N$11)</f>
-        <v>7984</v>
+        <v>8284</v>
       </c>
       <c r="R7" s="2">
         <f>$K7+R$3+(Convolutional!$N$11)</f>
-        <v>8604</v>
+        <v>8904</v>
       </c>
       <c r="S7" s="2">
         <f>$K7+S$3+(Convolutional!$N$11)</f>
-        <v>9224</v>
+        <v>9524</v>
       </c>
       <c r="T7" s="2">
         <f>$K7+T$3+(Convolutional!$N$11)</f>
-        <v>7890</v>
+        <v>8490</v>
       </c>
       <c r="U7" s="2">
         <f>$K7+U$3+(Convolutional!$N$11)</f>
-        <v>8441.3333333333339</v>
+        <v>9041.3333333333339</v>
       </c>
       <c r="V7" s="2">
         <f>$K7+V$3+(Convolutional!$N$11)</f>
-        <v>8808.8888888888887</v>
+        <v>9408.8888888888887</v>
       </c>
       <c r="W7" s="2">
         <f>$K7+W$3+(Convolutional!$N$11)</f>
-        <v>9053.925925925927</v>
+        <v>9653.925925925927</v>
       </c>
       <c r="X7" s="2">
         <f>$K7+X$3+(Convolutional!$N$11)</f>
-        <v>10090</v>
+        <v>11590</v>
       </c>
       <c r="Y7" s="2">
         <f>$K7+Y$3+(Convolutional!$N$11)</f>
-        <v>11467.333333333332</v>
+        <v>12967.333333333332</v>
       </c>
       <c r="Z7" s="2">
         <f>$K7+Z$3+(Convolutional!$N$11)</f>
-        <v>12386.222222222223</v>
+        <v>13886.222222222223</v>
       </c>
       <c r="AA7" s="2">
         <f>$K7+AA$3+(Convolutional!$N$11)</f>
-        <v>12998.814814814814</v>
+        <v>14498.814814814814</v>
       </c>
     </row>
     <row r="8" spans="2:27" x14ac:dyDescent="0.25">
@@ -5734,67 +5736,67 @@
       </c>
       <c r="L8" s="2">
         <f>$K8+L$3+(Convolutional!$N$13)</f>
-        <v>7230</v>
+        <v>7380</v>
       </c>
       <c r="M8" s="2">
         <f>$K8+M$3+(Convolutional!$N$13)</f>
-        <v>7540</v>
+        <v>7690</v>
       </c>
       <c r="N8" s="2">
         <f>$K8+N$3+(Convolutional!$N$13)</f>
-        <v>7850</v>
+        <v>8000</v>
       </c>
       <c r="O8" s="2">
         <f>$K8+O$3+(Convolutional!$N$13)</f>
-        <v>8160</v>
+        <v>8310</v>
       </c>
       <c r="P8" s="2">
         <f>$K8+P$3+(Convolutional!$N$13)</f>
-        <v>7700</v>
+        <v>8000</v>
       </c>
       <c r="Q8" s="2">
         <f>$K8+Q$3+(Convolutional!$N$13)</f>
-        <v>8320</v>
+        <v>8620</v>
       </c>
       <c r="R8" s="2">
         <f>$K8+R$3+(Convolutional!$N$13)</f>
-        <v>8940</v>
+        <v>9240</v>
       </c>
       <c r="S8" s="2">
         <f>$K8+S$3+(Convolutional!$N$13)</f>
-        <v>9560</v>
+        <v>9860</v>
       </c>
       <c r="T8" s="2">
         <f>$K8+T$3+(Convolutional!$N$13)</f>
-        <v>8226</v>
+        <v>8826</v>
       </c>
       <c r="U8" s="2">
         <f>$K8+U$3+(Convolutional!$N$13)</f>
-        <v>8777.3333333333339</v>
+        <v>9377.3333333333339</v>
       </c>
       <c r="V8" s="2">
         <f>$K8+V$3+(Convolutional!$N$13)</f>
-        <v>9144.8888888888887</v>
+        <v>9744.8888888888887</v>
       </c>
       <c r="W8" s="2">
         <f>$K8+W$3+(Convolutional!$N$13)</f>
-        <v>9389.925925925927</v>
+        <v>9989.925925925927</v>
       </c>
       <c r="X8" s="2">
         <f>$K8+X$3+(Convolutional!$N$13)</f>
-        <v>10426</v>
+        <v>11926</v>
       </c>
       <c r="Y8" s="2">
         <f>$K8+Y$3+(Convolutional!$N$13)</f>
-        <v>11803.333333333332</v>
+        <v>13303.333333333332</v>
       </c>
       <c r="Z8" s="2">
         <f>$K8+Z$3+(Convolutional!$N$13)</f>
-        <v>12722.222222222223</v>
+        <v>14222.222222222223</v>
       </c>
       <c r="AA8" s="2">
         <f>$K8+AA$3+(Convolutional!$N$13)</f>
-        <v>13334.814814814814</v>
+        <v>14834.814814814814</v>
       </c>
     </row>
     <row r="9" spans="2:27" x14ac:dyDescent="0.25">
@@ -5828,67 +5830,67 @@
       </c>
       <c r="L9" s="2">
         <f>$K9+L$3+(Convolutional!$N$19)</f>
-        <v>12414</v>
+        <v>12564</v>
       </c>
       <c r="M9" s="2">
         <f>$K9+M$3+(Convolutional!$N$19)</f>
-        <v>12724</v>
+        <v>12874</v>
       </c>
       <c r="N9" s="2">
         <f>$K9+N$3+(Convolutional!$N$19)</f>
-        <v>13034</v>
+        <v>13184</v>
       </c>
       <c r="O9" s="2">
         <f>$K9+O$3+(Convolutional!$N$19)</f>
-        <v>13344</v>
+        <v>13494</v>
       </c>
       <c r="P9" s="2">
         <f>$K9+P$3+(Convolutional!$N$19)</f>
-        <v>12884</v>
+        <v>13184</v>
       </c>
       <c r="Q9" s="2">
         <f>$K9+Q$3+(Convolutional!$N$19)</f>
-        <v>13504</v>
+        <v>13804</v>
       </c>
       <c r="R9" s="2">
         <f>$K9+R$3+(Convolutional!$N$19)</f>
-        <v>14124</v>
+        <v>14424</v>
       </c>
       <c r="S9" s="2">
         <f>$K9+S$3+(Convolutional!$N$19)</f>
-        <v>14744</v>
+        <v>15044</v>
       </c>
       <c r="T9" s="2">
         <f>$K9+T$3+(Convolutional!$N$19)</f>
-        <v>13410</v>
+        <v>14010</v>
       </c>
       <c r="U9" s="2">
         <f>$K9+U$3+(Convolutional!$N$19)</f>
-        <v>13961.333333333334</v>
+        <v>14561.333333333334</v>
       </c>
       <c r="V9" s="2">
         <f>$K9+V$3+(Convolutional!$N$19)</f>
-        <v>14328.888888888889</v>
+        <v>14928.888888888889</v>
       </c>
       <c r="W9" s="2">
         <f>$K9+W$3+(Convolutional!$N$19)</f>
-        <v>14573.925925925927</v>
+        <v>15173.925925925927</v>
       </c>
       <c r="X9" s="2">
         <f>$K9+X$3+(Convolutional!$N$19)</f>
-        <v>15610</v>
+        <v>17110</v>
       </c>
       <c r="Y9" s="2">
         <f>$K9+Y$3+(Convolutional!$N$19)</f>
-        <v>16987.333333333332</v>
+        <v>18487.333333333332</v>
       </c>
       <c r="Z9" s="2">
         <f>$K9+Z$3+(Convolutional!$N$19)</f>
-        <v>17906.222222222223</v>
+        <v>19406.222222222223</v>
       </c>
       <c r="AA9" s="2">
         <f>$K9+AA$3+(Convolutional!$N$19)</f>
-        <v>18518.814814814814</v>
+        <v>20018.814814814814</v>
       </c>
     </row>
     <row r="10" spans="2:27" x14ac:dyDescent="0.25">
@@ -5898,19 +5900,19 @@
       </c>
       <c r="C10" s="2">
         <f>'Fully-connected'!T3</f>
-        <v>478</v>
+        <v>628</v>
       </c>
       <c r="D10" s="2">
         <f>'Fully-connected'!U3</f>
-        <v>788</v>
+        <v>938</v>
       </c>
       <c r="E10" s="2">
         <f>'Fully-connected'!V3</f>
-        <v>1098</v>
+        <v>1248</v>
       </c>
       <c r="F10" s="2">
         <f>'Fully-connected'!W3</f>
-        <v>1408</v>
+        <v>1558</v>
       </c>
       <c r="I10" s="87"/>
       <c r="J10" t="s">
@@ -5922,67 +5924,67 @@
       </c>
       <c r="L10" s="2">
         <f>$K10+L$3+(Convolutional!$N$21)</f>
-        <v>25694</v>
+        <v>25844</v>
       </c>
       <c r="M10" s="2">
         <f>$K10+M$3+(Convolutional!$N$21)</f>
-        <v>26004</v>
+        <v>26154</v>
       </c>
       <c r="N10" s="2">
         <f>$K10+N$3+(Convolutional!$N$21)</f>
-        <v>26314</v>
+        <v>26464</v>
       </c>
       <c r="O10" s="2">
         <f>$K10+O$3+(Convolutional!$N$21)</f>
-        <v>26624</v>
+        <v>26774</v>
       </c>
       <c r="P10" s="2">
         <f>$K10+P$3+(Convolutional!$N$21)</f>
-        <v>26164</v>
+        <v>26464</v>
       </c>
       <c r="Q10" s="2">
         <f>$K10+Q$3+(Convolutional!$N$21)</f>
-        <v>26784</v>
+        <v>27084</v>
       </c>
       <c r="R10" s="2">
         <f>$K10+R$3+(Convolutional!$N$21)</f>
-        <v>27404</v>
+        <v>27704</v>
       </c>
       <c r="S10" s="2">
         <f>$K10+S$3+(Convolutional!$N$21)</f>
-        <v>28024</v>
+        <v>28324</v>
       </c>
       <c r="T10" s="2">
         <f>$K10+T$3+(Convolutional!$N$21)</f>
-        <v>26690</v>
+        <v>27290</v>
       </c>
       <c r="U10" s="2">
         <f>$K10+U$3+(Convolutional!$N$21)</f>
-        <v>27241.333333333332</v>
+        <v>27841.333333333332</v>
       </c>
       <c r="V10" s="2">
         <f>$K10+V$3+(Convolutional!$N$21)</f>
-        <v>27608.888888888891</v>
+        <v>28208.888888888891</v>
       </c>
       <c r="W10" s="2">
         <f>$K10+W$3+(Convolutional!$N$21)</f>
-        <v>27853.925925925927</v>
+        <v>28453.925925925927</v>
       </c>
       <c r="X10" s="2">
         <f>$K10+X$3+(Convolutional!$N$21)</f>
-        <v>28890</v>
+        <v>30390</v>
       </c>
       <c r="Y10" s="2">
         <f>$K10+Y$3+(Convolutional!$N$21)</f>
-        <v>30267.333333333332</v>
+        <v>31767.333333333332</v>
       </c>
       <c r="Z10" s="2">
         <f>$K10+Z$3+(Convolutional!$N$21)</f>
-        <v>31186.222222222223</v>
+        <v>32686.222222222223</v>
       </c>
       <c r="AA10" s="2">
         <f>$K10+AA$3+(Convolutional!$N$21)</f>
-        <v>31798.814814814814</v>
+        <v>33298.814814814818</v>
       </c>
     </row>
     <row r="11" spans="2:27" x14ac:dyDescent="0.25">
@@ -5992,19 +5994,19 @@
       </c>
       <c r="C11" s="2">
         <f>'Fully-connected'!T4</f>
-        <v>948</v>
+        <v>1248</v>
       </c>
       <c r="D11" s="2">
         <f>'Fully-connected'!U4</f>
-        <v>1568</v>
+        <v>1868</v>
       </c>
       <c r="E11" s="2">
         <f>'Fully-connected'!V4</f>
-        <v>2188</v>
+        <v>2488</v>
       </c>
       <c r="F11" s="2">
         <f>'Fully-connected'!W4</f>
-        <v>2808</v>
+        <v>3108</v>
       </c>
       <c r="I11" s="87"/>
       <c r="J11" t="s">
@@ -6016,67 +6018,67 @@
       </c>
       <c r="L11" s="2">
         <f>$K11+L$3+(Convolutional!$N$23)</f>
-        <v>40350</v>
+        <v>40500</v>
       </c>
       <c r="M11" s="2">
         <f>$K11+M$3+(Convolutional!$N$23)</f>
-        <v>40660</v>
+        <v>40810</v>
       </c>
       <c r="N11" s="2">
         <f>$K11+N$3+(Convolutional!$N$23)</f>
-        <v>40970</v>
+        <v>41120</v>
       </c>
       <c r="O11" s="2">
         <f>$K11+O$3+(Convolutional!$N$23)</f>
-        <v>41280</v>
+        <v>41430</v>
       </c>
       <c r="P11" s="2">
         <f>$K11+P$3+(Convolutional!$N$23)</f>
-        <v>40820</v>
+        <v>41120</v>
       </c>
       <c r="Q11" s="2">
         <f>$K11+Q$3+(Convolutional!$N$23)</f>
-        <v>41440</v>
+        <v>41740</v>
       </c>
       <c r="R11" s="2">
         <f>$K11+R$3+(Convolutional!$N$23)</f>
-        <v>42060</v>
+        <v>42360</v>
       </c>
       <c r="S11" s="2">
         <f>$K11+S$3+(Convolutional!$N$23)</f>
-        <v>42680</v>
+        <v>42980</v>
       </c>
       <c r="T11" s="2">
         <f>$K11+T$3+(Convolutional!$N$23)</f>
-        <v>41346</v>
+        <v>41946</v>
       </c>
       <c r="U11" s="2">
         <f>$K11+U$3+(Convolutional!$N$23)</f>
-        <v>41897.333333333328</v>
+        <v>42497.333333333328</v>
       </c>
       <c r="V11" s="2">
         <f>$K11+V$3+(Convolutional!$N$23)</f>
-        <v>42264.888888888891</v>
+        <v>42864.888888888891</v>
       </c>
       <c r="W11" s="2">
         <f>$K11+W$3+(Convolutional!$N$23)</f>
-        <v>42509.925925925927</v>
+        <v>43109.925925925927</v>
       </c>
       <c r="X11" s="2">
         <f>$K11+X$3+(Convolutional!$N$23)</f>
-        <v>43546</v>
+        <v>45046</v>
       </c>
       <c r="Y11" s="2">
         <f>$K11+Y$3+(Convolutional!$N$23)</f>
-        <v>44923.333333333328</v>
+        <v>46423.333333333328</v>
       </c>
       <c r="Z11" s="2">
         <f>$K11+Z$3+(Convolutional!$N$23)</f>
-        <v>45842.222222222219</v>
+        <v>47342.222222222219</v>
       </c>
       <c r="AA11" s="2">
         <f>$K11+AA$3+(Convolutional!$N$23)</f>
-        <v>46454.814814814818</v>
+        <v>47954.814814814818</v>
       </c>
     </row>
     <row r="12" spans="2:27" x14ac:dyDescent="0.25">
@@ -6086,19 +6088,19 @@
       </c>
       <c r="C12" s="2">
         <f>'Fully-connected'!T5</f>
-        <v>1474</v>
+        <v>2074</v>
       </c>
       <c r="D12" s="2">
         <f>'Fully-connected'!U5</f>
-        <v>2025.3333333333335</v>
+        <v>2625.3333333333335</v>
       </c>
       <c r="E12" s="2">
         <f>'Fully-connected'!V5</f>
-        <v>2392.8888888888891</v>
+        <v>2992.8888888888891</v>
       </c>
       <c r="F12" s="2">
         <f>'Fully-connected'!W5</f>
-        <v>2637.9259259259261</v>
+        <v>3237.9259259259261</v>
       </c>
       <c r="I12" s="87"/>
       <c r="J12" t="s">
@@ -6110,67 +6112,67 @@
       </c>
       <c r="L12" s="2">
         <f>$K12+L$3+(Convolutional!$N$25)</f>
-        <v>44446</v>
+        <v>44596</v>
       </c>
       <c r="M12" s="2">
         <f>$K12+M$3+(Convolutional!$N$25)</f>
-        <v>44756</v>
+        <v>44906</v>
       </c>
       <c r="N12" s="2">
         <f>$K12+N$3+(Convolutional!$N$25)</f>
-        <v>45066</v>
+        <v>45216</v>
       </c>
       <c r="O12" s="2">
         <f>$K12+O$3+(Convolutional!$N$25)</f>
-        <v>45376</v>
+        <v>45526</v>
       </c>
       <c r="P12" s="2">
         <f>$K12+P$3+(Convolutional!$N$25)</f>
-        <v>44916</v>
+        <v>45216</v>
       </c>
       <c r="Q12" s="2">
         <f>$K12+Q$3+(Convolutional!$N$25)</f>
-        <v>45536</v>
+        <v>45836</v>
       </c>
       <c r="R12" s="2">
         <f>$K12+R$3+(Convolutional!$N$25)</f>
-        <v>46156</v>
+        <v>46456</v>
       </c>
       <c r="S12" s="2">
         <f>$K12+S$3+(Convolutional!$N$25)</f>
-        <v>46776</v>
+        <v>47076</v>
       </c>
       <c r="T12" s="2">
         <f>$K12+T$3+(Convolutional!$N$25)</f>
-        <v>45442</v>
+        <v>46042</v>
       </c>
       <c r="U12" s="2">
         <f>$K12+U$3+(Convolutional!$N$25)</f>
-        <v>45993.333333333328</v>
+        <v>46593.333333333328</v>
       </c>
       <c r="V12" s="2">
         <f>$K12+V$3+(Convolutional!$N$25)</f>
-        <v>46360.888888888891</v>
+        <v>46960.888888888891</v>
       </c>
       <c r="W12" s="2">
         <f>$K12+W$3+(Convolutional!$N$25)</f>
-        <v>46605.925925925927</v>
+        <v>47205.925925925927</v>
       </c>
       <c r="X12" s="2">
         <f>$K12+X$3+(Convolutional!$N$25)</f>
-        <v>47642</v>
+        <v>49142</v>
       </c>
       <c r="Y12" s="2">
         <f>$K12+Y$3+(Convolutional!$N$25)</f>
-        <v>49019.333333333336</v>
+        <v>50519.333333333336</v>
       </c>
       <c r="Z12" s="2">
         <f>$K12+Z$3+(Convolutional!$N$25)</f>
-        <v>49938.222222222219</v>
+        <v>51438.222222222219</v>
       </c>
       <c r="AA12" s="2">
         <f>$K12+AA$3+(Convolutional!$N$25)</f>
-        <v>50550.814814814818</v>
+        <v>52050.814814814818</v>
       </c>
     </row>
     <row r="13" spans="2:27" x14ac:dyDescent="0.25">
@@ -6180,19 +6182,19 @@
       </c>
       <c r="C13" s="2">
         <f>'Fully-connected'!T6</f>
-        <v>3674</v>
+        <v>5174</v>
       </c>
       <c r="D13" s="2">
         <f>'Fully-connected'!U6</f>
-        <v>5051.333333333333</v>
+        <v>6551.333333333333</v>
       </c>
       <c r="E13" s="2">
         <f>'Fully-connected'!V6</f>
-        <v>5970.2222222222217</v>
+        <v>7470.2222222222217</v>
       </c>
       <c r="F13" s="2">
         <f>'Fully-connected'!W6</f>
-        <v>6582.8148148148139</v>
+        <v>8082.8148148148139</v>
       </c>
       <c r="I13" s="87"/>
       <c r="J13" t="s">
@@ -6204,67 +6206,67 @@
       </c>
       <c r="L13" s="2">
         <f>$K13+L$3+(Convolutional!$N$27)</f>
-        <v>34078</v>
+        <v>34228</v>
       </c>
       <c r="M13" s="2">
         <f>$K13+M$3+(Convolutional!$N$27)</f>
-        <v>34388</v>
+        <v>34538</v>
       </c>
       <c r="N13" s="2">
         <f>$K13+N$3+(Convolutional!$N$27)</f>
-        <v>34698</v>
+        <v>34848</v>
       </c>
       <c r="O13" s="2">
         <f>$K13+O$3+(Convolutional!$N$27)</f>
-        <v>35008</v>
+        <v>35158</v>
       </c>
       <c r="P13" s="2">
         <f>$K13+P$3+(Convolutional!$N$27)</f>
-        <v>34548</v>
+        <v>34848</v>
       </c>
       <c r="Q13" s="2">
         <f>$K13+Q$3+(Convolutional!$N$27)</f>
-        <v>35168</v>
+        <v>35468</v>
       </c>
       <c r="R13" s="2">
         <f>$K13+R$3+(Convolutional!$N$27)</f>
-        <v>35788</v>
+        <v>36088</v>
       </c>
       <c r="S13" s="2">
         <f>$K13+S$3+(Convolutional!$N$27)</f>
-        <v>36408</v>
+        <v>36708</v>
       </c>
       <c r="T13" s="2">
         <f>$K13+T$3+(Convolutional!$N$27)</f>
-        <v>35074</v>
+        <v>35674</v>
       </c>
       <c r="U13" s="2">
         <f>$K13+U$3+(Convolutional!$N$27)</f>
-        <v>35625.333333333336</v>
+        <v>36225.333333333336</v>
       </c>
       <c r="V13" s="2">
         <f>$K13+V$3+(Convolutional!$N$27)</f>
-        <v>35992.888888888891</v>
+        <v>36592.888888888891</v>
       </c>
       <c r="W13" s="2">
         <f>$K13+W$3+(Convolutional!$N$27)</f>
-        <v>36237.925925925927</v>
+        <v>36837.925925925927</v>
       </c>
       <c r="X13" s="2">
         <f>$K13+X$3+(Convolutional!$N$27)</f>
-        <v>37274</v>
+        <v>38774</v>
       </c>
       <c r="Y13" s="2">
         <f>$K13+Y$3+(Convolutional!$N$27)</f>
-        <v>38651.333333333336</v>
+        <v>40151.333333333336</v>
       </c>
       <c r="Z13" s="2">
         <f>$K13+Z$3+(Convolutional!$N$27)</f>
-        <v>39570.222222222219</v>
+        <v>41070.222222222219</v>
       </c>
       <c r="AA13" s="2">
         <f>$K13+AA$3+(Convolutional!$N$27)</f>
-        <v>40182.814814814818</v>
+        <v>41682.814814814818</v>
       </c>
     </row>
     <row r="14" spans="2:27" x14ac:dyDescent="0.25">
@@ -6281,67 +6283,67 @@
       </c>
       <c r="L14" s="2">
         <f>$K14+L$3+(Convolutional!$N$33)</f>
-        <v>105406</v>
+        <v>105556</v>
       </c>
       <c r="M14" s="2">
         <f>$K14+M$3+(Convolutional!$N$33)</f>
-        <v>105716</v>
+        <v>105866</v>
       </c>
       <c r="N14" s="2">
         <f>$K14+N$3+(Convolutional!$N$33)</f>
-        <v>106026</v>
+        <v>106176</v>
       </c>
       <c r="O14" s="2">
         <f>$K14+O$3+(Convolutional!$N$33)</f>
-        <v>106336</v>
+        <v>106486</v>
       </c>
       <c r="P14" s="2">
         <f>$K14+P$3+(Convolutional!$N$33)</f>
-        <v>105876</v>
+        <v>106176</v>
       </c>
       <c r="Q14" s="2">
         <f>$K14+Q$3+(Convolutional!$N$33)</f>
-        <v>106496</v>
+        <v>106796</v>
       </c>
       <c r="R14" s="2">
         <f>$K14+R$3+(Convolutional!$N$33)</f>
-        <v>107116</v>
+        <v>107416</v>
       </c>
       <c r="S14" s="2">
         <f>$K14+S$3+(Convolutional!$N$33)</f>
-        <v>107736</v>
+        <v>108036</v>
       </c>
       <c r="T14" s="2">
         <f>$K14+T$3+(Convolutional!$N$33)</f>
-        <v>106402</v>
+        <v>107002</v>
       </c>
       <c r="U14" s="2">
         <f>$K14+U$3+(Convolutional!$N$33)</f>
-        <v>106953.33333333334</v>
+        <v>107553.33333333334</v>
       </c>
       <c r="V14" s="2">
         <f>$K14+V$3+(Convolutional!$N$33)</f>
-        <v>107320.88888888889</v>
+        <v>107920.88888888889</v>
       </c>
       <c r="W14" s="2">
         <f>$K14+W$3+(Convolutional!$N$33)</f>
-        <v>107565.92592592593</v>
+        <v>108165.92592592593</v>
       </c>
       <c r="X14" s="2">
         <f>$K14+X$3+(Convolutional!$N$33)</f>
-        <v>108602</v>
+        <v>110102</v>
       </c>
       <c r="Y14" s="2">
         <f>$K14+Y$3+(Convolutional!$N$33)</f>
-        <v>109979.33333333334</v>
+        <v>111479.33333333334</v>
       </c>
       <c r="Z14" s="2">
         <f>$K14+Z$3+(Convolutional!$N$33)</f>
-        <v>110898.22222222222</v>
+        <v>112398.22222222222</v>
       </c>
       <c r="AA14" s="2">
         <f>$K14+AA$3+(Convolutional!$N$33)</f>
-        <v>111510.81481481482</v>
+        <v>113010.81481481482</v>
       </c>
     </row>
     <row r="15" spans="2:27" x14ac:dyDescent="0.25">
@@ -6355,67 +6357,67 @@
       </c>
       <c r="L15" s="2">
         <f>$K15+L$3+(Convolutional!$N$35)</f>
-        <v>295518</v>
+        <v>295668</v>
       </c>
       <c r="M15" s="2">
         <f>$K15+M$3+(Convolutional!$N$35)</f>
-        <v>295828</v>
+        <v>295978</v>
       </c>
       <c r="N15" s="2">
         <f>$K15+N$3+(Convolutional!$N$35)</f>
-        <v>296138</v>
+        <v>296288</v>
       </c>
       <c r="O15" s="2">
         <f>$K15+O$3+(Convolutional!$N$35)</f>
-        <v>296448</v>
+        <v>296598</v>
       </c>
       <c r="P15" s="2">
         <f>$K15+P$3+(Convolutional!$N$35)</f>
-        <v>295988</v>
+        <v>296288</v>
       </c>
       <c r="Q15" s="2">
         <f>$K15+Q$3+(Convolutional!$N$35)</f>
-        <v>296608</v>
+        <v>296908</v>
       </c>
       <c r="R15" s="2">
         <f>$K15+R$3+(Convolutional!$N$35)</f>
-        <v>297228</v>
+        <v>297528</v>
       </c>
       <c r="S15" s="2">
         <f>$K15+S$3+(Convolutional!$N$35)</f>
-        <v>297848</v>
+        <v>298148</v>
       </c>
       <c r="T15" s="2">
         <f>$K15+T$3+(Convolutional!$N$35)</f>
-        <v>296514</v>
+        <v>297114</v>
       </c>
       <c r="U15" s="2">
         <f>$K15+U$3+(Convolutional!$N$35)</f>
-        <v>297065.33333333337</v>
+        <v>297665.33333333337</v>
       </c>
       <c r="V15" s="2">
         <f>$K15+V$3+(Convolutional!$N$35)</f>
-        <v>297432.88888888888</v>
+        <v>298032.88888888888</v>
       </c>
       <c r="W15" s="2">
         <f>$K15+W$3+(Convolutional!$N$35)</f>
-        <v>297677.92592592596</v>
+        <v>298277.92592592596</v>
       </c>
       <c r="X15" s="2">
         <f>$K15+X$3+(Convolutional!$N$35)</f>
-        <v>298714</v>
+        <v>300214</v>
       </c>
       <c r="Y15" s="2">
         <f>$K15+Y$3+(Convolutional!$N$35)</f>
-        <v>300091.33333333337</v>
+        <v>301591.33333333337</v>
       </c>
       <c r="Z15" s="2">
         <f>$K15+Z$3+(Convolutional!$N$35)</f>
-        <v>301010.22222222225</v>
+        <v>302510.22222222225</v>
       </c>
       <c r="AA15" s="2">
         <f>$K15+AA$3+(Convolutional!$N$35)</f>
-        <v>301622.81481481483</v>
+        <v>303122.81481481483</v>
       </c>
     </row>
     <row r="16" spans="2:27" x14ac:dyDescent="0.25">
@@ -6429,67 +6431,67 @@
       </c>
       <c r="L16" s="2">
         <f>$K16+L$3+(Convolutional!$N$37)</f>
-        <v>426974</v>
+        <v>427124</v>
       </c>
       <c r="M16" s="2">
         <f>$K16+M$3+(Convolutional!$N$37)</f>
-        <v>427284</v>
+        <v>427434</v>
       </c>
       <c r="N16" s="2">
         <f>$K16+N$3+(Convolutional!$N$37)</f>
-        <v>427594</v>
+        <v>427744</v>
       </c>
       <c r="O16" s="2">
         <f>$K16+O$3+(Convolutional!$N$37)</f>
-        <v>427904</v>
+        <v>428054</v>
       </c>
       <c r="P16" s="2">
         <f>$K16+P$3+(Convolutional!$N$37)</f>
-        <v>427444</v>
+        <v>427744</v>
       </c>
       <c r="Q16" s="2">
         <f>$K16+Q$3+(Convolutional!$N$37)</f>
-        <v>428064</v>
+        <v>428364</v>
       </c>
       <c r="R16" s="2">
         <f>$K16+R$3+(Convolutional!$N$37)</f>
-        <v>428684</v>
+        <v>428984</v>
       </c>
       <c r="S16" s="2">
         <f>$K16+S$3+(Convolutional!$N$37)</f>
-        <v>429304</v>
+        <v>429604</v>
       </c>
       <c r="T16" s="2">
         <f>$K16+T$3+(Convolutional!$N$37)</f>
-        <v>427970</v>
+        <v>428570</v>
       </c>
       <c r="U16" s="2">
         <f>$K16+U$3+(Convolutional!$N$37)</f>
-        <v>428521.33333333331</v>
+        <v>429121.33333333331</v>
       </c>
       <c r="V16" s="2">
         <f>$K16+V$3+(Convolutional!$N$37)</f>
-        <v>428888.88888888888</v>
+        <v>429488.88888888888</v>
       </c>
       <c r="W16" s="2">
         <f>$K16+W$3+(Convolutional!$N$37)</f>
-        <v>429133.9259259259</v>
+        <v>429733.9259259259</v>
       </c>
       <c r="X16" s="2">
         <f>$K16+X$3+(Convolutional!$N$37)</f>
-        <v>430170</v>
+        <v>431670</v>
       </c>
       <c r="Y16" s="2">
         <f>$K16+Y$3+(Convolutional!$N$37)</f>
-        <v>431547.33333333331</v>
+        <v>433047.33333333331</v>
       </c>
       <c r="Z16" s="2">
         <f>$K16+Z$3+(Convolutional!$N$37)</f>
-        <v>432466.22222222225</v>
+        <v>433966.22222222225</v>
       </c>
       <c r="AA16" s="2">
         <f>$K16+AA$3+(Convolutional!$N$37)</f>
-        <v>433078.81481481483</v>
+        <v>434578.81481481483</v>
       </c>
     </row>
     <row r="17" spans="9:27" x14ac:dyDescent="0.25">
@@ -6503,67 +6505,67 @@
       </c>
       <c r="L17" s="2">
         <f>$K17+L$3+(Convolutional!$N$39)</f>
-        <v>455774</v>
+        <v>455924</v>
       </c>
       <c r="M17" s="2">
         <f>$K17+M$3+(Convolutional!$N$39)</f>
-        <v>456084</v>
+        <v>456234</v>
       </c>
       <c r="N17" s="2">
         <f>$K17+N$3+(Convolutional!$N$39)</f>
-        <v>456394</v>
+        <v>456544</v>
       </c>
       <c r="O17" s="2">
         <f>$K17+O$3+(Convolutional!$N$39)</f>
-        <v>456704</v>
+        <v>456854</v>
       </c>
       <c r="P17" s="2">
         <f>$K17+P$3+(Convolutional!$N$39)</f>
-        <v>456244</v>
+        <v>456544</v>
       </c>
       <c r="Q17" s="2">
         <f>$K17+Q$3+(Convolutional!$N$39)</f>
-        <v>456864</v>
+        <v>457164</v>
       </c>
       <c r="R17" s="2">
         <f>$K17+R$3+(Convolutional!$N$39)</f>
-        <v>457484</v>
+        <v>457784</v>
       </c>
       <c r="S17" s="2">
         <f>$K17+S$3+(Convolutional!$N$39)</f>
-        <v>458104</v>
+        <v>458404</v>
       </c>
       <c r="T17" s="2">
         <f>$K17+T$3+(Convolutional!$N$39)</f>
-        <v>456770</v>
+        <v>457370</v>
       </c>
       <c r="U17" s="2">
         <f>$K17+U$3+(Convolutional!$N$39)</f>
-        <v>457321.33333333331</v>
+        <v>457921.33333333331</v>
       </c>
       <c r="V17" s="2">
         <f>$K17+V$3+(Convolutional!$N$39)</f>
-        <v>457688.88888888888</v>
+        <v>458288.88888888888</v>
       </c>
       <c r="W17" s="2">
         <f>$K17+W$3+(Convolutional!$N$39)</f>
-        <v>457933.9259259259</v>
+        <v>458533.9259259259</v>
       </c>
       <c r="X17" s="2">
         <f>$K17+X$3+(Convolutional!$N$39)</f>
-        <v>458970</v>
+        <v>460470</v>
       </c>
       <c r="Y17" s="2">
         <f>$K17+Y$3+(Convolutional!$N$39)</f>
-        <v>460347.33333333331</v>
+        <v>461847.33333333331</v>
       </c>
       <c r="Z17" s="2">
         <f>$K17+Z$3+(Convolutional!$N$39)</f>
-        <v>461266.22222222225</v>
+        <v>462766.22222222225</v>
       </c>
       <c r="AA17" s="2">
         <f>$K17+AA$3+(Convolutional!$N$39)</f>
-        <v>461878.81481481483</v>
+        <v>463378.81481481483</v>
       </c>
     </row>
     <row r="18" spans="9:27" x14ac:dyDescent="0.25">
@@ -6577,67 +6579,67 @@
       </c>
       <c r="L18" s="2">
         <f>$K18+L$3+(Convolutional!$N$41)</f>
-        <v>419422</v>
+        <v>419572</v>
       </c>
       <c r="M18" s="2">
         <f>$K18+M$3+(Convolutional!$N$41)</f>
-        <v>419732</v>
+        <v>419882</v>
       </c>
       <c r="N18" s="2">
         <f>$K18+N$3+(Convolutional!$N$41)</f>
-        <v>420042</v>
+        <v>420192</v>
       </c>
       <c r="O18" s="2">
         <f>$K18+O$3+(Convolutional!$N$41)</f>
-        <v>420352</v>
+        <v>420502</v>
       </c>
       <c r="P18" s="2">
         <f>$K18+P$3+(Convolutional!$N$41)</f>
-        <v>419892</v>
+        <v>420192</v>
       </c>
       <c r="Q18" s="2">
         <f>$K18+Q$3+(Convolutional!$N$41)</f>
-        <v>420512</v>
+        <v>420812</v>
       </c>
       <c r="R18" s="2">
         <f>$K18+R$3+(Convolutional!$N$41)</f>
-        <v>421132</v>
+        <v>421432</v>
       </c>
       <c r="S18" s="2">
         <f>$K18+S$3+(Convolutional!$N$41)</f>
-        <v>421752</v>
+        <v>422052</v>
       </c>
       <c r="T18" s="2">
         <f>$K18+T$3+(Convolutional!$N$41)</f>
-        <v>420418</v>
+        <v>421018</v>
       </c>
       <c r="U18" s="2">
         <f>$K18+U$3+(Convolutional!$N$41)</f>
-        <v>420969.33333333331</v>
+        <v>421569.33333333331</v>
       </c>
       <c r="V18" s="2">
         <f>$K18+V$3+(Convolutional!$N$41)</f>
-        <v>421336.88888888888</v>
+        <v>421936.88888888888</v>
       </c>
       <c r="W18" s="2">
         <f>$K18+W$3+(Convolutional!$N$41)</f>
-        <v>421581.9259259259</v>
+        <v>422181.9259259259</v>
       </c>
       <c r="X18" s="2">
         <f>$K18+X$3+(Convolutional!$N$41)</f>
-        <v>422618</v>
+        <v>424118</v>
       </c>
       <c r="Y18" s="2">
         <f>$K18+Y$3+(Convolutional!$N$41)</f>
-        <v>423995.33333333331</v>
+        <v>425495.33333333331</v>
       </c>
       <c r="Z18" s="2">
         <f>$K18+Z$3+(Convolutional!$N$41)</f>
-        <v>424914.22222222225</v>
+        <v>426414.22222222225</v>
       </c>
       <c r="AA18" s="2">
         <f>$K18+AA$3+(Convolutional!$N$41)</f>
-        <v>425526.81481481483</v>
+        <v>427026.81481481483</v>
       </c>
     </row>
     <row r="26" spans="9:27" x14ac:dyDescent="0.25">
@@ -6932,67 +6934,67 @@
       </c>
       <c r="G4" s="45">
         <f>'cDEBI-NN'!L3</f>
-        <v>478</v>
+        <v>628</v>
       </c>
       <c r="H4" s="45">
         <f>'cDEBI-NN'!M3</f>
-        <v>788</v>
+        <v>938</v>
       </c>
       <c r="I4" s="45">
         <f>'cDEBI-NN'!N3</f>
-        <v>1098</v>
+        <v>1248</v>
       </c>
       <c r="J4" s="67">
         <f>'cDEBI-NN'!O3</f>
-        <v>1408</v>
+        <v>1558</v>
       </c>
       <c r="K4" s="45">
         <f>'cDEBI-NN'!P3</f>
-        <v>948</v>
+        <v>1248</v>
       </c>
       <c r="L4" s="45">
         <f>'cDEBI-NN'!Q3</f>
-        <v>1568</v>
+        <v>1868</v>
       </c>
       <c r="M4" s="45">
         <f>'cDEBI-NN'!R3</f>
-        <v>2188</v>
+        <v>2488</v>
       </c>
       <c r="N4" s="67">
         <f>'cDEBI-NN'!S3</f>
-        <v>2808</v>
+        <v>3108</v>
       </c>
       <c r="O4" s="45">
         <f>'cDEBI-NN'!T3</f>
-        <v>1474</v>
+        <v>2074</v>
       </c>
       <c r="P4" s="45">
         <f>'cDEBI-NN'!U3</f>
-        <v>2025.3333333333335</v>
+        <v>2625.3333333333335</v>
       </c>
       <c r="Q4" s="45">
         <f>'cDEBI-NN'!V3</f>
-        <v>2392.8888888888891</v>
+        <v>2992.8888888888891</v>
       </c>
       <c r="R4" s="67">
         <f>'cDEBI-NN'!W3</f>
-        <v>2637.9259259259261</v>
+        <v>3237.9259259259261</v>
       </c>
       <c r="S4" s="45">
         <f>'cDEBI-NN'!X3</f>
-        <v>3674</v>
+        <v>5174</v>
       </c>
       <c r="T4" s="45">
         <f>'cDEBI-NN'!Y3</f>
-        <v>5051.333333333333</v>
+        <v>6551.333333333333</v>
       </c>
       <c r="U4" s="45">
         <f>'cDEBI-NN'!Z3</f>
-        <v>5970.2222222222217</v>
+        <v>7470.2222222222217</v>
       </c>
       <c r="V4" s="45">
         <f>'cDEBI-NN'!AA3</f>
-        <v>6582.8148148148139</v>
+        <v>8082.8148148148139</v>
       </c>
       <c r="W4" s="57"/>
     </row>
@@ -7048,67 +7050,67 @@
       <c r="F6" s="61"/>
       <c r="G6" s="52">
         <f>'cDEBI-NN'!L4/cNN!L4</f>
-        <v>4.9183887662408166E-2</v>
+        <v>5.1898230248633784E-2</v>
       </c>
       <c r="H6" s="52">
         <f>'cDEBI-NN'!M4/cNN!M4</f>
-        <v>5.2412933601052411E-2</v>
+        <v>5.5009347088555011E-2</v>
       </c>
       <c r="I6" s="52">
         <f>'cDEBI-NN'!N4/cNN!N4</f>
-        <v>5.5373079858000732E-2</v>
+        <v>5.7861384824657441E-2</v>
       </c>
       <c r="J6" s="69">
         <f>'cDEBI-NN'!O4/cNN!O4</f>
-        <v>5.8096572811823163E-2</v>
+        <v>6.0485412154414574E-2</v>
       </c>
       <c r="K6" s="52">
         <f>'cDEBI-NN'!P4/cNN!P4</f>
-        <v>2.7944811626724637E-2</v>
+        <v>3.0574499044546906E-2</v>
       </c>
       <c r="L6" s="52">
         <f>'cDEBI-NN'!Q4/cNN!Q4</f>
-        <v>3.0684436995374771E-2</v>
+        <v>3.3101803355304507E-2</v>
       </c>
       <c r="M6" s="52">
         <f>'cDEBI-NN'!R4/cNN!R4</f>
-        <v>3.3014717943364996E-2</v>
+        <v>3.525148745172306E-2</v>
       </c>
       <c r="N6" s="69">
         <f>'cDEBI-NN'!S4/cNN!S4</f>
-        <v>3.5021020937686449E-2</v>
+        <v>3.7102301896740714E-2</v>
       </c>
       <c r="O6" s="52">
         <f>'cDEBI-NN'!T4/cNN!T4</f>
-        <v>1.5923421234658237E-2</v>
+        <v>1.8495864083552943E-2</v>
       </c>
       <c r="P6" s="52">
         <f>'cDEBI-NN'!U4/cNN!U4</f>
-        <v>1.7407939594915173E-2</v>
+        <v>1.9856696336932E-2</v>
       </c>
       <c r="Q6" s="52">
         <f>'cDEBI-NN'!V4/cNN!V4</f>
-        <v>1.8513595387151499E-2</v>
+        <v>2.091126938683056E-2</v>
       </c>
       <c r="R6" s="69">
         <f>'cDEBI-NN'!W4/cNN!W4</f>
-        <v>1.9314531149085174E-2</v>
+        <v>2.1690278314054953E-2</v>
       </c>
       <c r="S6" s="52">
         <f>'cDEBI-NN'!X4/cNN!X4</f>
-        <v>8.6850360089758116E-3</v>
+        <v>1.0887868950041709E-2</v>
       </c>
       <c r="T6" s="52">
         <f>'cDEBI-NN'!Y4/cNN!Y4</f>
-        <v>9.6594781979964864E-3</v>
+        <v>1.164666169854436E-2</v>
       </c>
       <c r="U6" s="52">
         <f>'cDEBI-NN'!Z4/cNN!Z4</f>
-        <v>1.0423814668595743E-2</v>
+        <v>1.2328235959480311E-2</v>
       </c>
       <c r="V6" s="53">
         <f>'cDEBI-NN'!AA4/cNN!AA4</f>
-        <v>1.099835555355773E-2</v>
+        <v>1.286822743420004E-2</v>
       </c>
       <c r="W6" s="57"/>
     </row>
@@ -7130,67 +7132,67 @@
       <c r="F7" s="61"/>
       <c r="G7" s="52">
         <f>'cDEBI-NN'!L5/cNN!L5</f>
-        <v>7.4059371002602445E-2</v>
+        <v>7.7367562083719282E-2</v>
       </c>
       <c r="H7" s="52">
         <f>'cDEBI-NN'!M5/cNN!M5</f>
-        <v>7.6653013458162667E-2</v>
+        <v>7.9787678675917406E-2</v>
       </c>
       <c r="I7" s="52">
         <f>'cDEBI-NN'!N5/cNN!N5</f>
-        <v>7.8988125967991735E-2</v>
+        <v>8.1966562090465031E-2</v>
       </c>
       <c r="J7" s="69">
         <f>'cDEBI-NN'!O5/cNN!O5</f>
-        <v>8.1101528219095179E-2</v>
+        <v>8.3938568618550466E-2</v>
       </c>
       <c r="K7" s="52">
         <f>'cDEBI-NN'!P5/cNN!P5</f>
-        <v>4.1535556954059159E-2</v>
+        <v>4.4790694646383543E-2</v>
       </c>
       <c r="L7" s="52">
         <f>'cDEBI-NN'!Q5/cNN!Q5</f>
-        <v>4.3530171654498837E-2</v>
+        <v>4.6466109490908382E-2</v>
       </c>
       <c r="M7" s="52">
         <f>'cDEBI-NN'!R5/cNN!R5</f>
-        <v>4.5168535320226022E-2</v>
+        <v>4.7842284451257551E-2</v>
       </c>
       <c r="N7" s="69">
         <f>'cDEBI-NN'!S5/cNN!S5</f>
-        <v>4.6538266433211697E-2</v>
+        <v>4.8992816350575182E-2</v>
       </c>
       <c r="O7" s="52">
         <f>'cDEBI-NN'!T5/cNN!T5</f>
-        <v>2.3243481788869036E-2</v>
+        <v>2.6446533941675978E-2</v>
       </c>
       <c r="P7" s="52">
         <f>'cDEBI-NN'!U5/cNN!U5</f>
-        <v>2.4637251425937388E-2</v>
+        <v>2.7650777694399421E-2</v>
       </c>
       <c r="Q7" s="52">
         <f>'cDEBI-NN'!V5/cNN!V5</f>
-        <v>2.5806693822689027E-2</v>
+        <v>2.8743227593814296E-2</v>
       </c>
       <c r="R7" s="69">
         <f>'cDEBI-NN'!W5/cNN!W5</f>
-        <v>2.67041045503109E-2</v>
+        <v>2.9607815644891775E-2</v>
       </c>
       <c r="S7" s="52">
         <f>'cDEBI-NN'!X5/cNN!X5</f>
-        <v>1.1640766720503192E-2</v>
+        <v>1.4304964169504532E-2</v>
       </c>
       <c r="T7" s="52">
         <f>'cDEBI-NN'!Y5/cNN!Y5</f>
-        <v>1.2452691680830184E-2</v>
+        <v>1.4807785929957518E-2</v>
       </c>
       <c r="U7" s="52">
         <f>'cDEBI-NN'!Z5/cNN!Z5</f>
-        <v>1.321479277841245E-2</v>
+        <v>1.5454531925057457E-2</v>
       </c>
       <c r="V7" s="53">
         <f>'cDEBI-NN'!AA5/cNN!AA5</f>
-        <v>1.3828984938939491E-2</v>
+        <v>1.6021089277273748E-2</v>
       </c>
       <c r="W7" s="65"/>
       <c r="X7" s="2"/>
@@ -7213,67 +7215,67 @@
       <c r="F8" s="62"/>
       <c r="G8" s="51">
         <f>'cDEBI-NN'!L6/cNN!L6</f>
-        <v>7.9796363636363637E-2</v>
+        <v>8.1978181818181825E-2</v>
       </c>
       <c r="H8" s="52">
         <f>'cDEBI-NN'!M6/cNN!M6</f>
-        <v>8.1335952848722984E-2</v>
+        <v>8.3440920572551217E-2</v>
       </c>
       <c r="I8" s="52">
         <f>'cDEBI-NN'!N6/cNN!N6</f>
-        <v>8.2770774027382407E-2</v>
+        <v>8.4804120916361664E-2</v>
       </c>
       <c r="J8" s="69">
         <f>'cDEBI-NN'!O6/cNN!O6</f>
-        <v>8.4111169375983216E-2</v>
+        <v>8.6077608809648667E-2</v>
       </c>
       <c r="K8" s="52">
         <f>'cDEBI-NN'!P6/cNN!P6</f>
-        <v>4.4457714413674701E-2</v>
+        <v>4.6697021721280881E-2</v>
       </c>
       <c r="L8" s="52">
         <f>'cDEBI-NN'!Q6/cNN!Q6</f>
-        <v>4.5669838183207169E-2</v>
+        <v>4.7753316202514065E-2</v>
       </c>
       <c r="M8" s="52">
         <f>'cDEBI-NN'!R6/cNN!R6</f>
-        <v>4.6724238685799627E-2</v>
+        <v>4.8672164145185375E-2</v>
       </c>
       <c r="N8" s="69">
         <f>'cDEBI-NN'!S6/cNN!S6</f>
-        <v>4.7649820154849726E-2</v>
+        <v>4.9478753886484178E-2</v>
       </c>
       <c r="O8" s="52">
         <f>'cDEBI-NN'!T6/cNN!T6</f>
-        <v>2.4374896589068776E-2</v>
+        <v>2.6631135088519758E-2</v>
       </c>
       <c r="P8" s="52">
         <f>'cDEBI-NN'!U6/cNN!U6</f>
-        <v>2.532615256666353E-2</v>
+        <v>2.7486677430170373E-2</v>
       </c>
       <c r="Q8" s="52">
         <f>'cDEBI-NN'!V6/cNN!V6</f>
-        <v>2.6157972326030739E-2</v>
+        <v>2.8278634266947236E-2</v>
       </c>
       <c r="R8" s="69">
         <f>'cDEBI-NN'!W6/cNN!W6</f>
-        <v>2.6805225489362917E-2</v>
+        <v>2.8908716348342182E-2</v>
       </c>
       <c r="S8" s="52">
         <f>'cDEBI-NN'!X6/cNN!X6</f>
-        <v>1.1544762438344605E-2</v>
+        <v>1.3539365485743466E-2</v>
       </c>
       <c r="T8" s="52">
         <f>'cDEBI-NN'!Y6/cNN!Y6</f>
-        <v>1.2179472806702068E-2</v>
+        <v>1.3995617933289625E-2</v>
       </c>
       <c r="U8" s="52">
         <f>'cDEBI-NN'!Z6/cNN!Z6</f>
-        <v>1.278427090362437E-2</v>
+        <v>1.4531038819892223E-2</v>
       </c>
       <c r="V8" s="53">
         <f>'cDEBI-NN'!AA6/cNN!AA6</f>
-        <v>1.3272705539665827E-2</v>
+        <v>1.4990363756761311E-2</v>
       </c>
       <c r="W8" s="65"/>
       <c r="X8" s="2"/>
@@ -7296,67 +7298,67 @@
       <c r="F9" s="62"/>
       <c r="G9" s="51">
         <f>'cDEBI-NN'!L7/cNN!L7</f>
-        <v>0.11481197748392899</v>
+        <v>0.11731006228558105</v>
       </c>
       <c r="H9" s="52">
         <f>'cDEBI-NN'!M7/cNN!M7</f>
-        <v>0.11516081590894559</v>
+        <v>0.11755866743397915</v>
       </c>
       <c r="I9" s="52">
         <f>'cDEBI-NN'!N7/cNN!N7</f>
-        <v>0.11548274060185043</v>
+        <v>0.11778809209110749</v>
       </c>
       <c r="J9" s="69">
         <f>'cDEBI-NN'!O7/cNN!O7</f>
-        <v>0.11578075056232982</v>
+        <v>0.1180004735409021</v>
       </c>
       <c r="K9" s="52">
         <f>'cDEBI-NN'!P7/cNN!P7</f>
-        <v>6.8396708338751319E-2</v>
+        <v>7.1183103300949235E-2</v>
       </c>
       <c r="L9" s="52">
         <f>'cDEBI-NN'!Q7/cNN!Q7</f>
-        <v>6.7841544448787455E-2</v>
+        <v>7.0390700678075555E-2</v>
       </c>
       <c r="M9" s="52">
         <f>'cDEBI-NN'!R7/cNN!R7</f>
-        <v>6.7373498504377238E-2</v>
+        <v>6.9722644198393191E-2</v>
       </c>
       <c r="N9" s="69">
         <f>'cDEBI-NN'!S7/cNN!S7</f>
-        <v>6.697355619127833E-2</v>
+        <v>6.9151794141992073E-2</v>
       </c>
       <c r="O9" s="52">
         <f>'cDEBI-NN'!T7/cNN!T7</f>
-        <v>3.859599919122874E-2</v>
+        <v>4.1531056163945756E-2</v>
       </c>
       <c r="P9" s="52">
         <f>'cDEBI-NN'!U7/cNN!U7</f>
-        <v>3.9042957943116748E-2</v>
+        <v>4.1818085264930444E-2</v>
       </c>
       <c r="Q9" s="52">
         <f>'cDEBI-NN'!V7/cNN!V7</f>
-        <v>3.9782446205622997E-2</v>
+        <v>4.2492148646470176E-2</v>
       </c>
       <c r="R9" s="69">
         <f>'cDEBI-NN'!W7/cNN!W7</f>
-        <v>4.0466982434542491E-2</v>
+        <v>4.3148712952261789E-2</v>
       </c>
       <c r="S9" s="52">
         <f>'cDEBI-NN'!X7/cNN!X7</f>
-        <v>1.7250064965556859E-2</v>
+        <v>1.9814494841506838E-2</v>
       </c>
       <c r="T9" s="52">
         <f>'cDEBI-NN'!Y7/cNN!Y7</f>
-        <v>1.7405835742986969E-2</v>
+        <v>1.9682629558562845E-2</v>
       </c>
       <c r="U9" s="52">
         <f>'cDEBI-NN'!Z7/cNN!Z7</f>
-        <v>1.7908873954943508E-2</v>
+        <v>2.0077679782132658E-2</v>
       </c>
       <c r="V9" s="53">
         <f>'cDEBI-NN'!AA7/cNN!AA7</f>
-        <v>1.8407278120362757E-2</v>
+        <v>2.0531388477645164E-2</v>
       </c>
       <c r="W9" s="65"/>
       <c r="X9" s="2"/>
@@ -7379,67 +7381,67 @@
       <c r="F10" s="72"/>
       <c r="G10" s="73">
         <f>'cDEBI-NN'!L8/cNN!L8</f>
-        <v>0.19579699940421383</v>
+        <v>0.19985917781508963</v>
       </c>
       <c r="H10" s="74">
         <f>'cDEBI-NN'!M8/cNN!M8</f>
-        <v>0.19119586164925448</v>
+        <v>0.19499949284917334</v>
       </c>
       <c r="I10" s="74">
         <f>'cDEBI-NN'!N8/cNN!N8</f>
-        <v>0.18714537738997758</v>
+        <v>0.19072140370953131</v>
       </c>
       <c r="J10" s="75">
         <f>'cDEBI-NN'!O8/cNN!O8</f>
-        <v>0.18355227640813387</v>
+        <v>0.18692639913622458</v>
       </c>
       <c r="K10" s="74">
         <f>'cDEBI-NN'!P8/cNN!P8</f>
-        <v>0.13427266069124263</v>
+        <v>0.13950406305583651</v>
       </c>
       <c r="L10" s="74">
         <f>'cDEBI-NN'!Q8/cNN!Q8</f>
-        <v>0.12350443844075647</v>
+        <v>0.1279577234806876</v>
       </c>
       <c r="M10" s="74">
         <f>'cDEBI-NN'!R8/cNN!R8</f>
-        <v>0.11552477192256998</v>
+        <v>0.11940144212131393</v>
       </c>
       <c r="N10" s="75">
         <f>'cDEBI-NN'!S8/cNN!S8</f>
-        <v>0.10937464247305677</v>
+        <v>0.11280690112806901</v>
       </c>
       <c r="O10" s="74">
         <f>'cDEBI-NN'!T8/cNN!T8</f>
-        <v>8.2503109161663021E-2</v>
+        <v>8.8520841412696075E-2</v>
       </c>
       <c r="P10" s="74">
         <f>'cDEBI-NN'!U8/cNN!U8</f>
-        <v>7.8730154511599162E-2</v>
+        <v>8.4111981874536973E-2</v>
       </c>
       <c r="Q10" s="74">
         <f>'cDEBI-NN'!V8/cNN!V8</f>
-        <v>7.8357990282402978E-2</v>
+        <v>8.3499090927875566E-2</v>
       </c>
       <c r="R10" s="75">
         <f>'cDEBI-NN'!W8/cNN!W8</f>
-        <v>7.8896248378768671E-2</v>
+        <v>8.3937581974016739E-2</v>
       </c>
       <c r="S10" s="74">
         <f>'cDEBI-NN'!X8/cNN!X8</f>
-        <v>3.2889036567208124E-2</v>
+        <v>3.7620818156582018E-2</v>
       </c>
       <c r="T10" s="74">
         <f>'cDEBI-NN'!Y8/cNN!Y8</f>
-        <v>3.0195184309153814E-2</v>
+        <v>3.403247121655828E-2</v>
       </c>
       <c r="U10" s="74">
         <f>'cDEBI-NN'!Z8/cNN!Z8</f>
-        <v>3.0026142703305447E-2</v>
+        <v>3.3566342934699539E-2</v>
       </c>
       <c r="V10" s="76">
         <f>'cDEBI-NN'!AA8/cNN!AA8</f>
-        <v>3.0426860138240995E-2</v>
+        <v>3.3849501610296213E-2</v>
       </c>
       <c r="W10" s="65"/>
       <c r="X10" s="2"/>
@@ -7465,67 +7467,67 @@
       <c r="F11" s="62"/>
       <c r="G11" s="51">
         <f>'cDEBI-NN'!L9/cNN!L9</f>
-        <v>3.3422899020521132E-2</v>
+        <v>3.3826752319464116E-2</v>
       </c>
       <c r="H11" s="52">
         <f>'cDEBI-NN'!M9/cNN!M9</f>
-        <v>3.4027577206550925E-2</v>
+        <v>3.4428719660259087E-2</v>
       </c>
       <c r="I11" s="52">
         <f>'cDEBI-NN'!N9/cNN!N9</f>
-        <v>3.4624191774562878E-2</v>
+        <v>3.5022659533208302E-2</v>
       </c>
       <c r="J11" s="69">
         <f>'cDEBI-NN'!O9/cNN!O9</f>
-        <v>3.521290295340835E-2</v>
+        <v>3.5608731448837846E-2</v>
       </c>
       <c r="K11" s="52">
         <f>'cDEBI-NN'!P9/cNN!P9</f>
-        <v>1.7433379970285857E-2</v>
+        <v>1.7839310891667862E-2</v>
       </c>
       <c r="L11" s="52">
         <f>'cDEBI-NN'!Q9/cNN!Q9</f>
-        <v>1.8027880202172851E-2</v>
+        <v>1.8428381095289843E-2</v>
       </c>
       <c r="M11" s="52">
         <f>'cDEBI-NN'!R9/cNN!R9</f>
-        <v>1.860668544373335E-2</v>
+        <v>1.9001899663014007E-2</v>
       </c>
       <c r="N11" s="69">
         <f>'cDEBI-NN'!S9/cNN!S9</f>
-        <v>1.9170409126487774E-2</v>
+        <v>1.9560474423418479E-2</v>
       </c>
       <c r="O11" s="52">
         <f>'cDEBI-NN'!T9/cNN!T9</f>
-        <v>9.0865888904649323E-3</v>
+        <v>9.4931476775103434E-3</v>
       </c>
       <c r="P11" s="52">
         <f>'cDEBI-NN'!U9/cNN!U9</f>
-        <v>9.3852510668441819E-3</v>
+        <v>9.7885900965528905E-3</v>
       </c>
       <c r="Q11" s="52">
         <f>'cDEBI-NN'!V9/cNN!V9</f>
-        <v>9.5986499434016753E-3</v>
+        <v>1.0000578523537912E-2</v>
       </c>
       <c r="R11" s="69">
         <f>'cDEBI-NN'!W9/cNN!W9</f>
-        <v>9.7477143430374918E-3</v>
+        <v>1.0149022037034907E-2</v>
       </c>
       <c r="S11" s="52">
         <f>'cDEBI-NN'!X9/cNN!X9</f>
-        <v>4.1336743607325119E-3</v>
+        <v>4.5308884248644E-3</v>
       </c>
       <c r="T11" s="52">
         <f>'cDEBI-NN'!Y9/cNN!Y9</f>
-        <v>4.4120683996906208E-3</v>
+        <v>4.8016588356744475E-3</v>
       </c>
       <c r="U11" s="52">
         <f>'cDEBI-NN'!Z9/cNN!Z9</f>
-        <v>4.6114391740758017E-3</v>
+        <v>4.9977383428937384E-3</v>
       </c>
       <c r="V11" s="53">
         <f>'cDEBI-NN'!AA9/cNN!AA9</f>
-        <v>4.7513940341827373E-3</v>
+        <v>5.1362507932433939E-3</v>
       </c>
       <c r="W11" s="65"/>
       <c r="X11" s="2"/>
@@ -7547,67 +7549,67 @@
       <c r="F12" s="62"/>
       <c r="G12" s="51">
         <f>'cDEBI-NN'!L10/cNN!L10</f>
-        <v>4.2322377458812524E-2</v>
+        <v>4.2569452909066351E-2</v>
       </c>
       <c r="H12" s="52">
         <f>'cDEBI-NN'!M10/cNN!M10</f>
-        <v>4.2656640617310684E-2</v>
+        <v>4.290269876577233E-2</v>
       </c>
       <c r="I12" s="52">
         <f>'cDEBI-NN'!N10/cNN!N10</f>
-        <v>4.2988162490483921E-2</v>
+        <v>4.3233211680024572E-2</v>
       </c>
       <c r="J12" s="69">
         <f>'cDEBI-NN'!O10/cNN!O10</f>
-        <v>4.3316976662458186E-2</v>
+        <v>4.3561025133738565E-2</v>
       </c>
       <c r="K12" s="52">
         <f>'cDEBI-NN'!P10/cNN!P10</f>
-        <v>2.2642580582628458E-2</v>
+        <v>2.2902203506294124E-2</v>
       </c>
       <c r="L12" s="52">
         <f>'cDEBI-NN'!Q10/cNN!Q10</f>
-        <v>2.2979866877384084E-2</v>
+        <v>2.3237257859433636E-2</v>
       </c>
       <c r="M12" s="52">
         <f>'cDEBI-NN'!R10/cNN!R10</f>
-        <v>2.3311403396843382E-2</v>
+        <v>2.3566600485554996E-2</v>
       </c>
       <c r="N12" s="69">
         <f>'cDEBI-NN'!S10/cNN!S10</f>
-        <v>2.3637335924465791E-2</v>
+        <v>2.3890376203417392E-2</v>
       </c>
       <c r="O12" s="52">
         <f>'cDEBI-NN'!T10/cNN!T10</f>
-        <v>1.1841794687800777E-2</v>
+        <v>1.2108002136758457E-2</v>
       </c>
       <c r="P12" s="52">
         <f>'cDEBI-NN'!U10/cNN!U10</f>
-        <v>1.2023562989888232E-2</v>
+        <v>1.228838621662455E-2</v>
       </c>
       <c r="Q12" s="52">
         <f>'cDEBI-NN'!V10/cNN!V10</f>
-        <v>1.2157779437589044E-2</v>
+        <v>1.2421993897356352E-2</v>
       </c>
       <c r="R12" s="69">
         <f>'cDEBI-NN'!W10/cNN!W10</f>
-        <v>1.2253221183411057E-2</v>
+        <v>1.2517167196967572E-2</v>
       </c>
       <c r="S12" s="52">
         <f>'cDEBI-NN'!X10/cNN!X10</f>
-        <v>5.1230840599557478E-3</v>
+        <v>5.3890801170666386E-3</v>
       </c>
       <c r="T12" s="52">
         <f>'cDEBI-NN'!Y10/cNN!Y10</f>
-        <v>5.297903800743459E-3</v>
+        <v>5.5604593292928918E-3</v>
       </c>
       <c r="U12" s="52">
         <f>'cDEBI-NN'!Z10/cNN!Z10</f>
-        <v>5.4275789993986504E-3</v>
+        <v>5.6886355788421435E-3</v>
       </c>
       <c r="V12" s="53">
         <f>'cDEBI-NN'!AA10/cNN!AA10</f>
-        <v>5.5202116411560698E-3</v>
+        <v>5.7806086877112894E-3</v>
       </c>
       <c r="W12" s="57"/>
     </row>
@@ -7628,67 +7630,67 @@
       <c r="F13" s="62"/>
       <c r="G13" s="51">
         <f>'cDEBI-NN'!L11/cNN!L11</f>
-        <v>3.7732355565031503E-2</v>
+        <v>3.7872624544827163E-2</v>
       </c>
       <c r="H13" s="52">
         <f>'cDEBI-NN'!M11/cNN!M11</f>
-        <v>3.7933209190546741E-2</v>
+        <v>3.807314970649809E-2</v>
       </c>
       <c r="I13" s="52">
         <f>'cDEBI-NN'!N11/cNN!N11</f>
-        <v>3.813312434730648E-2</v>
+        <v>3.8272737934128449E-2</v>
       </c>
       <c r="J13" s="69">
         <f>'cDEBI-NN'!O11/cNN!O11</f>
-        <v>3.8332107597334582E-2</v>
+        <v>3.8471395779010945E-2</v>
       </c>
       <c r="K13" s="52">
         <f>'cDEBI-NN'!P11/cNN!P11</f>
-        <v>2.0424358323901704E-2</v>
+        <v>2.0574463848085204E-2</v>
       </c>
       <c r="L13" s="52">
         <f>'cDEBI-NN'!Q11/cNN!Q11</f>
-        <v>2.0631141672815184E-2</v>
+        <v>2.0780498393419541E-2</v>
       </c>
       <c r="M13" s="52">
         <f>'cDEBI-NN'!R11/cNN!R11</f>
-        <v>2.0835872178909105E-2</v>
+        <v>2.0984487529685916E-2</v>
       </c>
       <c r="N13" s="69">
         <f>'cDEBI-NN'!S11/cNN!S11</f>
-        <v>2.1038580260606295E-2</v>
+        <v>2.1186461565156009E-2</v>
       </c>
       <c r="O13" s="52">
         <f>'cDEBI-NN'!T11/cNN!T11</f>
-        <v>1.0715414930984496E-2</v>
+        <v>1.0870913623931593E-2</v>
       </c>
       <c r="P13" s="52">
         <f>'cDEBI-NN'!U11/cNN!U11</f>
-        <v>1.0825249222897062E-2</v>
+        <v>1.0980274591267481E-2</v>
       </c>
       <c r="Q13" s="52">
         <f>'cDEBI-NN'!V11/cNN!V11</f>
-        <v>1.0905507482136501E-2</v>
+        <v>1.1060324036995636E-2</v>
       </c>
       <c r="R13" s="69">
         <f>'cDEBI-NN'!W11/cNN!W11</f>
-        <v>1.0962200977772372E-2</v>
+        <v>1.1116925326107498E-2</v>
       </c>
       <c r="S13" s="52">
         <f>'cDEBI-NN'!X11/cNN!X11</f>
-        <v>4.5700056951034698E-3</v>
+        <v>4.7274256313239085E-3</v>
       </c>
       <c r="T13" s="52">
         <f>'cDEBI-NN'!Y11/cNN!Y11</f>
-        <v>4.6782716200653319E-3</v>
+        <v>4.8344801404355481E-3</v>
       </c>
       <c r="U13" s="52">
         <f>'cDEBI-NN'!Z11/cNN!Z11</f>
-        <v>4.7577107913583782E-3</v>
+        <v>4.9133874981384888E-3</v>
       </c>
       <c r="V13" s="53">
         <f>'cDEBI-NN'!AA11/cNN!AA11</f>
-        <v>4.8140173410621415E-3</v>
+        <v>4.9694592697487319E-3</v>
       </c>
       <c r="W13" s="57"/>
     </row>
@@ -7709,67 +7711,67 @@
       <c r="F14" s="62"/>
       <c r="G14" s="51">
         <f>'cDEBI-NN'!L12/cNN!L12</f>
-        <v>4.1662370385090561E-2</v>
+        <v>4.1802975963944979E-2</v>
       </c>
       <c r="H14" s="52">
         <f>'cDEBI-NN'!M12/cNN!M12</f>
-        <v>4.1854480026633646E-2</v>
+        <v>4.1994755565198202E-2</v>
       </c>
       <c r="I14" s="52">
         <f>'cDEBI-NN'!N12/cNN!N12</f>
-        <v>4.2045689910937704E-2</v>
+        <v>4.2185636954976236E-2</v>
       </c>
       <c r="J14" s="69">
         <f>'cDEBI-NN'!O12/cNN!O12</f>
-        <v>4.2236006344336635E-2</v>
+        <v>4.2375626428778866E-2</v>
       </c>
       <c r="K14" s="52">
         <f>'cDEBI-NN'!P12/cNN!P12</f>
-        <v>2.4294230850362985E-2</v>
+        <v>2.4456495282972945E-2</v>
       </c>
       <c r="L14" s="52">
         <f>'cDEBI-NN'!Q12/cNN!Q12</f>
-        <v>2.4496813628181666E-2</v>
+        <v>2.4658203387678646E-2</v>
       </c>
       <c r="M14" s="52">
         <f>'cDEBI-NN'!R12/cNN!R12</f>
-        <v>2.4697224103925681E-2</v>
+        <v>2.4857748569459472E-2</v>
       </c>
       <c r="N14" s="69">
         <f>'cDEBI-NN'!S12/cNN!S12</f>
-        <v>2.489549703176443E-2</v>
+        <v>2.5055165432429929E-2</v>
       </c>
       <c r="O14" s="52">
         <f>'cDEBI-NN'!T12/cNN!T12</f>
-        <v>1.3308952883772422E-2</v>
+        <v>1.3484679562401519E-2</v>
       </c>
       <c r="P14" s="52">
         <f>'cDEBI-NN'!U12/cNN!U12</f>
-        <v>1.3424107869541912E-2</v>
+        <v>1.3599230308773505E-2</v>
       </c>
       <c r="Q14" s="52">
         <f>'cDEBI-NN'!V12/cNN!V12</f>
-        <v>1.3510801083200682E-2</v>
+        <v>1.3685657106115792E-2</v>
       </c>
       <c r="R14" s="69">
         <f>'cDEBI-NN'!W12/cNN!W12</f>
-        <v>1.3573075664235341E-2</v>
+        <v>1.3747814074356938E-2</v>
       </c>
       <c r="S14" s="52">
         <f>'cDEBI-NN'!X12/cNN!X12</f>
-        <v>5.8090837705272501E-3</v>
+        <v>5.991981752471562E-3</v>
       </c>
       <c r="T14" s="52">
         <f>'cDEBI-NN'!Y12/cNN!Y12</f>
-        <v>5.9236510774993683E-3</v>
+        <v>6.1049158155533816E-3</v>
       </c>
       <c r="U14" s="52">
         <f>'cDEBI-NN'!Z12/cNN!Z12</f>
-        <v>6.0108648547798236E-3</v>
+        <v>6.1914138787728624E-3</v>
       </c>
       <c r="V14" s="53">
         <f>'cDEBI-NN'!AA12/cNN!AA12</f>
-        <v>6.0739603993686577E-3</v>
+        <v>6.2541937078213405E-3</v>
       </c>
       <c r="W14" s="57"/>
     </row>
@@ -7790,67 +7792,67 @@
       <c r="F15" s="72"/>
       <c r="G15" s="73">
         <f>'cDEBI-NN'!L13/cNN!L13</f>
-        <v>7.8826234392276054E-2</v>
+        <v>7.9173201208369764E-2</v>
       </c>
       <c r="H15" s="74">
         <f>'cDEBI-NN'!M13/cNN!M13</f>
-        <v>7.9084143615406555E-2</v>
+        <v>7.9429107601166435E-2</v>
       </c>
       <c r="I15" s="74">
         <f>'cDEBI-NN'!N13/cNN!N13</f>
-        <v>7.9339092418221152E-2</v>
+        <v>7.9682076563207402E-2</v>
       </c>
       <c r="J15" s="75">
         <f>'cDEBI-NN'!O13/cNN!O13</f>
-        <v>7.9591131481784622E-2</v>
+        <v>7.9932158381986501E-2</v>
       </c>
       <c r="K15" s="74">
         <f>'cDEBI-NN'!P13/cNN!P13</f>
-        <v>6.6446383991937502E-2</v>
+        <v>6.7023375864045331E-2</v>
       </c>
       <c r="L15" s="74">
         <f>'cDEBI-NN'!Q13/cNN!Q13</f>
-        <v>6.6359975696187248E-2</v>
+        <v>6.6926058291411766E-2</v>
       </c>
       <c r="M15" s="74">
         <f>'cDEBI-NN'!R13/cNN!R13</f>
-        <v>6.6276774238950481E-2</v>
+        <v>6.6832352429173042E-2</v>
       </c>
       <c r="N15" s="75">
         <f>'cDEBI-NN'!S13/cNN!S13</f>
-        <v>6.6196604351288546E-2</v>
+        <v>6.6742060880221388E-2</v>
       </c>
       <c r="O15" s="74">
         <f>'cDEBI-NN'!T13/cNN!T13</f>
-        <v>5.0343238479454495E-2</v>
+        <v>5.1204444589042018E-2</v>
       </c>
       <c r="P15" s="74">
         <f>'cDEBI-NN'!U13/cNN!U13</f>
-        <v>5.0284297373076173E-2</v>
+        <v>5.1131182878442552E-2</v>
       </c>
       <c r="Q15" s="74">
         <f>'cDEBI-NN'!V13/cNN!V13</f>
-        <v>5.0431502293893135E-2</v>
+        <v>5.1272193394564326E-2</v>
       </c>
       <c r="R15" s="75">
         <f>'cDEBI-NN'!W13/cNN!W13</f>
-        <v>5.0611053916315873E-2</v>
+        <v>5.1449033231463825E-2</v>
       </c>
       <c r="S15" s="74">
         <f>'cDEBI-NN'!X13/cNN!X13</f>
-        <v>2.8297961935341506E-2</v>
+        <v>2.9436743469467497E-2</v>
       </c>
       <c r="T15" s="74">
         <f>'cDEBI-NN'!Y13/cNN!Y13</f>
-        <v>2.7784862829435823E-2</v>
+        <v>2.8863151484699645E-2</v>
       </c>
       <c r="U15" s="74">
         <f>'cDEBI-NN'!Z13/cNN!Z13</f>
-        <v>2.7790090472579951E-2</v>
+        <v>2.8843537569105477E-2</v>
       </c>
       <c r="V15" s="76">
         <f>'cDEBI-NN'!AA13/cNN!AA13</f>
-        <v>2.7934801255453629E-2</v>
+        <v>2.8977590370061194E-2</v>
       </c>
       <c r="W15" s="57"/>
     </row>
@@ -7874,67 +7876,67 @@
       <c r="F16" s="62"/>
       <c r="G16" s="51">
         <f>'cDEBI-NN'!L14/cNN!L14</f>
-        <v>2.9414112054132281E-2</v>
+        <v>2.9455970362085526E-2</v>
       </c>
       <c r="H16" s="52">
         <f>'cDEBI-NN'!M14/cNN!M14</f>
-        <v>2.9479970596994781E-2</v>
+        <v>2.9521799606695764E-2</v>
       </c>
       <c r="I16" s="52">
         <f>'cDEBI-NN'!N14/cNN!N14</f>
-        <v>2.9545737010448266E-2</v>
+        <v>2.9587536762882265E-2</v>
       </c>
       <c r="J16" s="69">
         <f>'cDEBI-NN'!O14/cNN!O14</f>
-        <v>2.9611411487677135E-2</v>
+        <v>2.9653182023743486E-2</v>
       </c>
       <c r="K16" s="52">
         <f>'cDEBI-NN'!P14/cNN!P14</f>
-        <v>1.4932433404444188E-2</v>
+        <v>1.4974744504422779E-2</v>
       </c>
       <c r="L16" s="52">
         <f>'cDEBI-NN'!Q14/cNN!Q14</f>
-        <v>1.4998680348230329E-2</v>
+        <v>1.5040931738934853E-2</v>
       </c>
       <c r="M16" s="52">
         <f>'cDEBI-NN'!R14/cNN!R14</f>
-        <v>1.5064740580599232E-2</v>
+        <v>1.5106932430315238E-2</v>
       </c>
       <c r="N16" s="69">
         <f>'cDEBI-NN'!S14/cNN!S14</f>
-        <v>1.5130614889785655E-2</v>
+        <v>1.5172747366088243E-2</v>
       </c>
       <c r="O16" s="52">
         <f>'cDEBI-NN'!T14/cNN!T14</f>
-        <v>7.5433001393404725E-3</v>
+        <v>7.5858367465809779E-3</v>
       </c>
       <c r="P16" s="52">
         <f>'cDEBI-NN'!U14/cNN!U14</f>
-        <v>7.5760590029165052E-3</v>
+        <v>7.6185601130743614E-3</v>
       </c>
       <c r="Q16" s="52">
         <f>'cDEBI-NN'!V14/cNN!V14</f>
-        <v>7.5992848351597161E-3</v>
+        <v>7.6417702352370147E-3</v>
       </c>
       <c r="R16" s="69">
         <f>'cDEBI-NN'!W14/cNN!W14</f>
-        <v>7.6153902380759692E-3</v>
+        <v>7.6578686912061192E-3</v>
       </c>
       <c r="S16" s="52">
         <f>'cDEBI-NN'!X14/cNN!X14</f>
-        <v>3.0816773610945793E-3</v>
+        <v>3.1242411816654885E-3</v>
       </c>
       <c r="T16" s="52">
         <f>'cDEBI-NN'!Y14/cNN!Y14</f>
-        <v>3.1142303025118476E-3</v>
+        <v>3.1567050594701342E-3</v>
       </c>
       <c r="U16" s="52">
         <f>'cDEBI-NN'!Z14/cNN!Z14</f>
-        <v>3.1373357996353659E-3</v>
+        <v>3.1797711390407438E-3</v>
       </c>
       <c r="V16" s="53">
         <f>'cDEBI-NN'!AA14/cNN!AA14</f>
-        <v>3.1533679035412507E-3</v>
+        <v>3.1957857790017342E-3</v>
       </c>
       <c r="W16" s="57"/>
     </row>
@@ -7955,67 +7957,67 @@
       <c r="F17" s="62"/>
       <c r="G17" s="51">
         <f>'cDEBI-NN'!L15/cNN!L15</f>
-        <v>3.3160043851627102E-2</v>
+        <v>3.3176875335928377E-2</v>
       </c>
       <c r="H17" s="52">
         <f>'cDEBI-NN'!M15/cNN!M15</f>
-        <v>3.3185482333039425E-2</v>
+        <v>3.320230907814116E-2</v>
       </c>
       <c r="I17" s="52">
         <f>'cDEBI-NN'!N15/cNN!N15</f>
-        <v>3.3210906493183159E-2</v>
+        <v>3.3227728501753415E-2</v>
       </c>
       <c r="J17" s="69">
         <f>'cDEBI-NN'!O15/cNN!O15</f>
-        <v>3.3236316344148711E-2</v>
+        <v>3.3253133618853285E-2</v>
       </c>
       <c r="K17" s="52">
         <f>'cDEBI-NN'!P15/cNN!P15</f>
-        <v>1.8863925040900051E-2</v>
+        <v>1.888304465896656E-2</v>
       </c>
       <c r="L17" s="52">
         <f>'cDEBI-NN'!Q15/cNN!Q15</f>
-        <v>1.8891374976036115E-2</v>
+        <v>1.8910482392197552E-2</v>
       </c>
       <c r="M17" s="52">
         <f>'cDEBI-NN'!R15/cNN!R15</f>
-        <v>1.8918789897095806E-2</v>
+        <v>1.8937885126916444E-2</v>
       </c>
       <c r="N17" s="69">
         <f>'cDEBI-NN'!S15/cNN!S15</f>
-        <v>1.8946169871030327E-2</v>
+        <v>1.8965252930044686E-2</v>
       </c>
       <c r="O17" s="52">
         <f>'cDEBI-NN'!T15/cNN!T15</f>
-        <v>1.0137282986346551E-2</v>
+        <v>1.0157795912521396E-2</v>
       </c>
       <c r="P17" s="52">
         <f>'cDEBI-NN'!U15/cNN!U15</f>
-        <v>1.0152043147470617E-2</v>
+        <v>1.0172547814979725E-2</v>
       </c>
       <c r="Q17" s="52">
         <f>'cDEBI-NN'!V15/cNN!V15</f>
-        <v>1.0162791128380715E-2</v>
+        <v>1.0183292138540712E-2</v>
       </c>
       <c r="R17" s="69">
         <f>'cDEBI-NN'!W15/cNN!W15</f>
-        <v>1.0170361043266116E-2</v>
+        <v>1.0190860435711756E-2</v>
       </c>
       <c r="S17" s="52">
         <f>'cDEBI-NN'!X15/cNN!X15</f>
-        <v>4.266273282115444E-3</v>
+        <v>4.2876964826456272E-3</v>
       </c>
       <c r="T17" s="52">
         <f>'cDEBI-NN'!Y15/cNN!Y15</f>
-        <v>4.2814259649016613E-3</v>
+        <v>4.3028265794279692E-3</v>
       </c>
       <c r="U17" s="52">
         <f>'cDEBI-NN'!Z15/cNN!Z15</f>
-        <v>4.2925268672156028E-3</v>
+        <v>4.3139174706751425E-3</v>
       </c>
       <c r="V17" s="53">
         <f>'cDEBI-NN'!AA15/cNN!AA15</f>
-        <v>4.3003702119503006E-3</v>
+        <v>4.321756377058155E-3</v>
       </c>
       <c r="W17" s="57"/>
     </row>
@@ -8036,67 +8038,67 @@
       <c r="F18" s="62"/>
       <c r="G18" s="51">
         <f>'cDEBI-NN'!L16/cNN!L16</f>
-        <v>2.9132800850647709E-2</v>
+        <v>2.9143035478816161E-2</v>
       </c>
       <c r="H18" s="52">
         <f>'cDEBI-NN'!M16/cNN!M16</f>
-        <v>2.9148960380761212E-2</v>
+        <v>2.9159193256453057E-2</v>
       </c>
       <c r="I18" s="52">
         <f>'cDEBI-NN'!N16/cNN!N16</f>
-        <v>2.9165114377825582E-2</v>
+        <v>2.9175345501640866E-2</v>
       </c>
       <c r="J18" s="69">
         <f>'cDEBI-NN'!O16/cNN!O16</f>
-        <v>2.9181262844682119E-2</v>
+        <v>2.9191492217220588E-2</v>
       </c>
       <c r="K18" s="52">
         <f>'cDEBI-NN'!P16/cNN!P16</f>
-        <v>1.913036426389738E-2</v>
+        <v>1.914379083972759E-2</v>
       </c>
       <c r="L18" s="52">
         <f>'cDEBI-NN'!Q16/cNN!Q16</f>
-        <v>1.9149524961476289E-2</v>
+        <v>1.91629455188893E-2</v>
       </c>
       <c r="M18" s="52">
         <f>'cDEBI-NN'!R16/cNN!R16</f>
-        <v>1.9168668489315716E-2</v>
+        <v>1.918208303370458E-2</v>
       </c>
       <c r="N18" s="69">
         <f>'cDEBI-NN'!S16/cNN!S16</f>
-        <v>1.9187794870483815E-2</v>
+        <v>1.9201203407234333E-2</v>
       </c>
       <c r="O18" s="52">
         <f>'cDEBI-NN'!T16/cNN!T16</f>
-        <v>1.134581830805448E-2</v>
+        <v>1.1361724775762106E-2</v>
       </c>
       <c r="P18" s="52">
         <f>'cDEBI-NN'!U16/cNN!U16</f>
-        <v>1.1356887572842249E-2</v>
+        <v>1.1372789074153048E-2</v>
       </c>
       <c r="Q18" s="52">
         <f>'cDEBI-NN'!V16/cNN!V16</f>
-        <v>1.1365056368652373E-2</v>
+        <v>1.1380955670308E-2</v>
       </c>
       <c r="R18" s="69">
         <f>'cDEBI-NN'!W16/cNN!W16</f>
-        <v>1.1370853649114835E-2</v>
+        <v>1.138675197776538E-2</v>
       </c>
       <c r="S18" s="52">
         <f>'cDEBI-NN'!X16/cNN!X16</f>
-        <v>5.1246705741940608E-3</v>
+        <v>5.1425402672486461E-3</v>
       </c>
       <c r="T18" s="52">
         <f>'cDEBI-NN'!Y16/cNN!Y16</f>
-        <v>5.1365570541125685E-3</v>
+        <v>5.1544110297625989E-3</v>
       </c>
       <c r="U18" s="52">
         <f>'cDEBI-NN'!Z16/cNN!Z16</f>
-        <v>5.1454852099256151E-3</v>
+        <v>5.1633322172022263E-3</v>
       </c>
       <c r="V18" s="53">
         <f>'cDEBI-NN'!AA16/cNN!AA16</f>
-        <v>5.1518817734379383E-3</v>
+        <v>5.169725690978586E-3</v>
       </c>
       <c r="W18" s="57"/>
     </row>
@@ -8117,67 +8119,67 @@
       <c r="F19" s="62"/>
       <c r="G19" s="51">
         <f>'cDEBI-NN'!L17/cNN!L17</f>
-        <v>2.704163854860113E-2</v>
+        <v>2.7050538235249097E-2</v>
       </c>
       <c r="H19" s="52">
         <f>'cDEBI-NN'!M17/cNN!M17</f>
-        <v>2.7056002016012781E-2</v>
+        <v>2.7064900377504086E-2</v>
       </c>
       <c r="I19" s="52">
         <f>'cDEBI-NN'!N17/cNN!N17</f>
-        <v>2.7070361206642218E-2</v>
+        <v>2.7079258243371439E-2</v>
       </c>
       <c r="J19" s="69">
         <f>'cDEBI-NN'!O17/cNN!O17</f>
-        <v>2.7084716122399308E-2</v>
+        <v>2.7093611834760837E-2</v>
       </c>
       <c r="K19" s="52">
         <f>'cDEBI-NN'!P17/cNN!P17</f>
-        <v>1.9765414691868186E-2</v>
+        <v>1.9778411299840152E-2</v>
       </c>
       <c r="L19" s="52">
         <f>'cDEBI-NN'!Q17/cNN!Q17</f>
-        <v>1.9783686513027386E-2</v>
+        <v>1.9796677481792507E-2</v>
       </c>
       <c r="M19" s="52">
         <f>'cDEBI-NN'!R17/cNN!R17</f>
-        <v>1.9801942484837243E-2</v>
+        <v>1.9814927819287082E-2</v>
       </c>
       <c r="N19" s="69">
         <f>'cDEBI-NN'!S17/cNN!S17</f>
-        <v>1.9820182627910882E-2</v>
+        <v>1.9833162332930646E-2</v>
       </c>
       <c r="O19" s="52">
         <f>'cDEBI-NN'!T17/cNN!T17</f>
-        <v>1.285180709363554E-2</v>
+        <v>1.2868688859636331E-2</v>
       </c>
       <c r="P19" s="52">
         <f>'cDEBI-NN'!U17/cNN!U17</f>
-        <v>1.2863055812428139E-2</v>
+        <v>1.2879931984443127E-2</v>
       </c>
       <c r="Q19" s="52">
         <f>'cDEBI-NN'!V17/cNN!V17</f>
-        <v>1.287150411802062E-2</v>
+        <v>1.2888377812484912E-2</v>
       </c>
       <c r="R19" s="69">
         <f>'cDEBI-NN'!W17/cNN!W17</f>
-        <v>1.2877558822068716E-2</v>
+        <v>1.2894431420615806E-2</v>
       </c>
       <c r="S19" s="52">
         <f>'cDEBI-NN'!X17/cNN!X17</f>
-        <v>6.2866914288705281E-3</v>
+        <v>6.307237514983576E-3</v>
       </c>
       <c r="T19" s="52">
         <f>'cDEBI-NN'!Y17/cNN!Y17</f>
-        <v>6.2991813940467961E-3</v>
+        <v>6.3197067048434341E-3</v>
       </c>
       <c r="U19" s="52">
         <f>'cDEBI-NN'!Z17/cNN!Z17</f>
-        <v>6.3089231595102992E-3</v>
+        <v>6.3294392612393054E-3</v>
       </c>
       <c r="V19" s="53">
         <f>'cDEBI-NN'!AA17/cNN!AA17</f>
-        <v>6.3160446300282273E-3</v>
+        <v>6.3365566488547262E-3</v>
       </c>
       <c r="W19" s="57"/>
     </row>
@@ -8198,67 +8200,67 @@
       <c r="F20" s="62"/>
       <c r="G20" s="54">
         <f>'cDEBI-NN'!L18/cNN!L18</f>
-        <v>2.765270394843285E-2</v>
+        <v>2.7662593524068524E-2</v>
       </c>
       <c r="H20" s="55">
         <f>'cDEBI-NN'!M18/cNN!M18</f>
-        <v>2.7668563656839461E-2</v>
+        <v>2.7678451596163903E-2</v>
       </c>
       <c r="I20" s="55">
         <f>'cDEBI-NN'!N18/cNN!N18</f>
-        <v>2.7684418117877165E-2</v>
+        <v>2.7694304421431767E-2</v>
       </c>
       <c r="J20" s="70">
         <f>'cDEBI-NN'!O18/cNN!O18</f>
-        <v>2.7700267334149764E-2</v>
+        <v>2.7710152002475646E-2</v>
       </c>
       <c r="K20" s="55">
         <f>'cDEBI-NN'!P18/cNN!P18</f>
-        <v>2.2246751748117254E-2</v>
+        <v>2.2262646372269265E-2</v>
       </c>
       <c r="L20" s="55">
         <f>'cDEBI-NN'!Q18/cNN!Q18</f>
-        <v>2.2267779109511242E-2</v>
+        <v>2.2283665299995349E-2</v>
       </c>
       <c r="M20" s="55">
         <f>'cDEBI-NN'!R18/cNN!R18</f>
-        <v>2.2288784168554975E-2</v>
+        <v>2.2304661934316225E-2</v>
       </c>
       <c r="N20" s="70">
         <f>'cDEBI-NN'!S18/cNN!S18</f>
-        <v>2.2309766960711616E-2</v>
+        <v>2.2325636310680824E-2</v>
       </c>
       <c r="O20" s="55">
         <f>'cDEBI-NN'!T18/cNN!T18</f>
-        <v>1.5991880955712599E-2</v>
+        <v>1.6014703785785119E-2</v>
       </c>
       <c r="P20" s="55">
         <f>'cDEBI-NN'!U18/cNN!U18</f>
-        <v>1.6005680057549727E-2</v>
+        <v>1.6028492664725856E-2</v>
       </c>
       <c r="Q20" s="55">
         <f>'cDEBI-NN'!V18/cNN!V18</f>
-        <v>1.6016475966487732E-2</v>
+        <v>1.6039284046751569E-2</v>
       </c>
       <c r="R20" s="70">
         <f>'cDEBI-NN'!W18/cNN!W18</f>
-        <v>1.6024383798356488E-2</v>
+        <v>1.6047189876339782E-2</v>
       </c>
       <c r="S20" s="55">
         <f>'cDEBI-NN'!X18/cNN!X18</f>
-        <v>8.6913431985862783E-3</v>
+        <v>8.7221914227458737E-3</v>
       </c>
       <c r="T20" s="55">
         <f>'cDEBI-NN'!Y18/cNN!Y18</f>
-        <v>8.706437516752737E-3</v>
+        <v>8.7372389318826106E-3</v>
       </c>
       <c r="U20" s="55">
         <f>'cDEBI-NN'!Z18/cNN!Z18</f>
-        <v>8.7194328300357997E-3</v>
+        <v>8.750213511314605E-3</v>
       </c>
       <c r="V20" s="56">
         <f>'cDEBI-NN'!AA18/cNN!AA18</f>
-        <v>8.7293965852174166E-3</v>
+        <v>8.7601680769823359E-3</v>
       </c>
       <c r="W20" s="57"/>
     </row>
@@ -8323,13 +8325,14 @@
   <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.42578125" customWidth="1"/>
     <col min="6" max="6" width="3.7109375" customWidth="1"/>
     <col min="7" max="22" width="8.7109375" customWidth="1"/>
@@ -8504,51 +8507,51 @@
       </c>
       <c r="G4" s="45">
         <f>'cDEBI-NN'!L3</f>
-        <v>478</v>
+        <v>628</v>
       </c>
       <c r="H4" s="45">
         <f>'cDEBI-NN'!M3</f>
-        <v>788</v>
+        <v>938</v>
       </c>
       <c r="I4" s="45">
         <f>'cDEBI-NN'!N3</f>
-        <v>1098</v>
+        <v>1248</v>
       </c>
       <c r="J4" s="67">
         <f>'cDEBI-NN'!O3</f>
-        <v>1408</v>
+        <v>1558</v>
       </c>
       <c r="K4" s="45">
         <f>'cDEBI-NN'!P3</f>
-        <v>948</v>
+        <v>1248</v>
       </c>
       <c r="L4" s="45">
         <f>'cDEBI-NN'!Q3</f>
-        <v>1568</v>
+        <v>1868</v>
       </c>
       <c r="M4" s="45">
         <f>'cDEBI-NN'!R3</f>
-        <v>2188</v>
+        <v>2488</v>
       </c>
       <c r="N4" s="67">
         <f>'cDEBI-NN'!S3</f>
-        <v>2808</v>
+        <v>3108</v>
       </c>
       <c r="O4" s="45">
         <f>'cDEBI-NN'!T3</f>
-        <v>1474</v>
+        <v>2074</v>
       </c>
       <c r="P4" s="45">
         <f>'cDEBI-NN'!U3</f>
-        <v>2025.3333333333335</v>
+        <v>2625.3333333333335</v>
       </c>
       <c r="Q4" s="45">
         <f>'cDEBI-NN'!V3</f>
-        <v>2392.8888888888891</v>
+        <v>2992.8888888888891</v>
       </c>
       <c r="R4" s="45">
         <f>'cDEBI-NN'!W3</f>
-        <v>2637.9259259259261</v>
+        <v>3237.9259259259261</v>
       </c>
       <c r="S4" s="79"/>
       <c r="T4" s="79"/>
@@ -8608,51 +8611,51 @@
       <c r="F6" s="61"/>
       <c r="G6" s="48">
         <f>'cDEBI-NN'!L4/cNN!L4</f>
-        <v>4.9183887662408166E-2</v>
+        <v>5.1898230248633784E-2</v>
       </c>
       <c r="H6" s="49">
         <f>'cDEBI-NN'!M4/cNN!M4</f>
-        <v>5.2412933601052411E-2</v>
+        <v>5.5009347088555011E-2</v>
       </c>
       <c r="I6" s="49">
         <f>'cDEBI-NN'!N4/cNN!N4</f>
-        <v>5.5373079858000732E-2</v>
+        <v>5.7861384824657441E-2</v>
       </c>
       <c r="J6" s="81">
         <f>'cDEBI-NN'!O4/cNN!O4</f>
-        <v>5.8096572811823163E-2</v>
+        <v>6.0485412154414574E-2</v>
       </c>
       <c r="K6" s="49">
         <f>'cDEBI-NN'!P4/cNN!P4</f>
-        <v>2.7944811626724637E-2</v>
+        <v>3.0574499044546906E-2</v>
       </c>
       <c r="L6" s="49">
         <f>'cDEBI-NN'!Q4/cNN!Q4</f>
-        <v>3.0684436995374771E-2</v>
+        <v>3.3101803355304507E-2</v>
       </c>
       <c r="M6" s="49">
         <f>'cDEBI-NN'!R4/cNN!R4</f>
-        <v>3.3014717943364996E-2</v>
+        <v>3.525148745172306E-2</v>
       </c>
       <c r="N6" s="81">
         <f>'cDEBI-NN'!S4/cNN!S4</f>
-        <v>3.5021020937686449E-2</v>
+        <v>3.7102301896740714E-2</v>
       </c>
       <c r="O6" s="49">
         <f>'cDEBI-NN'!T4/cNN!T4</f>
-        <v>1.5923421234658237E-2</v>
+        <v>1.8495864083552943E-2</v>
       </c>
       <c r="P6" s="49">
         <f>'cDEBI-NN'!U4/cNN!U4</f>
-        <v>1.7407939594915173E-2</v>
+        <v>1.9856696336932E-2</v>
       </c>
       <c r="Q6" s="49">
         <f>'cDEBI-NN'!V4/cNN!V4</f>
-        <v>1.8513595387151499E-2</v>
+        <v>2.091126938683056E-2</v>
       </c>
       <c r="R6" s="50">
         <f>'cDEBI-NN'!W4/cNN!W4</f>
-        <v>1.9314531149085174E-2</v>
+        <v>2.1690278314054953E-2</v>
       </c>
       <c r="S6" s="80"/>
       <c r="T6" s="80"/>
@@ -8678,51 +8681,51 @@
       <c r="F7" s="61"/>
       <c r="G7" s="51">
         <f>'cDEBI-NN'!L5/cNN!L5</f>
-        <v>7.4059371002602445E-2</v>
+        <v>7.7367562083719282E-2</v>
       </c>
       <c r="H7" s="52">
         <f>'cDEBI-NN'!M5/cNN!M5</f>
-        <v>7.6653013458162667E-2</v>
+        <v>7.9787678675917406E-2</v>
       </c>
       <c r="I7" s="52">
         <f>'cDEBI-NN'!N5/cNN!N5</f>
-        <v>7.8988125967991735E-2</v>
+        <v>8.1966562090465031E-2</v>
       </c>
       <c r="J7" s="69">
         <f>'cDEBI-NN'!O5/cNN!O5</f>
-        <v>8.1101528219095179E-2</v>
+        <v>8.3938568618550466E-2</v>
       </c>
       <c r="K7" s="52">
         <f>'cDEBI-NN'!P5/cNN!P5</f>
-        <v>4.1535556954059159E-2</v>
+        <v>4.4790694646383543E-2</v>
       </c>
       <c r="L7" s="52">
         <f>'cDEBI-NN'!Q5/cNN!Q5</f>
-        <v>4.3530171654498837E-2</v>
+        <v>4.6466109490908382E-2</v>
       </c>
       <c r="M7" s="52">
         <f>'cDEBI-NN'!R5/cNN!R5</f>
-        <v>4.5168535320226022E-2</v>
+        <v>4.7842284451257551E-2</v>
       </c>
       <c r="N7" s="69">
         <f>'cDEBI-NN'!S5/cNN!S5</f>
-        <v>4.6538266433211697E-2</v>
+        <v>4.8992816350575182E-2</v>
       </c>
       <c r="O7" s="52">
         <f>'cDEBI-NN'!T5/cNN!T5</f>
-        <v>2.3243481788869036E-2</v>
+        <v>2.6446533941675978E-2</v>
       </c>
       <c r="P7" s="52">
         <f>'cDEBI-NN'!U5/cNN!U5</f>
-        <v>2.4637251425937388E-2</v>
+        <v>2.7650777694399421E-2</v>
       </c>
       <c r="Q7" s="52">
         <f>'cDEBI-NN'!V5/cNN!V5</f>
-        <v>2.5806693822689027E-2</v>
+        <v>2.8743227593814296E-2</v>
       </c>
       <c r="R7" s="53">
         <f>'cDEBI-NN'!W5/cNN!W5</f>
-        <v>2.67041045503109E-2</v>
+        <v>2.9607815644891775E-2</v>
       </c>
       <c r="S7" s="80"/>
       <c r="T7" s="80"/>
@@ -8749,51 +8752,51 @@
       <c r="F8" s="62"/>
       <c r="G8" s="51">
         <f>'cDEBI-NN'!L6/cNN!L6</f>
-        <v>7.9796363636363637E-2</v>
+        <v>8.1978181818181825E-2</v>
       </c>
       <c r="H8" s="52">
         <f>'cDEBI-NN'!M6/cNN!M6</f>
-        <v>8.1335952848722984E-2</v>
+        <v>8.3440920572551217E-2</v>
       </c>
       <c r="I8" s="52">
         <f>'cDEBI-NN'!N6/cNN!N6</f>
-        <v>8.2770774027382407E-2</v>
+        <v>8.4804120916361664E-2</v>
       </c>
       <c r="J8" s="69">
         <f>'cDEBI-NN'!O6/cNN!O6</f>
-        <v>8.4111169375983216E-2</v>
+        <v>8.6077608809648667E-2</v>
       </c>
       <c r="K8" s="52">
         <f>'cDEBI-NN'!P6/cNN!P6</f>
-        <v>4.4457714413674701E-2</v>
+        <v>4.6697021721280881E-2</v>
       </c>
       <c r="L8" s="52">
         <f>'cDEBI-NN'!Q6/cNN!Q6</f>
-        <v>4.5669838183207169E-2</v>
+        <v>4.7753316202514065E-2</v>
       </c>
       <c r="M8" s="52">
         <f>'cDEBI-NN'!R6/cNN!R6</f>
-        <v>4.6724238685799627E-2</v>
+        <v>4.8672164145185375E-2</v>
       </c>
       <c r="N8" s="69">
         <f>'cDEBI-NN'!S6/cNN!S6</f>
-        <v>4.7649820154849726E-2</v>
+        <v>4.9478753886484178E-2</v>
       </c>
       <c r="O8" s="52">
         <f>'cDEBI-NN'!T6/cNN!T6</f>
-        <v>2.4374896589068776E-2</v>
+        <v>2.6631135088519758E-2</v>
       </c>
       <c r="P8" s="52">
         <f>'cDEBI-NN'!U6/cNN!U6</f>
-        <v>2.532615256666353E-2</v>
+        <v>2.7486677430170373E-2</v>
       </c>
       <c r="Q8" s="52">
         <f>'cDEBI-NN'!V6/cNN!V6</f>
-        <v>2.6157972326030739E-2</v>
+        <v>2.8278634266947236E-2</v>
       </c>
       <c r="R8" s="53">
         <f>'cDEBI-NN'!W6/cNN!W6</f>
-        <v>2.6805225489362917E-2</v>
+        <v>2.8908716348342182E-2</v>
       </c>
       <c r="S8" s="80"/>
       <c r="T8" s="80"/>
@@ -8820,51 +8823,51 @@
       <c r="F9" s="62"/>
       <c r="G9" s="51">
         <f>'cDEBI-NN'!L7/cNN!L7</f>
-        <v>0.11481197748392899</v>
+        <v>0.11731006228558105</v>
       </c>
       <c r="H9" s="52">
         <f>'cDEBI-NN'!M7/cNN!M7</f>
-        <v>0.11516081590894559</v>
+        <v>0.11755866743397915</v>
       </c>
       <c r="I9" s="52">
         <f>'cDEBI-NN'!N7/cNN!N7</f>
-        <v>0.11548274060185043</v>
+        <v>0.11778809209110749</v>
       </c>
       <c r="J9" s="69">
         <f>'cDEBI-NN'!O7/cNN!O7</f>
-        <v>0.11578075056232982</v>
+        <v>0.1180004735409021</v>
       </c>
       <c r="K9" s="52">
         <f>'cDEBI-NN'!P7/cNN!P7</f>
-        <v>6.8396708338751319E-2</v>
+        <v>7.1183103300949235E-2</v>
       </c>
       <c r="L9" s="52">
         <f>'cDEBI-NN'!Q7/cNN!Q7</f>
-        <v>6.7841544448787455E-2</v>
+        <v>7.0390700678075555E-2</v>
       </c>
       <c r="M9" s="52">
         <f>'cDEBI-NN'!R7/cNN!R7</f>
-        <v>6.7373498504377238E-2</v>
+        <v>6.9722644198393191E-2</v>
       </c>
       <c r="N9" s="69">
         <f>'cDEBI-NN'!S7/cNN!S7</f>
-        <v>6.697355619127833E-2</v>
+        <v>6.9151794141992073E-2</v>
       </c>
       <c r="O9" s="52">
         <f>'cDEBI-NN'!T7/cNN!T7</f>
-        <v>3.859599919122874E-2</v>
+        <v>4.1531056163945756E-2</v>
       </c>
       <c r="P9" s="52">
         <f>'cDEBI-NN'!U7/cNN!U7</f>
-        <v>3.9042957943116748E-2</v>
+        <v>4.1818085264930444E-2</v>
       </c>
       <c r="Q9" s="52">
         <f>'cDEBI-NN'!V7/cNN!V7</f>
-        <v>3.9782446205622997E-2</v>
+        <v>4.2492148646470176E-2</v>
       </c>
       <c r="R9" s="53">
         <f>'cDEBI-NN'!W7/cNN!W7</f>
-        <v>4.0466982434542491E-2</v>
+        <v>4.3148712952261789E-2</v>
       </c>
       <c r="S9" s="80"/>
       <c r="T9" s="80"/>
@@ -8891,51 +8894,51 @@
       <c r="F10" s="72"/>
       <c r="G10" s="73">
         <f>'cDEBI-NN'!L8/cNN!L8</f>
-        <v>0.19579699940421383</v>
+        <v>0.19985917781508963</v>
       </c>
       <c r="H10" s="74">
         <f>'cDEBI-NN'!M8/cNN!M8</f>
-        <v>0.19119586164925448</v>
+        <v>0.19499949284917334</v>
       </c>
       <c r="I10" s="74">
         <f>'cDEBI-NN'!N8/cNN!N8</f>
-        <v>0.18714537738997758</v>
+        <v>0.19072140370953131</v>
       </c>
       <c r="J10" s="75">
         <f>'cDEBI-NN'!O8/cNN!O8</f>
-        <v>0.18355227640813387</v>
+        <v>0.18692639913622458</v>
       </c>
       <c r="K10" s="74">
         <f>'cDEBI-NN'!P8/cNN!P8</f>
-        <v>0.13427266069124263</v>
+        <v>0.13950406305583651</v>
       </c>
       <c r="L10" s="74">
         <f>'cDEBI-NN'!Q8/cNN!Q8</f>
-        <v>0.12350443844075647</v>
+        <v>0.1279577234806876</v>
       </c>
       <c r="M10" s="74">
         <f>'cDEBI-NN'!R8/cNN!R8</f>
-        <v>0.11552477192256998</v>
+        <v>0.11940144212131393</v>
       </c>
       <c r="N10" s="75">
         <f>'cDEBI-NN'!S8/cNN!S8</f>
-        <v>0.10937464247305677</v>
+        <v>0.11280690112806901</v>
       </c>
       <c r="O10" s="74">
         <f>'cDEBI-NN'!T8/cNN!T8</f>
-        <v>8.2503109161663021E-2</v>
+        <v>8.8520841412696075E-2</v>
       </c>
       <c r="P10" s="74">
         <f>'cDEBI-NN'!U8/cNN!U8</f>
-        <v>7.8730154511599162E-2</v>
+        <v>8.4111981874536973E-2</v>
       </c>
       <c r="Q10" s="74">
         <f>'cDEBI-NN'!V8/cNN!V8</f>
-        <v>7.8357990282402978E-2</v>
+        <v>8.3499090927875566E-2</v>
       </c>
       <c r="R10" s="76">
         <f>'cDEBI-NN'!W8/cNN!W8</f>
-        <v>7.8896248378768671E-2</v>
+        <v>8.3937581974016739E-2</v>
       </c>
       <c r="S10" s="80"/>
       <c r="T10" s="80"/>
@@ -8965,51 +8968,51 @@
       <c r="F11" s="62"/>
       <c r="G11" s="51">
         <f>'cDEBI-NN'!L9/cNN!L9</f>
-        <v>3.3422899020521132E-2</v>
+        <v>3.3826752319464116E-2</v>
       </c>
       <c r="H11" s="52">
         <f>'cDEBI-NN'!M9/cNN!M9</f>
-        <v>3.4027577206550925E-2</v>
+        <v>3.4428719660259087E-2</v>
       </c>
       <c r="I11" s="52">
         <f>'cDEBI-NN'!N9/cNN!N9</f>
-        <v>3.4624191774562878E-2</v>
+        <v>3.5022659533208302E-2</v>
       </c>
       <c r="J11" s="69">
         <f>'cDEBI-NN'!O9/cNN!O9</f>
-        <v>3.521290295340835E-2</v>
+        <v>3.5608731448837846E-2</v>
       </c>
       <c r="K11" s="52">
         <f>'cDEBI-NN'!P9/cNN!P9</f>
-        <v>1.7433379970285857E-2</v>
+        <v>1.7839310891667862E-2</v>
       </c>
       <c r="L11" s="52">
         <f>'cDEBI-NN'!Q9/cNN!Q9</f>
-        <v>1.8027880202172851E-2</v>
+        <v>1.8428381095289843E-2</v>
       </c>
       <c r="M11" s="52">
         <f>'cDEBI-NN'!R9/cNN!R9</f>
-        <v>1.860668544373335E-2</v>
+        <v>1.9001899663014007E-2</v>
       </c>
       <c r="N11" s="69">
         <f>'cDEBI-NN'!S9/cNN!S9</f>
-        <v>1.9170409126487774E-2</v>
+        <v>1.9560474423418479E-2</v>
       </c>
       <c r="O11" s="52">
         <f>'cDEBI-NN'!T9/cNN!T9</f>
-        <v>9.0865888904649323E-3</v>
+        <v>9.4931476775103434E-3</v>
       </c>
       <c r="P11" s="52">
         <f>'cDEBI-NN'!U9/cNN!U9</f>
-        <v>9.3852510668441819E-3</v>
+        <v>9.7885900965528905E-3</v>
       </c>
       <c r="Q11" s="52">
         <f>'cDEBI-NN'!V9/cNN!V9</f>
-        <v>9.5986499434016753E-3</v>
+        <v>1.0000578523537912E-2</v>
       </c>
       <c r="R11" s="53">
         <f>'cDEBI-NN'!W9/cNN!W9</f>
-        <v>9.7477143430374918E-3</v>
+        <v>1.0149022037034907E-2</v>
       </c>
       <c r="S11" s="80"/>
       <c r="T11" s="80"/>
@@ -9035,51 +9038,51 @@
       <c r="F12" s="62"/>
       <c r="G12" s="51">
         <f>'cDEBI-NN'!L10/cNN!L10</f>
-        <v>4.2322377458812524E-2</v>
+        <v>4.2569452909066351E-2</v>
       </c>
       <c r="H12" s="52">
         <f>'cDEBI-NN'!M10/cNN!M10</f>
-        <v>4.2656640617310684E-2</v>
+        <v>4.290269876577233E-2</v>
       </c>
       <c r="I12" s="52">
         <f>'cDEBI-NN'!N10/cNN!N10</f>
-        <v>4.2988162490483921E-2</v>
+        <v>4.3233211680024572E-2</v>
       </c>
       <c r="J12" s="69">
         <f>'cDEBI-NN'!O10/cNN!O10</f>
-        <v>4.3316976662458186E-2</v>
+        <v>4.3561025133738565E-2</v>
       </c>
       <c r="K12" s="52">
         <f>'cDEBI-NN'!P10/cNN!P10</f>
-        <v>2.2642580582628458E-2</v>
+        <v>2.2902203506294124E-2</v>
       </c>
       <c r="L12" s="52">
         <f>'cDEBI-NN'!Q10/cNN!Q10</f>
-        <v>2.2979866877384084E-2</v>
+        <v>2.3237257859433636E-2</v>
       </c>
       <c r="M12" s="52">
         <f>'cDEBI-NN'!R10/cNN!R10</f>
-        <v>2.3311403396843382E-2</v>
+        <v>2.3566600485554996E-2</v>
       </c>
       <c r="N12" s="69">
         <f>'cDEBI-NN'!S10/cNN!S10</f>
-        <v>2.3637335924465791E-2</v>
+        <v>2.3890376203417392E-2</v>
       </c>
       <c r="O12" s="52">
         <f>'cDEBI-NN'!T10/cNN!T10</f>
-        <v>1.1841794687800777E-2</v>
+        <v>1.2108002136758457E-2</v>
       </c>
       <c r="P12" s="52">
         <f>'cDEBI-NN'!U10/cNN!U10</f>
-        <v>1.2023562989888232E-2</v>
+        <v>1.228838621662455E-2</v>
       </c>
       <c r="Q12" s="52">
         <f>'cDEBI-NN'!V10/cNN!V10</f>
-        <v>1.2157779437589044E-2</v>
+        <v>1.2421993897356352E-2</v>
       </c>
       <c r="R12" s="53">
         <f>'cDEBI-NN'!W10/cNN!W10</f>
-        <v>1.2253221183411057E-2</v>
+        <v>1.2517167196967572E-2</v>
       </c>
       <c r="S12" s="80"/>
       <c r="T12" s="80"/>
@@ -9104,51 +9107,51 @@
       <c r="F13" s="62"/>
       <c r="G13" s="51">
         <f>'cDEBI-NN'!L11/cNN!L11</f>
-        <v>3.7732355565031503E-2</v>
+        <v>3.7872624544827163E-2</v>
       </c>
       <c r="H13" s="52">
         <f>'cDEBI-NN'!M11/cNN!M11</f>
-        <v>3.7933209190546741E-2</v>
+        <v>3.807314970649809E-2</v>
       </c>
       <c r="I13" s="52">
         <f>'cDEBI-NN'!N11/cNN!N11</f>
-        <v>3.813312434730648E-2</v>
+        <v>3.8272737934128449E-2</v>
       </c>
       <c r="J13" s="69">
         <f>'cDEBI-NN'!O11/cNN!O11</f>
-        <v>3.8332107597334582E-2</v>
+        <v>3.8471395779010945E-2</v>
       </c>
       <c r="K13" s="52">
         <f>'cDEBI-NN'!P11/cNN!P11</f>
-        <v>2.0424358323901704E-2</v>
+        <v>2.0574463848085204E-2</v>
       </c>
       <c r="L13" s="52">
         <f>'cDEBI-NN'!Q11/cNN!Q11</f>
-        <v>2.0631141672815184E-2</v>
+        <v>2.0780498393419541E-2</v>
       </c>
       <c r="M13" s="52">
         <f>'cDEBI-NN'!R11/cNN!R11</f>
-        <v>2.0835872178909105E-2</v>
+        <v>2.0984487529685916E-2</v>
       </c>
       <c r="N13" s="69">
         <f>'cDEBI-NN'!S11/cNN!S11</f>
-        <v>2.1038580260606295E-2</v>
+        <v>2.1186461565156009E-2</v>
       </c>
       <c r="O13" s="52">
         <f>'cDEBI-NN'!T11/cNN!T11</f>
-        <v>1.0715414930984496E-2</v>
+        <v>1.0870913623931593E-2</v>
       </c>
       <c r="P13" s="52">
         <f>'cDEBI-NN'!U11/cNN!U11</f>
-        <v>1.0825249222897062E-2</v>
+        <v>1.0980274591267481E-2</v>
       </c>
       <c r="Q13" s="52">
         <f>'cDEBI-NN'!V11/cNN!V11</f>
-        <v>1.0905507482136501E-2</v>
+        <v>1.1060324036995636E-2</v>
       </c>
       <c r="R13" s="53">
         <f>'cDEBI-NN'!W11/cNN!W11</f>
-        <v>1.0962200977772372E-2</v>
+        <v>1.1116925326107498E-2</v>
       </c>
       <c r="S13" s="80"/>
       <c r="T13" s="80"/>
@@ -9173,51 +9176,51 @@
       <c r="F14" s="62"/>
       <c r="G14" s="51">
         <f>'cDEBI-NN'!L12/cNN!L12</f>
-        <v>4.1662370385090561E-2</v>
+        <v>4.1802975963944979E-2</v>
       </c>
       <c r="H14" s="52">
         <f>'cDEBI-NN'!M12/cNN!M12</f>
-        <v>4.1854480026633646E-2</v>
+        <v>4.1994755565198202E-2</v>
       </c>
       <c r="I14" s="52">
         <f>'cDEBI-NN'!N12/cNN!N12</f>
-        <v>4.2045689910937704E-2</v>
+        <v>4.2185636954976236E-2</v>
       </c>
       <c r="J14" s="69">
         <f>'cDEBI-NN'!O12/cNN!O12</f>
-        <v>4.2236006344336635E-2</v>
+        <v>4.2375626428778866E-2</v>
       </c>
       <c r="K14" s="52">
         <f>'cDEBI-NN'!P12/cNN!P12</f>
-        <v>2.4294230850362985E-2</v>
+        <v>2.4456495282972945E-2</v>
       </c>
       <c r="L14" s="52">
         <f>'cDEBI-NN'!Q12/cNN!Q12</f>
-        <v>2.4496813628181666E-2</v>
+        <v>2.4658203387678646E-2</v>
       </c>
       <c r="M14" s="52">
         <f>'cDEBI-NN'!R12/cNN!R12</f>
-        <v>2.4697224103925681E-2</v>
+        <v>2.4857748569459472E-2</v>
       </c>
       <c r="N14" s="69">
         <f>'cDEBI-NN'!S12/cNN!S12</f>
-        <v>2.489549703176443E-2</v>
+        <v>2.5055165432429929E-2</v>
       </c>
       <c r="O14" s="52">
         <f>'cDEBI-NN'!T12/cNN!T12</f>
-        <v>1.3308952883772422E-2</v>
+        <v>1.3484679562401519E-2</v>
       </c>
       <c r="P14" s="52">
         <f>'cDEBI-NN'!U12/cNN!U12</f>
-        <v>1.3424107869541912E-2</v>
+        <v>1.3599230308773505E-2</v>
       </c>
       <c r="Q14" s="52">
         <f>'cDEBI-NN'!V12/cNN!V12</f>
-        <v>1.3510801083200682E-2</v>
+        <v>1.3685657106115792E-2</v>
       </c>
       <c r="R14" s="53">
         <f>'cDEBI-NN'!W12/cNN!W12</f>
-        <v>1.3573075664235341E-2</v>
+        <v>1.3747814074356938E-2</v>
       </c>
       <c r="S14" s="80"/>
       <c r="T14" s="80"/>
@@ -9242,51 +9245,51 @@
       <c r="F15" s="72"/>
       <c r="G15" s="73">
         <f>'cDEBI-NN'!L13/cNN!L13</f>
-        <v>7.8826234392276054E-2</v>
+        <v>7.9173201208369764E-2</v>
       </c>
       <c r="H15" s="74">
         <f>'cDEBI-NN'!M13/cNN!M13</f>
-        <v>7.9084143615406555E-2</v>
+        <v>7.9429107601166435E-2</v>
       </c>
       <c r="I15" s="74">
         <f>'cDEBI-NN'!N13/cNN!N13</f>
-        <v>7.9339092418221152E-2</v>
+        <v>7.9682076563207402E-2</v>
       </c>
       <c r="J15" s="75">
         <f>'cDEBI-NN'!O13/cNN!O13</f>
-        <v>7.9591131481784622E-2</v>
+        <v>7.9932158381986501E-2</v>
       </c>
       <c r="K15" s="74">
         <f>'cDEBI-NN'!P13/cNN!P13</f>
-        <v>6.6446383991937502E-2</v>
+        <v>6.7023375864045331E-2</v>
       </c>
       <c r="L15" s="74">
         <f>'cDEBI-NN'!Q13/cNN!Q13</f>
-        <v>6.6359975696187248E-2</v>
+        <v>6.6926058291411766E-2</v>
       </c>
       <c r="M15" s="74">
         <f>'cDEBI-NN'!R13/cNN!R13</f>
-        <v>6.6276774238950481E-2</v>
+        <v>6.6832352429173042E-2</v>
       </c>
       <c r="N15" s="75">
         <f>'cDEBI-NN'!S13/cNN!S13</f>
-        <v>6.6196604351288546E-2</v>
+        <v>6.6742060880221388E-2</v>
       </c>
       <c r="O15" s="74">
         <f>'cDEBI-NN'!T13/cNN!T13</f>
-        <v>5.0343238479454495E-2</v>
+        <v>5.1204444589042018E-2</v>
       </c>
       <c r="P15" s="74">
         <f>'cDEBI-NN'!U13/cNN!U13</f>
-        <v>5.0284297373076173E-2</v>
+        <v>5.1131182878442552E-2</v>
       </c>
       <c r="Q15" s="74">
         <f>'cDEBI-NN'!V13/cNN!V13</f>
-        <v>5.0431502293893135E-2</v>
+        <v>5.1272193394564326E-2</v>
       </c>
       <c r="R15" s="76">
         <f>'cDEBI-NN'!W13/cNN!W13</f>
-        <v>5.0611053916315873E-2</v>
+        <v>5.1449033231463825E-2</v>
       </c>
       <c r="S15" s="80"/>
       <c r="T15" s="80"/>
@@ -9314,51 +9317,51 @@
       <c r="F16" s="62"/>
       <c r="G16" s="51">
         <f>'cDEBI-NN'!L14/cNN!L14</f>
-        <v>2.9414112054132281E-2</v>
+        <v>2.9455970362085526E-2</v>
       </c>
       <c r="H16" s="52">
         <f>'cDEBI-NN'!M14/cNN!M14</f>
-        <v>2.9479970596994781E-2</v>
+        <v>2.9521799606695764E-2</v>
       </c>
       <c r="I16" s="52">
         <f>'cDEBI-NN'!N14/cNN!N14</f>
-        <v>2.9545737010448266E-2</v>
+        <v>2.9587536762882265E-2</v>
       </c>
       <c r="J16" s="69">
         <f>'cDEBI-NN'!O14/cNN!O14</f>
-        <v>2.9611411487677135E-2</v>
+        <v>2.9653182023743486E-2</v>
       </c>
       <c r="K16" s="52">
         <f>'cDEBI-NN'!P14/cNN!P14</f>
-        <v>1.4932433404444188E-2</v>
+        <v>1.4974744504422779E-2</v>
       </c>
       <c r="L16" s="52">
         <f>'cDEBI-NN'!Q14/cNN!Q14</f>
-        <v>1.4998680348230329E-2</v>
+        <v>1.5040931738934853E-2</v>
       </c>
       <c r="M16" s="52">
         <f>'cDEBI-NN'!R14/cNN!R14</f>
-        <v>1.5064740580599232E-2</v>
+        <v>1.5106932430315238E-2</v>
       </c>
       <c r="N16" s="69">
         <f>'cDEBI-NN'!S14/cNN!S14</f>
-        <v>1.5130614889785655E-2</v>
+        <v>1.5172747366088243E-2</v>
       </c>
       <c r="O16" s="52">
         <f>'cDEBI-NN'!T14/cNN!T14</f>
-        <v>7.5433001393404725E-3</v>
+        <v>7.5858367465809779E-3</v>
       </c>
       <c r="P16" s="52">
         <f>'cDEBI-NN'!U14/cNN!U14</f>
-        <v>7.5760590029165052E-3</v>
+        <v>7.6185601130743614E-3</v>
       </c>
       <c r="Q16" s="52">
         <f>'cDEBI-NN'!V14/cNN!V14</f>
-        <v>7.5992848351597161E-3</v>
+        <v>7.6417702352370147E-3</v>
       </c>
       <c r="R16" s="53">
         <f>'cDEBI-NN'!W14/cNN!W14</f>
-        <v>7.6153902380759692E-3</v>
+        <v>7.6578686912061192E-3</v>
       </c>
       <c r="S16" s="80"/>
       <c r="T16" s="80"/>
@@ -9383,51 +9386,51 @@
       <c r="F17" s="62"/>
       <c r="G17" s="51">
         <f>'cDEBI-NN'!L15/cNN!L15</f>
-        <v>3.3160043851627102E-2</v>
+        <v>3.3176875335928377E-2</v>
       </c>
       <c r="H17" s="52">
         <f>'cDEBI-NN'!M15/cNN!M15</f>
-        <v>3.3185482333039425E-2</v>
+        <v>3.320230907814116E-2</v>
       </c>
       <c r="I17" s="52">
         <f>'cDEBI-NN'!N15/cNN!N15</f>
-        <v>3.3210906493183159E-2</v>
+        <v>3.3227728501753415E-2</v>
       </c>
       <c r="J17" s="69">
         <f>'cDEBI-NN'!O15/cNN!O15</f>
-        <v>3.3236316344148711E-2</v>
+        <v>3.3253133618853285E-2</v>
       </c>
       <c r="K17" s="52">
         <f>'cDEBI-NN'!P15/cNN!P15</f>
-        <v>1.8863925040900051E-2</v>
+        <v>1.888304465896656E-2</v>
       </c>
       <c r="L17" s="52">
         <f>'cDEBI-NN'!Q15/cNN!Q15</f>
-        <v>1.8891374976036115E-2</v>
+        <v>1.8910482392197552E-2</v>
       </c>
       <c r="M17" s="52">
         <f>'cDEBI-NN'!R15/cNN!R15</f>
-        <v>1.8918789897095806E-2</v>
+        <v>1.8937885126916444E-2</v>
       </c>
       <c r="N17" s="69">
         <f>'cDEBI-NN'!S15/cNN!S15</f>
-        <v>1.8946169871030327E-2</v>
+        <v>1.8965252930044686E-2</v>
       </c>
       <c r="O17" s="52">
         <f>'cDEBI-NN'!T15/cNN!T15</f>
-        <v>1.0137282986346551E-2</v>
+        <v>1.0157795912521396E-2</v>
       </c>
       <c r="P17" s="52">
         <f>'cDEBI-NN'!U15/cNN!U15</f>
-        <v>1.0152043147470617E-2</v>
+        <v>1.0172547814979725E-2</v>
       </c>
       <c r="Q17" s="52">
         <f>'cDEBI-NN'!V15/cNN!V15</f>
-        <v>1.0162791128380715E-2</v>
+        <v>1.0183292138540712E-2</v>
       </c>
       <c r="R17" s="53">
         <f>'cDEBI-NN'!W15/cNN!W15</f>
-        <v>1.0170361043266116E-2</v>
+        <v>1.0190860435711756E-2</v>
       </c>
       <c r="S17" s="80"/>
       <c r="T17" s="80"/>
@@ -9452,51 +9455,51 @@
       <c r="F18" s="62"/>
       <c r="G18" s="51">
         <f>'cDEBI-NN'!L16/cNN!L16</f>
-        <v>2.9132800850647709E-2</v>
+        <v>2.9143035478816161E-2</v>
       </c>
       <c r="H18" s="52">
         <f>'cDEBI-NN'!M16/cNN!M16</f>
-        <v>2.9148960380761212E-2</v>
+        <v>2.9159193256453057E-2</v>
       </c>
       <c r="I18" s="52">
         <f>'cDEBI-NN'!N16/cNN!N16</f>
-        <v>2.9165114377825582E-2</v>
+        <v>2.9175345501640866E-2</v>
       </c>
       <c r="J18" s="69">
         <f>'cDEBI-NN'!O16/cNN!O16</f>
-        <v>2.9181262844682119E-2</v>
+        <v>2.9191492217220588E-2</v>
       </c>
       <c r="K18" s="52">
         <f>'cDEBI-NN'!P16/cNN!P16</f>
-        <v>1.913036426389738E-2</v>
+        <v>1.914379083972759E-2</v>
       </c>
       <c r="L18" s="52">
         <f>'cDEBI-NN'!Q16/cNN!Q16</f>
-        <v>1.9149524961476289E-2</v>
+        <v>1.91629455188893E-2</v>
       </c>
       <c r="M18" s="52">
         <f>'cDEBI-NN'!R16/cNN!R16</f>
-        <v>1.9168668489315716E-2</v>
+        <v>1.918208303370458E-2</v>
       </c>
       <c r="N18" s="69">
         <f>'cDEBI-NN'!S16/cNN!S16</f>
-        <v>1.9187794870483815E-2</v>
+        <v>1.9201203407234333E-2</v>
       </c>
       <c r="O18" s="52">
         <f>'cDEBI-NN'!T16/cNN!T16</f>
-        <v>1.134581830805448E-2</v>
+        <v>1.1361724775762106E-2</v>
       </c>
       <c r="P18" s="52">
         <f>'cDEBI-NN'!U16/cNN!U16</f>
-        <v>1.1356887572842249E-2</v>
+        <v>1.1372789074153048E-2</v>
       </c>
       <c r="Q18" s="52">
         <f>'cDEBI-NN'!V16/cNN!V16</f>
-        <v>1.1365056368652373E-2</v>
+        <v>1.1380955670308E-2</v>
       </c>
       <c r="R18" s="53">
         <f>'cDEBI-NN'!W16/cNN!W16</f>
-        <v>1.1370853649114835E-2</v>
+        <v>1.138675197776538E-2</v>
       </c>
       <c r="S18" s="80"/>
       <c r="T18" s="80"/>
@@ -9521,51 +9524,51 @@
       <c r="F19" s="62"/>
       <c r="G19" s="51">
         <f>'cDEBI-NN'!L17/cNN!L17</f>
-        <v>2.704163854860113E-2</v>
+        <v>2.7050538235249097E-2</v>
       </c>
       <c r="H19" s="52">
         <f>'cDEBI-NN'!M17/cNN!M17</f>
-        <v>2.7056002016012781E-2</v>
+        <v>2.7064900377504086E-2</v>
       </c>
       <c r="I19" s="52">
         <f>'cDEBI-NN'!N17/cNN!N17</f>
-        <v>2.7070361206642218E-2</v>
+        <v>2.7079258243371439E-2</v>
       </c>
       <c r="J19" s="69">
         <f>'cDEBI-NN'!O17/cNN!O17</f>
-        <v>2.7084716122399308E-2</v>
+        <v>2.7093611834760837E-2</v>
       </c>
       <c r="K19" s="52">
         <f>'cDEBI-NN'!P17/cNN!P17</f>
-        <v>1.9765414691868186E-2</v>
+        <v>1.9778411299840152E-2</v>
       </c>
       <c r="L19" s="52">
         <f>'cDEBI-NN'!Q17/cNN!Q17</f>
-        <v>1.9783686513027386E-2</v>
+        <v>1.9796677481792507E-2</v>
       </c>
       <c r="M19" s="52">
         <f>'cDEBI-NN'!R17/cNN!R17</f>
-        <v>1.9801942484837243E-2</v>
+        <v>1.9814927819287082E-2</v>
       </c>
       <c r="N19" s="69">
         <f>'cDEBI-NN'!S17/cNN!S17</f>
-        <v>1.9820182627910882E-2</v>
+        <v>1.9833162332930646E-2</v>
       </c>
       <c r="O19" s="52">
         <f>'cDEBI-NN'!T17/cNN!T17</f>
-        <v>1.285180709363554E-2</v>
+        <v>1.2868688859636331E-2</v>
       </c>
       <c r="P19" s="52">
         <f>'cDEBI-NN'!U17/cNN!U17</f>
-        <v>1.2863055812428139E-2</v>
+        <v>1.2879931984443127E-2</v>
       </c>
       <c r="Q19" s="52">
         <f>'cDEBI-NN'!V17/cNN!V17</f>
-        <v>1.287150411802062E-2</v>
+        <v>1.2888377812484912E-2</v>
       </c>
       <c r="R19" s="53">
         <f>'cDEBI-NN'!W17/cNN!W17</f>
-        <v>1.2877558822068716E-2</v>
+        <v>1.2894431420615806E-2</v>
       </c>
       <c r="S19" s="80"/>
       <c r="T19" s="80"/>
@@ -9590,51 +9593,51 @@
       <c r="F20" s="62"/>
       <c r="G20" s="54">
         <f>'cDEBI-NN'!L18/cNN!L18</f>
-        <v>2.765270394843285E-2</v>
+        <v>2.7662593524068524E-2</v>
       </c>
       <c r="H20" s="55">
         <f>'cDEBI-NN'!M18/cNN!M18</f>
-        <v>2.7668563656839461E-2</v>
+        <v>2.7678451596163903E-2</v>
       </c>
       <c r="I20" s="55">
         <f>'cDEBI-NN'!N18/cNN!N18</f>
-        <v>2.7684418117877165E-2</v>
+        <v>2.7694304421431767E-2</v>
       </c>
       <c r="J20" s="70">
         <f>'cDEBI-NN'!O18/cNN!O18</f>
-        <v>2.7700267334149764E-2</v>
+        <v>2.7710152002475646E-2</v>
       </c>
       <c r="K20" s="55">
         <f>'cDEBI-NN'!P18/cNN!P18</f>
-        <v>2.2246751748117254E-2</v>
+        <v>2.2262646372269265E-2</v>
       </c>
       <c r="L20" s="55">
         <f>'cDEBI-NN'!Q18/cNN!Q18</f>
-        <v>2.2267779109511242E-2</v>
+        <v>2.2283665299995349E-2</v>
       </c>
       <c r="M20" s="55">
         <f>'cDEBI-NN'!R18/cNN!R18</f>
-        <v>2.2288784168554975E-2</v>
+        <v>2.2304661934316225E-2</v>
       </c>
       <c r="N20" s="70">
         <f>'cDEBI-NN'!S18/cNN!S18</f>
-        <v>2.2309766960711616E-2</v>
+        <v>2.2325636310680824E-2</v>
       </c>
       <c r="O20" s="55">
         <f>'cDEBI-NN'!T18/cNN!T18</f>
-        <v>1.5991880955712599E-2</v>
+        <v>1.6014703785785119E-2</v>
       </c>
       <c r="P20" s="55">
         <f>'cDEBI-NN'!U18/cNN!U18</f>
-        <v>1.6005680057549727E-2</v>
+        <v>1.6028492664725856E-2</v>
       </c>
       <c r="Q20" s="55">
         <f>'cDEBI-NN'!V18/cNN!V18</f>
-        <v>1.6016475966487732E-2</v>
+        <v>1.6039284046751569E-2</v>
       </c>
       <c r="R20" s="56">
         <f>'cDEBI-NN'!W18/cNN!W18</f>
-        <v>1.6024383798356488E-2</v>
+        <v>1.6047189876339782E-2</v>
       </c>
       <c r="S20" s="80"/>
       <c r="T20" s="80"/>

--- a/Parameter comparison-SLENDER.xlsx
+++ b/Parameter comparison-SLENDER.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laszlo\My Tresors\Private\MUW\Grants\SLENDER 2.0-FWF+ANR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73C1E64-047B-44F1-8634-96885A349673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E4E1CC-B723-4B05-839B-3BEBF2073A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{A9C0DBCC-606B-4251-8BAC-4242F00CAF5E}"/>
+    <workbookView xWindow="940" yWindow="-21710" windowWidth="38620" windowHeight="21100" activeTab="5" xr2:uid="{A9C0DBCC-606B-4251-8BAC-4242F00CAF5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Convolutional" sheetId="6" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="cNN" sheetId="3" r:id="rId3"/>
     <sheet name="cDEBI-NN" sheetId="4" r:id="rId4"/>
     <sheet name="Parameter Ratio" sheetId="5" r:id="rId5"/>
-    <sheet name="Parameter Ratio (shortened)" sheetId="7" r:id="rId6"/>
+    <sheet name="Parameter Ratio (consolidated)" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -282,7 +282,7 @@
     <t>maxPool: only considered if the given layer is a last layer before fully connected layers. Stride=2, Padding=0.</t>
   </si>
   <si>
-    <t>This table is a shorter version of the one in the previous table to have large enough texts in the grant proposal :)</t>
+    <t>This table is a shorter version of the previous one to be more digestive in embedded word scenarios</t>
   </si>
 </sst>
 </file>
@@ -563,7 +563,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -650,15 +650,6 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -739,9 +730,6 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -761,10 +749,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -789,6 +777,66 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1124,36 +1172,36 @@
       <c r="B1" s="18"/>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="87" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="88" t="s">
+      <c r="C2" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="90"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="88" t="s">
+      <c r="D2" s="85"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="90"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="88" t="s">
+      <c r="G2" s="85"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="84" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="88" t="s">
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="89"/>
-      <c r="O2" s="88" t="s">
+      <c r="N2" s="86"/>
+      <c r="O2" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="89"/>
+      <c r="P2" s="86"/>
     </row>
     <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="91"/>
+      <c r="B3" s="87"/>
       <c r="C3" s="6" t="s">
         <v>42</v>
       </c>
@@ -1198,7 +1246,7 @@
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="83" t="s">
         <v>50</v>
       </c>
       <c r="C4" s="37">
@@ -1251,7 +1299,7 @@
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="87"/>
+      <c r="B5" s="83"/>
       <c r="C5" s="30">
         <f>F4</f>
         <v>17</v>
@@ -1306,7 +1354,7 @@
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="83" t="s">
         <v>52</v>
       </c>
       <c r="C6" s="25">
@@ -1363,7 +1411,7 @@
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="87"/>
+      <c r="B7" s="83"/>
       <c r="C7" s="30">
         <f>F6</f>
         <v>15</v>
@@ -1418,7 +1466,7 @@
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="87" t="s">
+      <c r="B8" s="83" t="s">
         <v>51</v>
       </c>
       <c r="C8" s="25">
@@ -1475,7 +1523,7 @@
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="87"/>
+      <c r="B9" s="83"/>
       <c r="C9" s="30">
         <f>F8</f>
         <v>13</v>
@@ -1530,7 +1578,7 @@
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="87" t="s">
+      <c r="B10" s="83" t="s">
         <v>53</v>
       </c>
       <c r="C10" s="25">
@@ -1587,7 +1635,7 @@
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="87"/>
+      <c r="B11" s="83"/>
       <c r="C11" s="30">
         <f>F10</f>
         <v>11</v>
@@ -1642,7 +1690,7 @@
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="87" t="s">
+      <c r="B12" s="83" t="s">
         <v>54</v>
       </c>
       <c r="C12" s="6">
@@ -1699,7 +1747,7 @@
       </c>
     </row>
     <row r="13" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="87"/>
+      <c r="B13" s="83"/>
       <c r="C13" s="9">
         <f>F12</f>
         <v>9</v>
@@ -1757,36 +1805,36 @@
       <c r="B15" s="18"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="91" t="s">
+      <c r="B16" s="87" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="88" t="s">
+      <c r="C16" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="90"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="88" t="s">
+      <c r="D16" s="85"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="G16" s="90"/>
-      <c r="H16" s="89"/>
-      <c r="I16" s="88" t="s">
+      <c r="G16" s="85"/>
+      <c r="H16" s="86"/>
+      <c r="I16" s="84" t="s">
         <v>44</v>
       </c>
-      <c r="J16" s="90"/>
-      <c r="K16" s="90"/>
-      <c r="L16" s="89"/>
-      <c r="M16" s="88" t="s">
+      <c r="J16" s="85"/>
+      <c r="K16" s="85"/>
+      <c r="L16" s="86"/>
+      <c r="M16" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="N16" s="89"/>
-      <c r="O16" s="88" t="s">
+      <c r="N16" s="86"/>
+      <c r="O16" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="P16" s="89"/>
+      <c r="P16" s="86"/>
     </row>
     <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="91"/>
+      <c r="B17" s="87"/>
       <c r="C17" s="6" t="s">
         <v>42</v>
       </c>
@@ -1831,7 +1879,7 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B18" s="87" t="s">
+      <c r="B18" s="83" t="s">
         <v>50</v>
       </c>
       <c r="C18" s="37">
@@ -1884,7 +1932,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="87"/>
+      <c r="B19" s="83"/>
       <c r="C19" s="30">
         <f>F18</f>
         <v>31</v>
@@ -1939,7 +1987,7 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="87" t="s">
+      <c r="B20" s="83" t="s">
         <v>52</v>
       </c>
       <c r="C20" s="25">
@@ -1996,7 +2044,7 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B21" s="87"/>
+      <c r="B21" s="83"/>
       <c r="C21" s="30">
         <f>F20</f>
         <v>27</v>
@@ -2051,7 +2099,7 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B22" s="87" t="s">
+      <c r="B22" s="83" t="s">
         <v>51</v>
       </c>
       <c r="C22" s="25">
@@ -2108,7 +2156,7 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B23" s="87"/>
+      <c r="B23" s="83"/>
       <c r="C23" s="30">
         <f>F22</f>
         <v>25</v>
@@ -2163,7 +2211,7 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B24" s="87" t="s">
+      <c r="B24" s="83" t="s">
         <v>53</v>
       </c>
       <c r="C24" s="25">
@@ -2220,7 +2268,7 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B25" s="87"/>
+      <c r="B25" s="83"/>
       <c r="C25" s="30">
         <f>F24</f>
         <v>23</v>
@@ -2275,7 +2323,7 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B26" s="87" t="s">
+      <c r="B26" s="83" t="s">
         <v>54</v>
       </c>
       <c r="C26" s="6">
@@ -2332,7 +2380,7 @@
       </c>
     </row>
     <row r="27" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="87"/>
+      <c r="B27" s="83"/>
       <c r="C27" s="9">
         <f>F26</f>
         <v>11</v>
@@ -2391,36 +2439,36 @@
       <c r="B29" s="19"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B30" s="91" t="s">
+      <c r="B30" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="88" t="s">
+      <c r="C30" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="90"/>
-      <c r="E30" s="89"/>
-      <c r="F30" s="88" t="s">
+      <c r="D30" s="85"/>
+      <c r="E30" s="86"/>
+      <c r="F30" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="G30" s="90"/>
-      <c r="H30" s="89"/>
-      <c r="I30" s="88" t="s">
+      <c r="G30" s="85"/>
+      <c r="H30" s="86"/>
+      <c r="I30" s="84" t="s">
         <v>44</v>
       </c>
-      <c r="J30" s="90"/>
-      <c r="K30" s="90"/>
-      <c r="L30" s="89"/>
-      <c r="M30" s="88" t="s">
+      <c r="J30" s="85"/>
+      <c r="K30" s="85"/>
+      <c r="L30" s="86"/>
+      <c r="M30" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="N30" s="89"/>
-      <c r="O30" s="88" t="s">
+      <c r="N30" s="86"/>
+      <c r="O30" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="P30" s="89"/>
+      <c r="P30" s="86"/>
     </row>
     <row r="31" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="91"/>
+      <c r="B31" s="87"/>
       <c r="C31" s="6" t="s">
         <v>42</v>
       </c>
@@ -2465,7 +2513,7 @@
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B32" s="87" t="s">
+      <c r="B32" s="83" t="s">
         <v>50</v>
       </c>
       <c r="C32" s="37">
@@ -2518,7 +2566,7 @@
       </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B33" s="87"/>
+      <c r="B33" s="83"/>
       <c r="C33" s="30">
         <f>F32</f>
         <v>55</v>
@@ -2573,7 +2621,7 @@
       </c>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B34" s="87" t="s">
+      <c r="B34" s="83" t="s">
         <v>52</v>
       </c>
       <c r="C34" s="25">
@@ -2630,7 +2678,7 @@
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B35" s="87"/>
+      <c r="B35" s="83"/>
       <c r="C35" s="30">
         <f>F34</f>
         <v>47</v>
@@ -2685,7 +2733,7 @@
       </c>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B36" s="87" t="s">
+      <c r="B36" s="83" t="s">
         <v>51</v>
       </c>
       <c r="C36" s="25">
@@ -2742,7 +2790,7 @@
       </c>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B37" s="87"/>
+      <c r="B37" s="83"/>
       <c r="C37" s="30">
         <f>F36</f>
         <v>41</v>
@@ -2797,7 +2845,7 @@
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B38" s="87" t="s">
+      <c r="B38" s="83" t="s">
         <v>53</v>
       </c>
       <c r="C38" s="25">
@@ -2854,7 +2902,7 @@
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B39" s="87"/>
+      <c r="B39" s="83"/>
       <c r="C39" s="30">
         <f>F38</f>
         <v>37</v>
@@ -2909,7 +2957,7 @@
       </c>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B40" s="87" t="s">
+      <c r="B40" s="83" t="s">
         <v>54</v>
       </c>
       <c r="C40" s="6">
@@ -2966,7 +3014,7 @@
       </c>
     </row>
     <row r="41" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="87"/>
+      <c r="B41" s="83"/>
       <c r="C41" s="9">
         <f>F40</f>
         <v>35</v>
@@ -3052,6 +3100,25 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="I30:L30"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:H16"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="C2:E2"/>
@@ -3066,25 +3133,6 @@
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B13"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="I30:L30"/>
-    <mergeCell ref="B30:B31"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3110,42 +3158,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B1" s="92" t="s">
+      <c r="B1" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92" t="s">
+      <c r="C1" s="88"/>
+      <c r="D1" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92" t="s">
+      <c r="E1" s="88"/>
+      <c r="F1" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92" t="s">
+      <c r="G1" s="88"/>
+      <c r="H1" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92" t="s">
+      <c r="I1" s="88"/>
+      <c r="J1" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="92"/>
+      <c r="K1" s="88"/>
       <c r="L1" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="92" t="s">
+      <c r="O1" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="92"/>
-      <c r="Q1" s="92"/>
-      <c r="R1" s="92"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
       <c r="S1" s="5"/>
-      <c r="T1" s="92" t="s">
+      <c r="T1" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="U1" s="92"/>
-      <c r="V1" s="92"/>
-      <c r="W1" s="92"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
+      <c r="W1" s="88"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -3582,34 +3630,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="L1" s="93" t="str">
+      <c r="L1" s="89" t="str">
         <f>B10</f>
         <v>Block 50</v>
       </c>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="94" t="str">
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="90" t="str">
         <f>B11</f>
         <v>Block 100</v>
       </c>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="94"/>
-      <c r="S1" s="94"/>
-      <c r="T1" s="94" t="str">
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="90" t="str">
         <f>B12</f>
         <v>Hinton 200</v>
       </c>
-      <c r="U1" s="94"/>
-      <c r="V1" s="94"/>
-      <c r="W1" s="94"/>
-      <c r="X1" s="94" t="str">
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
+      <c r="W1" s="90"/>
+      <c r="X1" s="90" t="str">
         <f>B13</f>
         <v>Hinton 500</v>
       </c>
-      <c r="Y1" s="94"/>
-      <c r="Z1" s="94"/>
-      <c r="AA1" s="94"/>
+      <c r="Y1" s="90"/>
+      <c r="Z1" s="90"/>
+      <c r="AA1" s="90"/>
     </row>
     <row r="2" spans="2:28" x14ac:dyDescent="0.25">
       <c r="K2" s="3"/>
@@ -3787,7 +3835,7 @@
         <f>SUM(Convolutional!M4:M13)</f>
         <v>21248</v>
       </c>
-      <c r="I4" s="87" t="str">
+      <c r="I4" s="83" t="str">
         <f>B4</f>
         <v>Small</v>
       </c>
@@ -3889,7 +3937,7 @@
         <f>SUM(Convolutional!M18:M27)</f>
         <v>348096</v>
       </c>
-      <c r="I5" s="87"/>
+      <c r="I5" s="83"/>
       <c r="J5" t="s">
         <v>12</v>
       </c>
@@ -3988,7 +4036,7 @@
         <f>SUM(Convolutional!M32:M41)</f>
         <v>11391680</v>
       </c>
-      <c r="I6" s="87"/>
+      <c r="I6" s="83"/>
       <c r="J6" t="s">
         <v>13</v>
       </c>
@@ -4068,7 +4116,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="I7" s="87"/>
+      <c r="I7" s="83"/>
       <c r="J7" t="s">
         <v>14</v>
       </c>
@@ -4148,7 +4196,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="I8" s="87"/>
+      <c r="I8" s="83"/>
       <c r="J8" t="s">
         <v>30</v>
       </c>
@@ -4240,7 +4288,7 @@
         <f>'Fully-connected'!R2</f>
         <v>4H</v>
       </c>
-      <c r="I9" s="87" t="str">
+      <c r="I9" s="83" t="str">
         <f>B5</f>
         <v>Medium</v>
       </c>
@@ -4337,7 +4385,7 @@
         <f>'Fully-connected'!R3</f>
         <v>10152</v>
       </c>
-      <c r="I10" s="87"/>
+      <c r="I10" s="83"/>
       <c r="J10" t="s">
         <v>12</v>
       </c>
@@ -4431,7 +4479,7 @@
         <f>'Fully-connected'!R4</f>
         <v>40302</v>
       </c>
-      <c r="I11" s="87"/>
+      <c r="I11" s="83"/>
       <c r="J11" t="s">
         <v>13</v>
       </c>
@@ -4525,7 +4573,7 @@
         <f>'Fully-connected'!R5</f>
         <v>46312.127114769093</v>
       </c>
-      <c r="I12" s="87"/>
+      <c r="I12" s="83"/>
       <c r="J12" t="s">
         <v>14</v>
       </c>
@@ -4619,7 +4667,7 @@
         <f>'Fully-connected'!R6</f>
         <v>288753.99817101046</v>
       </c>
-      <c r="I13" s="87"/>
+      <c r="I13" s="83"/>
       <c r="J13" t="s">
         <v>30</v>
       </c>
@@ -4698,7 +4746,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="I14" s="87" t="str">
+      <c r="I14" s="83" t="str">
         <f>B6</f>
         <v>Large</v>
       </c>
@@ -4775,7 +4823,7 @@
       </c>
     </row>
     <row r="15" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="I15" s="87"/>
+      <c r="I15" s="83"/>
       <c r="J15" t="s">
         <v>12</v>
       </c>
@@ -4849,7 +4897,7 @@
       </c>
     </row>
     <row r="16" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="I16" s="87"/>
+      <c r="I16" s="83"/>
       <c r="J16" t="s">
         <v>13</v>
       </c>
@@ -4923,7 +4971,7 @@
       </c>
     </row>
     <row r="17" spans="9:27" x14ac:dyDescent="0.25">
-      <c r="I17" s="87"/>
+      <c r="I17" s="83"/>
       <c r="J17" t="s">
         <v>14</v>
       </c>
@@ -4997,7 +5045,7 @@
       </c>
     </row>
     <row r="18" spans="9:27" x14ac:dyDescent="0.25">
-      <c r="I18" s="87"/>
+      <c r="I18" s="83"/>
       <c r="J18" t="s">
         <v>30</v>
       </c>
@@ -5164,34 +5212,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="L1" s="93" t="str">
+      <c r="L1" s="89" t="str">
         <f>B10</f>
         <v>Block 50</v>
       </c>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="94" t="str">
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="90" t="str">
         <f>B11</f>
         <v>Block 100</v>
       </c>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="94"/>
-      <c r="S1" s="94"/>
-      <c r="T1" s="94" t="str">
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="90" t="str">
         <f>B12</f>
         <v>Hinton 200</v>
       </c>
-      <c r="U1" s="94"/>
-      <c r="V1" s="94"/>
-      <c r="W1" s="94"/>
-      <c r="X1" s="94" t="str">
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
+      <c r="W1" s="90"/>
+      <c r="X1" s="90" t="str">
         <f>B13</f>
         <v>Hinton 500</v>
       </c>
-      <c r="Y1" s="94"/>
-      <c r="Z1" s="94"/>
-      <c r="AA1" s="94"/>
+      <c r="Y1" s="90"/>
+      <c r="Z1" s="90"/>
+      <c r="AA1" s="90"/>
     </row>
     <row r="2" spans="2:27" x14ac:dyDescent="0.25">
       <c r="K2" s="3"/>
@@ -5369,7 +5417,7 @@
         <f>SUM(Convolutional!O4:O13)</f>
         <v>6496</v>
       </c>
-      <c r="I4" s="87" t="str">
+      <c r="I4" s="83" t="str">
         <f>B4</f>
         <v>Small</v>
       </c>
@@ -5470,7 +5518,7 @@
         <f>SUM(Convolutional!O18:O27)</f>
         <v>32000</v>
       </c>
-      <c r="I5" s="87"/>
+      <c r="I5" s="83"/>
       <c r="J5" t="s">
         <v>12</v>
       </c>
@@ -5568,7 +5616,7 @@
         <f>SUM(Convolutional!O32:O41)</f>
         <v>344960</v>
       </c>
-      <c r="I6" s="87"/>
+      <c r="I6" s="83"/>
       <c r="J6" t="s">
         <v>13</v>
       </c>
@@ -5647,7 +5695,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="I7" s="87"/>
+      <c r="I7" s="83"/>
       <c r="J7" t="s">
         <v>14</v>
       </c>
@@ -5726,7 +5774,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="I8" s="87"/>
+      <c r="I8" s="83"/>
       <c r="J8" t="s">
         <v>30</v>
       </c>
@@ -5817,7 +5865,7 @@
         <f>'Fully-connected'!R2</f>
         <v>4H</v>
       </c>
-      <c r="I9" s="87" t="str">
+      <c r="I9" s="83" t="str">
         <f>B5</f>
         <v>Medium</v>
       </c>
@@ -5914,7 +5962,7 @@
         <f>'Fully-connected'!W3</f>
         <v>1558</v>
       </c>
-      <c r="I10" s="87"/>
+      <c r="I10" s="83"/>
       <c r="J10" t="s">
         <v>12</v>
       </c>
@@ -6008,7 +6056,7 @@
         <f>'Fully-connected'!W4</f>
         <v>3108</v>
       </c>
-      <c r="I11" s="87"/>
+      <c r="I11" s="83"/>
       <c r="J11" t="s">
         <v>13</v>
       </c>
@@ -6102,7 +6150,7 @@
         <f>'Fully-connected'!W5</f>
         <v>3237.9259259259261</v>
       </c>
-      <c r="I12" s="87"/>
+      <c r="I12" s="83"/>
       <c r="J12" t="s">
         <v>14</v>
       </c>
@@ -6196,7 +6244,7 @@
         <f>'Fully-connected'!W6</f>
         <v>8082.8148148148139</v>
       </c>
-      <c r="I13" s="87"/>
+      <c r="I13" s="83"/>
       <c r="J13" t="s">
         <v>30</v>
       </c>
@@ -6270,7 +6318,7 @@
       </c>
     </row>
     <row r="14" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="I14" s="87" t="str">
+      <c r="I14" s="83" t="str">
         <f>B6</f>
         <v>Large</v>
       </c>
@@ -6347,7 +6395,7 @@
       </c>
     </row>
     <row r="15" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="I15" s="87"/>
+      <c r="I15" s="83"/>
       <c r="J15" t="s">
         <v>12</v>
       </c>
@@ -6421,7 +6469,7 @@
       </c>
     </row>
     <row r="16" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="I16" s="87"/>
+      <c r="I16" s="83"/>
       <c r="J16" t="s">
         <v>13</v>
       </c>
@@ -6495,7 +6543,7 @@
       </c>
     </row>
     <row r="17" spans="9:27" x14ac:dyDescent="0.25">
-      <c r="I17" s="87"/>
+      <c r="I17" s="83"/>
       <c r="J17" t="s">
         <v>14</v>
       </c>
@@ -6569,7 +6617,7 @@
       </c>
     </row>
     <row r="18" spans="9:27" x14ac:dyDescent="0.25">
-      <c r="I18" s="87"/>
+      <c r="I18" s="83"/>
       <c r="J18" t="s">
         <v>30</v>
       </c>
@@ -6739,49 +6787,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="58" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="93" t="str">
+      <c r="G1" s="89" t="str">
         <f>'Fully-connected'!A3</f>
         <v>Block 50</v>
       </c>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="94" t="str">
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="90" t="str">
         <f>'Fully-connected'!A4</f>
         <v>Block 100</v>
       </c>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="94" t="str">
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="90" t="str">
         <f>'Fully-connected'!A5</f>
         <v>Hinton 200</v>
       </c>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="96"/>
-      <c r="S1" s="94" t="str">
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="90" t="str">
         <f>'Fully-connected'!A6</f>
         <v>Hinton 500</v>
       </c>
-      <c r="T1" s="94"/>
-      <c r="U1" s="94"/>
-      <c r="V1" s="94"/>
-      <c r="W1" s="65"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
+      <c r="W1" s="62"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="58" t="s">
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="55" t="s">
         <v>38</v>
       </c>
       <c r="G2" s="43" t="str">
@@ -6796,7 +6844,7 @@
         <f>'Fully-connected'!Q2</f>
         <v>3H</v>
       </c>
-      <c r="J2" s="66" t="str">
+      <c r="J2" s="63" t="str">
         <f>'Fully-connected'!R2</f>
         <v>4H</v>
       </c>
@@ -6812,7 +6860,7 @@
         <f t="shared" si="0"/>
         <v>3H</v>
       </c>
-      <c r="N2" s="71" t="str">
+      <c r="N2" s="68" t="str">
         <f t="shared" si="0"/>
         <v>4H</v>
       </c>
@@ -6828,7 +6876,7 @@
         <f t="shared" si="1"/>
         <v>3H</v>
       </c>
-      <c r="R2" s="71" t="str">
+      <c r="R2" s="68" t="str">
         <f t="shared" si="1"/>
         <v>4H</v>
       </c>
@@ -6848,14 +6896,14 @@
         <f t="shared" si="2"/>
         <v>4H</v>
       </c>
-      <c r="W2" s="57"/>
+      <c r="W2" s="54"/>
     </row>
     <row r="3" spans="1:24" ht="18" x14ac:dyDescent="0.35">
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58" t="s">
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="55" t="s">
         <v>39</v>
       </c>
       <c r="G3" s="14">
@@ -6922,14 +6970,14 @@
         <f>cNN!AA3</f>
         <v>288753.99817101046</v>
       </c>
-      <c r="W3" s="57"/>
+      <c r="W3" s="54"/>
     </row>
     <row r="4" spans="1:24" ht="18" x14ac:dyDescent="0.35">
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="58" t="s">
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="55" t="s">
         <v>40</v>
       </c>
       <c r="G4" s="45">
@@ -6944,7 +6992,7 @@
         <f>'cDEBI-NN'!N3</f>
         <v>1248</v>
       </c>
-      <c r="J4" s="67">
+      <c r="J4" s="64">
         <f>'cDEBI-NN'!O3</f>
         <v>1558</v>
       </c>
@@ -6960,7 +7008,7 @@
         <f>'cDEBI-NN'!R3</f>
         <v>2488</v>
       </c>
-      <c r="N4" s="67">
+      <c r="N4" s="64">
         <f>'cDEBI-NN'!S3</f>
         <v>3108</v>
       </c>
@@ -6976,7 +7024,7 @@
         <f>'cDEBI-NN'!V3</f>
         <v>2992.8888888888891</v>
       </c>
-      <c r="R4" s="67">
+      <c r="R4" s="64">
         <f>'cDEBI-NN'!W3</f>
         <v>3237.9259259259261</v>
       </c>
@@ -6996,42 +7044,42 @@
         <f>'cDEBI-NN'!AA3</f>
         <v>8082.8148148148139</v>
       </c>
-      <c r="W4" s="57"/>
+      <c r="W4" s="54"/>
     </row>
     <row r="5" spans="1:24" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="E5" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="60"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="63"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="63"/>
-      <c r="T5" s="63"/>
-      <c r="U5" s="63"/>
-      <c r="V5" s="63"/>
-      <c r="W5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="60"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="60"/>
+      <c r="T5" s="60"/>
+      <c r="U5" s="60"/>
+      <c r="V5" s="60"/>
+      <c r="W5" s="54"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B6" s="87" t="str">
+      <c r="B6" s="83" t="str">
         <f>'cDEBI-NN'!I4</f>
         <v>Small</v>
       </c>
@@ -7047,76 +7095,76 @@
         <f>'cDEBI-NN'!K4</f>
         <v>1216</v>
       </c>
-      <c r="F6" s="61"/>
-      <c r="G6" s="52">
+      <c r="F6" s="58"/>
+      <c r="G6" s="49">
         <f>'cDEBI-NN'!L4/cNN!L4</f>
         <v>5.1898230248633784E-2</v>
       </c>
-      <c r="H6" s="52">
+      <c r="H6" s="49">
         <f>'cDEBI-NN'!M4/cNN!M4</f>
         <v>5.5009347088555011E-2</v>
       </c>
-      <c r="I6" s="52">
+      <c r="I6" s="49">
         <f>'cDEBI-NN'!N4/cNN!N4</f>
         <v>5.7861384824657441E-2</v>
       </c>
-      <c r="J6" s="69">
+      <c r="J6" s="66">
         <f>'cDEBI-NN'!O4/cNN!O4</f>
         <v>6.0485412154414574E-2</v>
       </c>
-      <c r="K6" s="52">
+      <c r="K6" s="49">
         <f>'cDEBI-NN'!P4/cNN!P4</f>
         <v>3.0574499044546906E-2</v>
       </c>
-      <c r="L6" s="52">
+      <c r="L6" s="49">
         <f>'cDEBI-NN'!Q4/cNN!Q4</f>
         <v>3.3101803355304507E-2</v>
       </c>
-      <c r="M6" s="52">
+      <c r="M6" s="49">
         <f>'cDEBI-NN'!R4/cNN!R4</f>
         <v>3.525148745172306E-2</v>
       </c>
-      <c r="N6" s="69">
+      <c r="N6" s="66">
         <f>'cDEBI-NN'!S4/cNN!S4</f>
         <v>3.7102301896740714E-2</v>
       </c>
-      <c r="O6" s="52">
+      <c r="O6" s="49">
         <f>'cDEBI-NN'!T4/cNN!T4</f>
         <v>1.8495864083552943E-2</v>
       </c>
-      <c r="P6" s="52">
+      <c r="P6" s="49">
         <f>'cDEBI-NN'!U4/cNN!U4</f>
         <v>1.9856696336932E-2</v>
       </c>
-      <c r="Q6" s="52">
+      <c r="Q6" s="49">
         <f>'cDEBI-NN'!V4/cNN!V4</f>
         <v>2.091126938683056E-2</v>
       </c>
-      <c r="R6" s="69">
+      <c r="R6" s="66">
         <f>'cDEBI-NN'!W4/cNN!W4</f>
         <v>2.1690278314054953E-2</v>
       </c>
-      <c r="S6" s="52">
+      <c r="S6" s="49">
         <f>'cDEBI-NN'!X4/cNN!X4</f>
         <v>1.0887868950041709E-2</v>
       </c>
-      <c r="T6" s="52">
+      <c r="T6" s="49">
         <f>'cDEBI-NN'!Y4/cNN!Y4</f>
         <v>1.164666169854436E-2</v>
       </c>
-      <c r="U6" s="52">
+      <c r="U6" s="49">
         <f>'cDEBI-NN'!Z4/cNN!Z4</f>
         <v>1.2328235959480311E-2</v>
       </c>
-      <c r="V6" s="53">
+      <c r="V6" s="50">
         <f>'cDEBI-NN'!AA4/cNN!AA4</f>
         <v>1.286822743420004E-2</v>
       </c>
-      <c r="W6" s="57"/>
+      <c r="W6" s="54"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="87"/>
+      <c r="B7" s="83"/>
       <c r="C7" s="46" t="str">
         <f>'cDEBI-NN'!J5</f>
         <v>2C</v>
@@ -7129,77 +7177,77 @@
         <f>'cDEBI-NN'!K5</f>
         <v>2096</v>
       </c>
-      <c r="F7" s="61"/>
-      <c r="G7" s="52">
+      <c r="F7" s="58"/>
+      <c r="G7" s="49">
         <f>'cDEBI-NN'!L5/cNN!L5</f>
         <v>7.7367562083719282E-2</v>
       </c>
-      <c r="H7" s="52">
+      <c r="H7" s="49">
         <f>'cDEBI-NN'!M5/cNN!M5</f>
         <v>7.9787678675917406E-2</v>
       </c>
-      <c r="I7" s="52">
+      <c r="I7" s="49">
         <f>'cDEBI-NN'!N5/cNN!N5</f>
         <v>8.1966562090465031E-2</v>
       </c>
-      <c r="J7" s="69">
+      <c r="J7" s="66">
         <f>'cDEBI-NN'!O5/cNN!O5</f>
         <v>8.3938568618550466E-2</v>
       </c>
-      <c r="K7" s="52">
+      <c r="K7" s="49">
         <f>'cDEBI-NN'!P5/cNN!P5</f>
         <v>4.4790694646383543E-2</v>
       </c>
-      <c r="L7" s="52">
+      <c r="L7" s="49">
         <f>'cDEBI-NN'!Q5/cNN!Q5</f>
         <v>4.6466109490908382E-2</v>
       </c>
-      <c r="M7" s="52">
+      <c r="M7" s="49">
         <f>'cDEBI-NN'!R5/cNN!R5</f>
         <v>4.7842284451257551E-2</v>
       </c>
-      <c r="N7" s="69">
+      <c r="N7" s="66">
         <f>'cDEBI-NN'!S5/cNN!S5</f>
         <v>4.8992816350575182E-2</v>
       </c>
-      <c r="O7" s="52">
+      <c r="O7" s="49">
         <f>'cDEBI-NN'!T5/cNN!T5</f>
         <v>2.6446533941675978E-2</v>
       </c>
-      <c r="P7" s="52">
+      <c r="P7" s="49">
         <f>'cDEBI-NN'!U5/cNN!U5</f>
         <v>2.7650777694399421E-2</v>
       </c>
-      <c r="Q7" s="52">
+      <c r="Q7" s="49">
         <f>'cDEBI-NN'!V5/cNN!V5</f>
         <v>2.8743227593814296E-2</v>
       </c>
-      <c r="R7" s="69">
+      <c r="R7" s="66">
         <f>'cDEBI-NN'!W5/cNN!W5</f>
         <v>2.9607815644891775E-2</v>
       </c>
-      <c r="S7" s="52">
+      <c r="S7" s="49">
         <f>'cDEBI-NN'!X5/cNN!X5</f>
         <v>1.4304964169504532E-2</v>
       </c>
-      <c r="T7" s="52">
+      <c r="T7" s="49">
         <f>'cDEBI-NN'!Y5/cNN!Y5</f>
         <v>1.4807785929957518E-2</v>
       </c>
-      <c r="U7" s="52">
+      <c r="U7" s="49">
         <f>'cDEBI-NN'!Z5/cNN!Z5</f>
         <v>1.5454531925057457E-2</v>
       </c>
-      <c r="V7" s="53">
+      <c r="V7" s="50">
         <f>'cDEBI-NN'!AA5/cNN!AA5</f>
         <v>1.6021089277273748E-2</v>
       </c>
-      <c r="W7" s="65"/>
+      <c r="W7" s="62"/>
       <c r="X7" s="2"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="87"/>
+      <c r="B8" s="83"/>
       <c r="C8" s="46" t="str">
         <f>'cDEBI-NN'!J6</f>
         <v>3C</v>
@@ -7212,77 +7260,77 @@
         <f>'cDEBI-NN'!K6</f>
         <v>3856</v>
       </c>
-      <c r="F8" s="62"/>
-      <c r="G8" s="51">
+      <c r="F8" s="59"/>
+      <c r="G8" s="48">
         <f>'cDEBI-NN'!L6/cNN!L6</f>
         <v>8.1978181818181825E-2</v>
       </c>
-      <c r="H8" s="52">
+      <c r="H8" s="49">
         <f>'cDEBI-NN'!M6/cNN!M6</f>
         <v>8.3440920572551217E-2</v>
       </c>
-      <c r="I8" s="52">
+      <c r="I8" s="49">
         <f>'cDEBI-NN'!N6/cNN!N6</f>
         <v>8.4804120916361664E-2</v>
       </c>
-      <c r="J8" s="69">
+      <c r="J8" s="66">
         <f>'cDEBI-NN'!O6/cNN!O6</f>
         <v>8.6077608809648667E-2</v>
       </c>
-      <c r="K8" s="52">
+      <c r="K8" s="49">
         <f>'cDEBI-NN'!P6/cNN!P6</f>
         <v>4.6697021721280881E-2</v>
       </c>
-      <c r="L8" s="52">
+      <c r="L8" s="49">
         <f>'cDEBI-NN'!Q6/cNN!Q6</f>
         <v>4.7753316202514065E-2</v>
       </c>
-      <c r="M8" s="52">
+      <c r="M8" s="49">
         <f>'cDEBI-NN'!R6/cNN!R6</f>
         <v>4.8672164145185375E-2</v>
       </c>
-      <c r="N8" s="69">
+      <c r="N8" s="66">
         <f>'cDEBI-NN'!S6/cNN!S6</f>
         <v>4.9478753886484178E-2</v>
       </c>
-      <c r="O8" s="52">
+      <c r="O8" s="49">
         <f>'cDEBI-NN'!T6/cNN!T6</f>
         <v>2.6631135088519758E-2</v>
       </c>
-      <c r="P8" s="52">
+      <c r="P8" s="49">
         <f>'cDEBI-NN'!U6/cNN!U6</f>
         <v>2.7486677430170373E-2</v>
       </c>
-      <c r="Q8" s="52">
+      <c r="Q8" s="49">
         <f>'cDEBI-NN'!V6/cNN!V6</f>
         <v>2.8278634266947236E-2</v>
       </c>
-      <c r="R8" s="69">
+      <c r="R8" s="66">
         <f>'cDEBI-NN'!W6/cNN!W6</f>
         <v>2.8908716348342182E-2</v>
       </c>
-      <c r="S8" s="52">
+      <c r="S8" s="49">
         <f>'cDEBI-NN'!X6/cNN!X6</f>
         <v>1.3539365485743466E-2</v>
       </c>
-      <c r="T8" s="52">
+      <c r="T8" s="49">
         <f>'cDEBI-NN'!Y6/cNN!Y6</f>
         <v>1.3995617933289625E-2</v>
       </c>
-      <c r="U8" s="52">
+      <c r="U8" s="49">
         <f>'cDEBI-NN'!Z6/cNN!Z6</f>
         <v>1.4531038819892223E-2</v>
       </c>
-      <c r="V8" s="53">
+      <c r="V8" s="50">
         <f>'cDEBI-NN'!AA6/cNN!AA6</f>
         <v>1.4990363756761311E-2</v>
       </c>
-      <c r="W8" s="65"/>
+      <c r="W8" s="62"/>
       <c r="X8" s="2"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="87"/>
+      <c r="B9" s="83"/>
       <c r="C9" s="46" t="str">
         <f>'cDEBI-NN'!J7</f>
         <v>4C</v>
@@ -7295,160 +7343,160 @@
         <f>'cDEBI-NN'!K7</f>
         <v>5616</v>
       </c>
-      <c r="F9" s="62"/>
-      <c r="G9" s="51">
+      <c r="F9" s="59"/>
+      <c r="G9" s="48">
         <f>'cDEBI-NN'!L7/cNN!L7</f>
         <v>0.11731006228558105</v>
       </c>
-      <c r="H9" s="52">
+      <c r="H9" s="49">
         <f>'cDEBI-NN'!M7/cNN!M7</f>
         <v>0.11755866743397915</v>
       </c>
-      <c r="I9" s="52">
+      <c r="I9" s="49">
         <f>'cDEBI-NN'!N7/cNN!N7</f>
         <v>0.11778809209110749</v>
       </c>
-      <c r="J9" s="69">
+      <c r="J9" s="66">
         <f>'cDEBI-NN'!O7/cNN!O7</f>
         <v>0.1180004735409021</v>
       </c>
-      <c r="K9" s="52">
+      <c r="K9" s="49">
         <f>'cDEBI-NN'!P7/cNN!P7</f>
         <v>7.1183103300949235E-2</v>
       </c>
-      <c r="L9" s="52">
+      <c r="L9" s="49">
         <f>'cDEBI-NN'!Q7/cNN!Q7</f>
         <v>7.0390700678075555E-2</v>
       </c>
-      <c r="M9" s="52">
+      <c r="M9" s="49">
         <f>'cDEBI-NN'!R7/cNN!R7</f>
         <v>6.9722644198393191E-2</v>
       </c>
-      <c r="N9" s="69">
+      <c r="N9" s="66">
         <f>'cDEBI-NN'!S7/cNN!S7</f>
         <v>6.9151794141992073E-2</v>
       </c>
-      <c r="O9" s="52">
+      <c r="O9" s="49">
         <f>'cDEBI-NN'!T7/cNN!T7</f>
         <v>4.1531056163945756E-2</v>
       </c>
-      <c r="P9" s="52">
+      <c r="P9" s="49">
         <f>'cDEBI-NN'!U7/cNN!U7</f>
         <v>4.1818085264930444E-2</v>
       </c>
-      <c r="Q9" s="52">
+      <c r="Q9" s="49">
         <f>'cDEBI-NN'!V7/cNN!V7</f>
         <v>4.2492148646470176E-2</v>
       </c>
-      <c r="R9" s="69">
+      <c r="R9" s="66">
         <f>'cDEBI-NN'!W7/cNN!W7</f>
         <v>4.3148712952261789E-2</v>
       </c>
-      <c r="S9" s="52">
+      <c r="S9" s="49">
         <f>'cDEBI-NN'!X7/cNN!X7</f>
         <v>1.9814494841506838E-2</v>
       </c>
-      <c r="T9" s="52">
+      <c r="T9" s="49">
         <f>'cDEBI-NN'!Y7/cNN!Y7</f>
         <v>1.9682629558562845E-2</v>
       </c>
-      <c r="U9" s="52">
+      <c r="U9" s="49">
         <f>'cDEBI-NN'!Z7/cNN!Z7</f>
         <v>2.0077679782132658E-2</v>
       </c>
-      <c r="V9" s="53">
+      <c r="V9" s="50">
         <f>'cDEBI-NN'!AA7/cNN!AA7</f>
         <v>2.0531388477645164E-2</v>
       </c>
-      <c r="W9" s="65"/>
+      <c r="W9" s="62"/>
       <c r="X9" s="2"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="95"/>
-      <c r="C10" s="71" t="str">
+      <c r="B10" s="91"/>
+      <c r="C10" s="68" t="str">
         <f>'cDEBI-NN'!J8</f>
         <v>5C</v>
       </c>
-      <c r="D10" s="67">
+      <c r="D10" s="64">
         <f>cNN!K8</f>
         <v>21248</v>
       </c>
-      <c r="E10" s="67">
+      <c r="E10" s="64">
         <f>'cDEBI-NN'!K8</f>
         <v>6496</v>
       </c>
-      <c r="F10" s="72"/>
-      <c r="G10" s="73">
+      <c r="F10" s="69"/>
+      <c r="G10" s="70">
         <f>'cDEBI-NN'!L8/cNN!L8</f>
         <v>0.19985917781508963</v>
       </c>
-      <c r="H10" s="74">
+      <c r="H10" s="71">
         <f>'cDEBI-NN'!M8/cNN!M8</f>
         <v>0.19499949284917334</v>
       </c>
-      <c r="I10" s="74">
+      <c r="I10" s="71">
         <f>'cDEBI-NN'!N8/cNN!N8</f>
         <v>0.19072140370953131</v>
       </c>
-      <c r="J10" s="75">
+      <c r="J10" s="72">
         <f>'cDEBI-NN'!O8/cNN!O8</f>
         <v>0.18692639913622458</v>
       </c>
-      <c r="K10" s="74">
+      <c r="K10" s="71">
         <f>'cDEBI-NN'!P8/cNN!P8</f>
         <v>0.13950406305583651</v>
       </c>
-      <c r="L10" s="74">
+      <c r="L10" s="71">
         <f>'cDEBI-NN'!Q8/cNN!Q8</f>
         <v>0.1279577234806876</v>
       </c>
-      <c r="M10" s="74">
+      <c r="M10" s="71">
         <f>'cDEBI-NN'!R8/cNN!R8</f>
         <v>0.11940144212131393</v>
       </c>
-      <c r="N10" s="75">
+      <c r="N10" s="72">
         <f>'cDEBI-NN'!S8/cNN!S8</f>
         <v>0.11280690112806901</v>
       </c>
-      <c r="O10" s="74">
+      <c r="O10" s="71">
         <f>'cDEBI-NN'!T8/cNN!T8</f>
         <v>8.8520841412696075E-2</v>
       </c>
-      <c r="P10" s="74">
+      <c r="P10" s="71">
         <f>'cDEBI-NN'!U8/cNN!U8</f>
         <v>8.4111981874536973E-2</v>
       </c>
-      <c r="Q10" s="74">
+      <c r="Q10" s="71">
         <f>'cDEBI-NN'!V8/cNN!V8</f>
         <v>8.3499090927875566E-2</v>
       </c>
-      <c r="R10" s="75">
+      <c r="R10" s="72">
         <f>'cDEBI-NN'!W8/cNN!W8</f>
         <v>8.3937581974016739E-2</v>
       </c>
-      <c r="S10" s="74">
+      <c r="S10" s="71">
         <f>'cDEBI-NN'!X8/cNN!X8</f>
         <v>3.7620818156582018E-2</v>
       </c>
-      <c r="T10" s="74">
+      <c r="T10" s="71">
         <f>'cDEBI-NN'!Y8/cNN!Y8</f>
         <v>3.403247121655828E-2</v>
       </c>
-      <c r="U10" s="74">
+      <c r="U10" s="71">
         <f>'cDEBI-NN'!Z8/cNN!Z8</f>
         <v>3.3566342934699539E-2</v>
       </c>
-      <c r="V10" s="76">
+      <c r="V10" s="73">
         <f>'cDEBI-NN'!AA8/cNN!AA8</f>
         <v>3.3849501610296213E-2</v>
       </c>
-      <c r="W10" s="65"/>
+      <c r="W10" s="62"/>
       <c r="X10" s="2"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="87" t="str">
+      <c r="B11" s="83" t="str">
         <f>'cDEBI-NN'!I9</f>
         <v>Medium</v>
       </c>
@@ -7464,76 +7512,76 @@
         <f>'cDEBI-NN'!K9</f>
         <v>4736</v>
       </c>
-      <c r="F11" s="62"/>
-      <c r="G11" s="51">
+      <c r="F11" s="59"/>
+      <c r="G11" s="48">
         <f>'cDEBI-NN'!L9/cNN!L9</f>
         <v>3.3826752319464116E-2</v>
       </c>
-      <c r="H11" s="52">
+      <c r="H11" s="49">
         <f>'cDEBI-NN'!M9/cNN!M9</f>
         <v>3.4428719660259087E-2</v>
       </c>
-      <c r="I11" s="52">
+      <c r="I11" s="49">
         <f>'cDEBI-NN'!N9/cNN!N9</f>
         <v>3.5022659533208302E-2</v>
       </c>
-      <c r="J11" s="69">
+      <c r="J11" s="66">
         <f>'cDEBI-NN'!O9/cNN!O9</f>
         <v>3.5608731448837846E-2</v>
       </c>
-      <c r="K11" s="52">
+      <c r="K11" s="49">
         <f>'cDEBI-NN'!P9/cNN!P9</f>
         <v>1.7839310891667862E-2</v>
       </c>
-      <c r="L11" s="52">
+      <c r="L11" s="49">
         <f>'cDEBI-NN'!Q9/cNN!Q9</f>
         <v>1.8428381095289843E-2</v>
       </c>
-      <c r="M11" s="52">
+      <c r="M11" s="49">
         <f>'cDEBI-NN'!R9/cNN!R9</f>
         <v>1.9001899663014007E-2</v>
       </c>
-      <c r="N11" s="69">
+      <c r="N11" s="66">
         <f>'cDEBI-NN'!S9/cNN!S9</f>
         <v>1.9560474423418479E-2</v>
       </c>
-      <c r="O11" s="52">
+      <c r="O11" s="49">
         <f>'cDEBI-NN'!T9/cNN!T9</f>
         <v>9.4931476775103434E-3</v>
       </c>
-      <c r="P11" s="52">
+      <c r="P11" s="49">
         <f>'cDEBI-NN'!U9/cNN!U9</f>
         <v>9.7885900965528905E-3</v>
       </c>
-      <c r="Q11" s="52">
+      <c r="Q11" s="49">
         <f>'cDEBI-NN'!V9/cNN!V9</f>
         <v>1.0000578523537912E-2</v>
       </c>
-      <c r="R11" s="69">
+      <c r="R11" s="66">
         <f>'cDEBI-NN'!W9/cNN!W9</f>
         <v>1.0149022037034907E-2</v>
       </c>
-      <c r="S11" s="52">
+      <c r="S11" s="49">
         <f>'cDEBI-NN'!X9/cNN!X9</f>
         <v>4.5308884248644E-3</v>
       </c>
-      <c r="T11" s="52">
+      <c r="T11" s="49">
         <f>'cDEBI-NN'!Y9/cNN!Y9</f>
         <v>4.8016588356744475E-3</v>
       </c>
-      <c r="U11" s="52">
+      <c r="U11" s="49">
         <f>'cDEBI-NN'!Z9/cNN!Z9</f>
         <v>4.9977383428937384E-3</v>
       </c>
-      <c r="V11" s="53">
+      <c r="V11" s="50">
         <f>'cDEBI-NN'!AA9/cNN!AA9</f>
         <v>5.1362507932433939E-3</v>
       </c>
-      <c r="W11" s="65"/>
+      <c r="W11" s="62"/>
       <c r="X11" s="2"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B12" s="87"/>
+      <c r="B12" s="83"/>
       <c r="C12" s="46" t="str">
         <f>'cDEBI-NN'!J10</f>
         <v>2C</v>
@@ -7546,75 +7594,75 @@
         <f>'cDEBI-NN'!K10</f>
         <v>14400</v>
       </c>
-      <c r="F12" s="62"/>
-      <c r="G12" s="51">
+      <c r="F12" s="59"/>
+      <c r="G12" s="48">
         <f>'cDEBI-NN'!L10/cNN!L10</f>
         <v>4.2569452909066351E-2</v>
       </c>
-      <c r="H12" s="52">
+      <c r="H12" s="49">
         <f>'cDEBI-NN'!M10/cNN!M10</f>
         <v>4.290269876577233E-2</v>
       </c>
-      <c r="I12" s="52">
+      <c r="I12" s="49">
         <f>'cDEBI-NN'!N10/cNN!N10</f>
         <v>4.3233211680024572E-2</v>
       </c>
-      <c r="J12" s="69">
+      <c r="J12" s="66">
         <f>'cDEBI-NN'!O10/cNN!O10</f>
         <v>4.3561025133738565E-2</v>
       </c>
-      <c r="K12" s="52">
+      <c r="K12" s="49">
         <f>'cDEBI-NN'!P10/cNN!P10</f>
         <v>2.2902203506294124E-2</v>
       </c>
-      <c r="L12" s="52">
+      <c r="L12" s="49">
         <f>'cDEBI-NN'!Q10/cNN!Q10</f>
         <v>2.3237257859433636E-2</v>
       </c>
-      <c r="M12" s="52">
+      <c r="M12" s="49">
         <f>'cDEBI-NN'!R10/cNN!R10</f>
         <v>2.3566600485554996E-2</v>
       </c>
-      <c r="N12" s="69">
+      <c r="N12" s="66">
         <f>'cDEBI-NN'!S10/cNN!S10</f>
         <v>2.3890376203417392E-2</v>
       </c>
-      <c r="O12" s="52">
+      <c r="O12" s="49">
         <f>'cDEBI-NN'!T10/cNN!T10</f>
         <v>1.2108002136758457E-2</v>
       </c>
-      <c r="P12" s="52">
+      <c r="P12" s="49">
         <f>'cDEBI-NN'!U10/cNN!U10</f>
         <v>1.228838621662455E-2</v>
       </c>
-      <c r="Q12" s="52">
+      <c r="Q12" s="49">
         <f>'cDEBI-NN'!V10/cNN!V10</f>
         <v>1.2421993897356352E-2</v>
       </c>
-      <c r="R12" s="69">
+      <c r="R12" s="66">
         <f>'cDEBI-NN'!W10/cNN!W10</f>
         <v>1.2517167196967572E-2</v>
       </c>
-      <c r="S12" s="52">
+      <c r="S12" s="49">
         <f>'cDEBI-NN'!X10/cNN!X10</f>
         <v>5.3890801170666386E-3</v>
       </c>
-      <c r="T12" s="52">
+      <c r="T12" s="49">
         <f>'cDEBI-NN'!Y10/cNN!Y10</f>
         <v>5.5604593292928918E-3</v>
       </c>
-      <c r="U12" s="52">
+      <c r="U12" s="49">
         <f>'cDEBI-NN'!Z10/cNN!Z10</f>
         <v>5.6886355788421435E-3</v>
       </c>
-      <c r="V12" s="53">
+      <c r="V12" s="50">
         <f>'cDEBI-NN'!AA10/cNN!AA10</f>
         <v>5.7806086877112894E-3</v>
       </c>
-      <c r="W12" s="57"/>
+      <c r="W12" s="54"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B13" s="87"/>
+      <c r="B13" s="83"/>
       <c r="C13" s="46" t="str">
         <f>'cDEBI-NN'!J11</f>
         <v>3C</v>
@@ -7627,75 +7675,75 @@
         <f>'cDEBI-NN'!K11</f>
         <v>21440</v>
       </c>
-      <c r="F13" s="62"/>
-      <c r="G13" s="51">
+      <c r="F13" s="59"/>
+      <c r="G13" s="48">
         <f>'cDEBI-NN'!L11/cNN!L11</f>
         <v>3.7872624544827163E-2</v>
       </c>
-      <c r="H13" s="52">
+      <c r="H13" s="49">
         <f>'cDEBI-NN'!M11/cNN!M11</f>
         <v>3.807314970649809E-2</v>
       </c>
-      <c r="I13" s="52">
+      <c r="I13" s="49">
         <f>'cDEBI-NN'!N11/cNN!N11</f>
         <v>3.8272737934128449E-2</v>
       </c>
-      <c r="J13" s="69">
+      <c r="J13" s="66">
         <f>'cDEBI-NN'!O11/cNN!O11</f>
         <v>3.8471395779010945E-2</v>
       </c>
-      <c r="K13" s="52">
+      <c r="K13" s="49">
         <f>'cDEBI-NN'!P11/cNN!P11</f>
         <v>2.0574463848085204E-2</v>
       </c>
-      <c r="L13" s="52">
+      <c r="L13" s="49">
         <f>'cDEBI-NN'!Q11/cNN!Q11</f>
         <v>2.0780498393419541E-2</v>
       </c>
-      <c r="M13" s="52">
+      <c r="M13" s="49">
         <f>'cDEBI-NN'!R11/cNN!R11</f>
         <v>2.0984487529685916E-2</v>
       </c>
-      <c r="N13" s="69">
+      <c r="N13" s="66">
         <f>'cDEBI-NN'!S11/cNN!S11</f>
         <v>2.1186461565156009E-2</v>
       </c>
-      <c r="O13" s="52">
+      <c r="O13" s="49">
         <f>'cDEBI-NN'!T11/cNN!T11</f>
         <v>1.0870913623931593E-2</v>
       </c>
-      <c r="P13" s="52">
+      <c r="P13" s="49">
         <f>'cDEBI-NN'!U11/cNN!U11</f>
         <v>1.0980274591267481E-2</v>
       </c>
-      <c r="Q13" s="52">
+      <c r="Q13" s="49">
         <f>'cDEBI-NN'!V11/cNN!V11</f>
         <v>1.1060324036995636E-2</v>
       </c>
-      <c r="R13" s="69">
+      <c r="R13" s="66">
         <f>'cDEBI-NN'!W11/cNN!W11</f>
         <v>1.1116925326107498E-2</v>
       </c>
-      <c r="S13" s="52">
+      <c r="S13" s="49">
         <f>'cDEBI-NN'!X11/cNN!X11</f>
         <v>4.7274256313239085E-3</v>
       </c>
-      <c r="T13" s="52">
+      <c r="T13" s="49">
         <f>'cDEBI-NN'!Y11/cNN!Y11</f>
         <v>4.8344801404355481E-3</v>
       </c>
-      <c r="U13" s="52">
+      <c r="U13" s="49">
         <f>'cDEBI-NN'!Z11/cNN!Z11</f>
         <v>4.9133874981384888E-3</v>
       </c>
-      <c r="V13" s="53">
+      <c r="V13" s="50">
         <f>'cDEBI-NN'!AA11/cNN!AA11</f>
         <v>4.9694592697487319E-3</v>
       </c>
-      <c r="W13" s="57"/>
+      <c r="W13" s="54"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B14" s="87"/>
+      <c r="B14" s="83"/>
       <c r="C14" s="46" t="str">
         <f>'cDEBI-NN'!J12</f>
         <v>4C</v>
@@ -7708,156 +7756,156 @@
         <f>'cDEBI-NN'!K12</f>
         <v>28480</v>
       </c>
-      <c r="F14" s="62"/>
-      <c r="G14" s="51">
+      <c r="F14" s="59"/>
+      <c r="G14" s="48">
         <f>'cDEBI-NN'!L12/cNN!L12</f>
         <v>4.1802975963944979E-2</v>
       </c>
-      <c r="H14" s="52">
+      <c r="H14" s="49">
         <f>'cDEBI-NN'!M12/cNN!M12</f>
         <v>4.1994755565198202E-2</v>
       </c>
-      <c r="I14" s="52">
+      <c r="I14" s="49">
         <f>'cDEBI-NN'!N12/cNN!N12</f>
         <v>4.2185636954976236E-2</v>
       </c>
-      <c r="J14" s="69">
+      <c r="J14" s="66">
         <f>'cDEBI-NN'!O12/cNN!O12</f>
         <v>4.2375626428778866E-2</v>
       </c>
-      <c r="K14" s="52">
+      <c r="K14" s="49">
         <f>'cDEBI-NN'!P12/cNN!P12</f>
         <v>2.4456495282972945E-2</v>
       </c>
-      <c r="L14" s="52">
+      <c r="L14" s="49">
         <f>'cDEBI-NN'!Q12/cNN!Q12</f>
         <v>2.4658203387678646E-2</v>
       </c>
-      <c r="M14" s="52">
+      <c r="M14" s="49">
         <f>'cDEBI-NN'!R12/cNN!R12</f>
         <v>2.4857748569459472E-2</v>
       </c>
-      <c r="N14" s="69">
+      <c r="N14" s="66">
         <f>'cDEBI-NN'!S12/cNN!S12</f>
         <v>2.5055165432429929E-2</v>
       </c>
-      <c r="O14" s="52">
+      <c r="O14" s="49">
         <f>'cDEBI-NN'!T12/cNN!T12</f>
         <v>1.3484679562401519E-2</v>
       </c>
-      <c r="P14" s="52">
+      <c r="P14" s="49">
         <f>'cDEBI-NN'!U12/cNN!U12</f>
         <v>1.3599230308773505E-2</v>
       </c>
-      <c r="Q14" s="52">
+      <c r="Q14" s="49">
         <f>'cDEBI-NN'!V12/cNN!V12</f>
         <v>1.3685657106115792E-2</v>
       </c>
-      <c r="R14" s="69">
+      <c r="R14" s="66">
         <f>'cDEBI-NN'!W12/cNN!W12</f>
         <v>1.3747814074356938E-2</v>
       </c>
-      <c r="S14" s="52">
+      <c r="S14" s="49">
         <f>'cDEBI-NN'!X12/cNN!X12</f>
         <v>5.991981752471562E-3</v>
       </c>
-      <c r="T14" s="52">
+      <c r="T14" s="49">
         <f>'cDEBI-NN'!Y12/cNN!Y12</f>
         <v>6.1049158155533816E-3</v>
       </c>
-      <c r="U14" s="52">
+      <c r="U14" s="49">
         <f>'cDEBI-NN'!Z12/cNN!Z12</f>
         <v>6.1914138787728624E-3</v>
       </c>
-      <c r="V14" s="53">
+      <c r="V14" s="50">
         <f>'cDEBI-NN'!AA12/cNN!AA12</f>
         <v>6.2541937078213405E-3</v>
       </c>
-      <c r="W14" s="57"/>
+      <c r="W14" s="54"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B15" s="95"/>
-      <c r="C15" s="71" t="str">
+      <c r="B15" s="91"/>
+      <c r="C15" s="68" t="str">
         <f>'cDEBI-NN'!J13</f>
         <v>5C</v>
       </c>
-      <c r="D15" s="67">
+      <c r="D15" s="64">
         <f>cNN!K13</f>
         <v>348096</v>
       </c>
-      <c r="E15" s="67">
+      <c r="E15" s="64">
         <f>'cDEBI-NN'!K13</f>
         <v>32000</v>
       </c>
-      <c r="F15" s="72"/>
-      <c r="G15" s="73">
+      <c r="F15" s="69"/>
+      <c r="G15" s="70">
         <f>'cDEBI-NN'!L13/cNN!L13</f>
         <v>7.9173201208369764E-2</v>
       </c>
-      <c r="H15" s="74">
+      <c r="H15" s="71">
         <f>'cDEBI-NN'!M13/cNN!M13</f>
         <v>7.9429107601166435E-2</v>
       </c>
-      <c r="I15" s="74">
+      <c r="I15" s="71">
         <f>'cDEBI-NN'!N13/cNN!N13</f>
         <v>7.9682076563207402E-2</v>
       </c>
-      <c r="J15" s="75">
+      <c r="J15" s="72">
         <f>'cDEBI-NN'!O13/cNN!O13</f>
         <v>7.9932158381986501E-2</v>
       </c>
-      <c r="K15" s="74">
+      <c r="K15" s="71">
         <f>'cDEBI-NN'!P13/cNN!P13</f>
         <v>6.7023375864045331E-2</v>
       </c>
-      <c r="L15" s="74">
+      <c r="L15" s="71">
         <f>'cDEBI-NN'!Q13/cNN!Q13</f>
         <v>6.6926058291411766E-2</v>
       </c>
-      <c r="M15" s="74">
+      <c r="M15" s="71">
         <f>'cDEBI-NN'!R13/cNN!R13</f>
         <v>6.6832352429173042E-2</v>
       </c>
-      <c r="N15" s="75">
+      <c r="N15" s="72">
         <f>'cDEBI-NN'!S13/cNN!S13</f>
         <v>6.6742060880221388E-2</v>
       </c>
-      <c r="O15" s="74">
+      <c r="O15" s="71">
         <f>'cDEBI-NN'!T13/cNN!T13</f>
         <v>5.1204444589042018E-2</v>
       </c>
-      <c r="P15" s="74">
+      <c r="P15" s="71">
         <f>'cDEBI-NN'!U13/cNN!U13</f>
         <v>5.1131182878442552E-2</v>
       </c>
-      <c r="Q15" s="74">
+      <c r="Q15" s="71">
         <f>'cDEBI-NN'!V13/cNN!V13</f>
         <v>5.1272193394564326E-2</v>
       </c>
-      <c r="R15" s="75">
+      <c r="R15" s="72">
         <f>'cDEBI-NN'!W13/cNN!W13</f>
         <v>5.1449033231463825E-2</v>
       </c>
-      <c r="S15" s="74">
+      <c r="S15" s="71">
         <f>'cDEBI-NN'!X13/cNN!X13</f>
         <v>2.9436743469467497E-2</v>
       </c>
-      <c r="T15" s="74">
+      <c r="T15" s="71">
         <f>'cDEBI-NN'!Y13/cNN!Y13</f>
         <v>2.8863151484699645E-2</v>
       </c>
-      <c r="U15" s="74">
+      <c r="U15" s="71">
         <f>'cDEBI-NN'!Z13/cNN!Z13</f>
         <v>2.8843537569105477E-2</v>
       </c>
-      <c r="V15" s="76">
+      <c r="V15" s="73">
         <f>'cDEBI-NN'!AA13/cNN!AA13</f>
         <v>2.8977590370061194E-2</v>
       </c>
-      <c r="W15" s="57"/>
+      <c r="W15" s="54"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B16" s="87" t="str">
+      <c r="B16" s="83" t="str">
         <f>'cDEBI-NN'!I14</f>
         <v>Large</v>
       </c>
@@ -7873,75 +7921,75 @@
         <f>'cDEBI-NN'!K14</f>
         <v>34944</v>
       </c>
-      <c r="F16" s="62"/>
-      <c r="G16" s="51">
+      <c r="F16" s="59"/>
+      <c r="G16" s="48">
         <f>'cDEBI-NN'!L14/cNN!L14</f>
         <v>2.9455970362085526E-2</v>
       </c>
-      <c r="H16" s="52">
+      <c r="H16" s="49">
         <f>'cDEBI-NN'!M14/cNN!M14</f>
         <v>2.9521799606695764E-2</v>
       </c>
-      <c r="I16" s="52">
+      <c r="I16" s="49">
         <f>'cDEBI-NN'!N14/cNN!N14</f>
         <v>2.9587536762882265E-2</v>
       </c>
-      <c r="J16" s="69">
+      <c r="J16" s="66">
         <f>'cDEBI-NN'!O14/cNN!O14</f>
         <v>2.9653182023743486E-2</v>
       </c>
-      <c r="K16" s="52">
+      <c r="K16" s="49">
         <f>'cDEBI-NN'!P14/cNN!P14</f>
         <v>1.4974744504422779E-2</v>
       </c>
-      <c r="L16" s="52">
+      <c r="L16" s="49">
         <f>'cDEBI-NN'!Q14/cNN!Q14</f>
         <v>1.5040931738934853E-2</v>
       </c>
-      <c r="M16" s="52">
+      <c r="M16" s="49">
         <f>'cDEBI-NN'!R14/cNN!R14</f>
         <v>1.5106932430315238E-2</v>
       </c>
-      <c r="N16" s="69">
+      <c r="N16" s="66">
         <f>'cDEBI-NN'!S14/cNN!S14</f>
         <v>1.5172747366088243E-2</v>
       </c>
-      <c r="O16" s="52">
+      <c r="O16" s="49">
         <f>'cDEBI-NN'!T14/cNN!T14</f>
         <v>7.5858367465809779E-3</v>
       </c>
-      <c r="P16" s="52">
+      <c r="P16" s="49">
         <f>'cDEBI-NN'!U14/cNN!U14</f>
         <v>7.6185601130743614E-3</v>
       </c>
-      <c r="Q16" s="52">
+      <c r="Q16" s="49">
         <f>'cDEBI-NN'!V14/cNN!V14</f>
         <v>7.6417702352370147E-3</v>
       </c>
-      <c r="R16" s="69">
+      <c r="R16" s="66">
         <f>'cDEBI-NN'!W14/cNN!W14</f>
         <v>7.6578686912061192E-3</v>
       </c>
-      <c r="S16" s="52">
+      <c r="S16" s="49">
         <f>'cDEBI-NN'!X14/cNN!X14</f>
         <v>3.1242411816654885E-3</v>
       </c>
-      <c r="T16" s="52">
+      <c r="T16" s="49">
         <f>'cDEBI-NN'!Y14/cNN!Y14</f>
         <v>3.1567050594701342E-3</v>
       </c>
-      <c r="U16" s="52">
+      <c r="U16" s="49">
         <f>'cDEBI-NN'!Z14/cNN!Z14</f>
         <v>3.1797711390407438E-3</v>
       </c>
-      <c r="V16" s="53">
+      <c r="V16" s="50">
         <f>'cDEBI-NN'!AA14/cNN!AA14</f>
         <v>3.1957857790017342E-3</v>
       </c>
-      <c r="W16" s="57"/>
+      <c r="W16" s="54"/>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B17" s="87"/>
+      <c r="B17" s="83"/>
       <c r="C17" s="46" t="str">
         <f>'cDEBI-NN'!J15</f>
         <v>2C</v>
@@ -7954,75 +8002,75 @@
         <f>'cDEBI-NN'!K15</f>
         <v>159616</v>
       </c>
-      <c r="F17" s="62"/>
-      <c r="G17" s="51">
+      <c r="F17" s="59"/>
+      <c r="G17" s="48">
         <f>'cDEBI-NN'!L15/cNN!L15</f>
         <v>3.3176875335928377E-2</v>
       </c>
-      <c r="H17" s="52">
+      <c r="H17" s="49">
         <f>'cDEBI-NN'!M15/cNN!M15</f>
         <v>3.320230907814116E-2</v>
       </c>
-      <c r="I17" s="52">
+      <c r="I17" s="49">
         <f>'cDEBI-NN'!N15/cNN!N15</f>
         <v>3.3227728501753415E-2</v>
       </c>
-      <c r="J17" s="69">
+      <c r="J17" s="66">
         <f>'cDEBI-NN'!O15/cNN!O15</f>
         <v>3.3253133618853285E-2</v>
       </c>
-      <c r="K17" s="52">
+      <c r="K17" s="49">
         <f>'cDEBI-NN'!P15/cNN!P15</f>
         <v>1.888304465896656E-2</v>
       </c>
-      <c r="L17" s="52">
+      <c r="L17" s="49">
         <f>'cDEBI-NN'!Q15/cNN!Q15</f>
         <v>1.8910482392197552E-2</v>
       </c>
-      <c r="M17" s="52">
+      <c r="M17" s="49">
         <f>'cDEBI-NN'!R15/cNN!R15</f>
         <v>1.8937885126916444E-2</v>
       </c>
-      <c r="N17" s="69">
+      <c r="N17" s="66">
         <f>'cDEBI-NN'!S15/cNN!S15</f>
         <v>1.8965252930044686E-2</v>
       </c>
-      <c r="O17" s="52">
+      <c r="O17" s="49">
         <f>'cDEBI-NN'!T15/cNN!T15</f>
         <v>1.0157795912521396E-2</v>
       </c>
-      <c r="P17" s="52">
+      <c r="P17" s="49">
         <f>'cDEBI-NN'!U15/cNN!U15</f>
         <v>1.0172547814979725E-2</v>
       </c>
-      <c r="Q17" s="52">
+      <c r="Q17" s="49">
         <f>'cDEBI-NN'!V15/cNN!V15</f>
         <v>1.0183292138540712E-2</v>
       </c>
-      <c r="R17" s="69">
+      <c r="R17" s="66">
         <f>'cDEBI-NN'!W15/cNN!W15</f>
         <v>1.0190860435711756E-2</v>
       </c>
-      <c r="S17" s="52">
+      <c r="S17" s="49">
         <f>'cDEBI-NN'!X15/cNN!X15</f>
         <v>4.2876964826456272E-3</v>
       </c>
-      <c r="T17" s="52">
+      <c r="T17" s="49">
         <f>'cDEBI-NN'!Y15/cNN!Y15</f>
         <v>4.3028265794279692E-3</v>
       </c>
-      <c r="U17" s="52">
+      <c r="U17" s="49">
         <f>'cDEBI-NN'!Z15/cNN!Z15</f>
         <v>4.3139174706751425E-3</v>
       </c>
-      <c r="V17" s="53">
+      <c r="V17" s="50">
         <f>'cDEBI-NN'!AA15/cNN!AA15</f>
         <v>4.321756377058155E-3</v>
       </c>
-      <c r="W17" s="57"/>
+      <c r="W17" s="54"/>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B18" s="87"/>
+      <c r="B18" s="83"/>
       <c r="C18" s="46" t="str">
         <f>'cDEBI-NN'!J16</f>
         <v>3C</v>
@@ -8035,75 +8083,75 @@
         <f>'cDEBI-NN'!K16</f>
         <v>272896</v>
       </c>
-      <c r="F18" s="62"/>
-      <c r="G18" s="51">
+      <c r="F18" s="59"/>
+      <c r="G18" s="48">
         <f>'cDEBI-NN'!L16/cNN!L16</f>
         <v>2.9143035478816161E-2</v>
       </c>
-      <c r="H18" s="52">
+      <c r="H18" s="49">
         <f>'cDEBI-NN'!M16/cNN!M16</f>
         <v>2.9159193256453057E-2</v>
       </c>
-      <c r="I18" s="52">
+      <c r="I18" s="49">
         <f>'cDEBI-NN'!N16/cNN!N16</f>
         <v>2.9175345501640866E-2</v>
       </c>
-      <c r="J18" s="69">
+      <c r="J18" s="66">
         <f>'cDEBI-NN'!O16/cNN!O16</f>
         <v>2.9191492217220588E-2</v>
       </c>
-      <c r="K18" s="52">
+      <c r="K18" s="49">
         <f>'cDEBI-NN'!P16/cNN!P16</f>
         <v>1.914379083972759E-2</v>
       </c>
-      <c r="L18" s="52">
+      <c r="L18" s="49">
         <f>'cDEBI-NN'!Q16/cNN!Q16</f>
         <v>1.91629455188893E-2</v>
       </c>
-      <c r="M18" s="52">
+      <c r="M18" s="49">
         <f>'cDEBI-NN'!R16/cNN!R16</f>
         <v>1.918208303370458E-2</v>
       </c>
-      <c r="N18" s="69">
+      <c r="N18" s="66">
         <f>'cDEBI-NN'!S16/cNN!S16</f>
         <v>1.9201203407234333E-2</v>
       </c>
-      <c r="O18" s="52">
+      <c r="O18" s="49">
         <f>'cDEBI-NN'!T16/cNN!T16</f>
         <v>1.1361724775762106E-2</v>
       </c>
-      <c r="P18" s="52">
+      <c r="P18" s="49">
         <f>'cDEBI-NN'!U16/cNN!U16</f>
         <v>1.1372789074153048E-2</v>
       </c>
-      <c r="Q18" s="52">
+      <c r="Q18" s="49">
         <f>'cDEBI-NN'!V16/cNN!V16</f>
         <v>1.1380955670308E-2</v>
       </c>
-      <c r="R18" s="69">
+      <c r="R18" s="66">
         <f>'cDEBI-NN'!W16/cNN!W16</f>
         <v>1.138675197776538E-2</v>
       </c>
-      <c r="S18" s="52">
+      <c r="S18" s="49">
         <f>'cDEBI-NN'!X16/cNN!X16</f>
         <v>5.1425402672486461E-3</v>
       </c>
-      <c r="T18" s="52">
+      <c r="T18" s="49">
         <f>'cDEBI-NN'!Y16/cNN!Y16</f>
         <v>5.1544110297625989E-3</v>
       </c>
-      <c r="U18" s="52">
+      <c r="U18" s="49">
         <f>'cDEBI-NN'!Z16/cNN!Z16</f>
         <v>5.1633322172022263E-3</v>
       </c>
-      <c r="V18" s="53">
+      <c r="V18" s="50">
         <f>'cDEBI-NN'!AA16/cNN!AA16</f>
         <v>5.169725690978586E-3</v>
       </c>
-      <c r="W18" s="57"/>
+      <c r="W18" s="54"/>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B19" s="87"/>
+      <c r="B19" s="83"/>
       <c r="C19" s="46" t="str">
         <f>'cDEBI-NN'!J17</f>
         <v>4C</v>
@@ -8116,75 +8164,75 @@
         <f>'cDEBI-NN'!K17</f>
         <v>330880</v>
       </c>
-      <c r="F19" s="62"/>
-      <c r="G19" s="51">
+      <c r="F19" s="59"/>
+      <c r="G19" s="48">
         <f>'cDEBI-NN'!L17/cNN!L17</f>
         <v>2.7050538235249097E-2</v>
       </c>
-      <c r="H19" s="52">
+      <c r="H19" s="49">
         <f>'cDEBI-NN'!M17/cNN!M17</f>
         <v>2.7064900377504086E-2</v>
       </c>
-      <c r="I19" s="52">
+      <c r="I19" s="49">
         <f>'cDEBI-NN'!N17/cNN!N17</f>
         <v>2.7079258243371439E-2</v>
       </c>
-      <c r="J19" s="69">
+      <c r="J19" s="66">
         <f>'cDEBI-NN'!O17/cNN!O17</f>
         <v>2.7093611834760837E-2</v>
       </c>
-      <c r="K19" s="52">
+      <c r="K19" s="49">
         <f>'cDEBI-NN'!P17/cNN!P17</f>
         <v>1.9778411299840152E-2</v>
       </c>
-      <c r="L19" s="52">
+      <c r="L19" s="49">
         <f>'cDEBI-NN'!Q17/cNN!Q17</f>
         <v>1.9796677481792507E-2</v>
       </c>
-      <c r="M19" s="52">
+      <c r="M19" s="49">
         <f>'cDEBI-NN'!R17/cNN!R17</f>
         <v>1.9814927819287082E-2</v>
       </c>
-      <c r="N19" s="69">
+      <c r="N19" s="66">
         <f>'cDEBI-NN'!S17/cNN!S17</f>
         <v>1.9833162332930646E-2</v>
       </c>
-      <c r="O19" s="52">
+      <c r="O19" s="49">
         <f>'cDEBI-NN'!T17/cNN!T17</f>
         <v>1.2868688859636331E-2</v>
       </c>
-      <c r="P19" s="52">
+      <c r="P19" s="49">
         <f>'cDEBI-NN'!U17/cNN!U17</f>
         <v>1.2879931984443127E-2</v>
       </c>
-      <c r="Q19" s="52">
+      <c r="Q19" s="49">
         <f>'cDEBI-NN'!V17/cNN!V17</f>
         <v>1.2888377812484912E-2</v>
       </c>
-      <c r="R19" s="69">
+      <c r="R19" s="66">
         <f>'cDEBI-NN'!W17/cNN!W17</f>
         <v>1.2894431420615806E-2</v>
       </c>
-      <c r="S19" s="52">
+      <c r="S19" s="49">
         <f>'cDEBI-NN'!X17/cNN!X17</f>
         <v>6.307237514983576E-3</v>
       </c>
-      <c r="T19" s="52">
+      <c r="T19" s="49">
         <f>'cDEBI-NN'!Y17/cNN!Y17</f>
         <v>6.3197067048434341E-3</v>
       </c>
-      <c r="U19" s="52">
+      <c r="U19" s="49">
         <f>'cDEBI-NN'!Z17/cNN!Z17</f>
         <v>6.3294392612393054E-3</v>
       </c>
-      <c r="V19" s="53">
+      <c r="V19" s="50">
         <f>'cDEBI-NN'!AA17/cNN!AA17</f>
         <v>6.3365566488547262E-3</v>
       </c>
-      <c r="W19" s="57"/>
+      <c r="W19" s="54"/>
     </row>
     <row r="20" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="87"/>
+      <c r="B20" s="83"/>
       <c r="C20" s="46" t="str">
         <f>'cDEBI-NN'!J18</f>
         <v>5C</v>
@@ -8197,96 +8245,96 @@
         <f>'cDEBI-NN'!K18</f>
         <v>344960</v>
       </c>
-      <c r="F20" s="62"/>
-      <c r="G20" s="54">
+      <c r="F20" s="59"/>
+      <c r="G20" s="51">
         <f>'cDEBI-NN'!L18/cNN!L18</f>
         <v>2.7662593524068524E-2</v>
       </c>
-      <c r="H20" s="55">
+      <c r="H20" s="52">
         <f>'cDEBI-NN'!M18/cNN!M18</f>
         <v>2.7678451596163903E-2</v>
       </c>
-      <c r="I20" s="55">
+      <c r="I20" s="52">
         <f>'cDEBI-NN'!N18/cNN!N18</f>
         <v>2.7694304421431767E-2</v>
       </c>
-      <c r="J20" s="70">
+      <c r="J20" s="67">
         <f>'cDEBI-NN'!O18/cNN!O18</f>
         <v>2.7710152002475646E-2</v>
       </c>
-      <c r="K20" s="55">
+      <c r="K20" s="52">
         <f>'cDEBI-NN'!P18/cNN!P18</f>
         <v>2.2262646372269265E-2</v>
       </c>
-      <c r="L20" s="55">
+      <c r="L20" s="52">
         <f>'cDEBI-NN'!Q18/cNN!Q18</f>
         <v>2.2283665299995349E-2</v>
       </c>
-      <c r="M20" s="55">
+      <c r="M20" s="52">
         <f>'cDEBI-NN'!R18/cNN!R18</f>
         <v>2.2304661934316225E-2</v>
       </c>
-      <c r="N20" s="70">
+      <c r="N20" s="67">
         <f>'cDEBI-NN'!S18/cNN!S18</f>
         <v>2.2325636310680824E-2</v>
       </c>
-      <c r="O20" s="55">
+      <c r="O20" s="52">
         <f>'cDEBI-NN'!T18/cNN!T18</f>
         <v>1.6014703785785119E-2</v>
       </c>
-      <c r="P20" s="55">
+      <c r="P20" s="52">
         <f>'cDEBI-NN'!U18/cNN!U18</f>
         <v>1.6028492664725856E-2</v>
       </c>
-      <c r="Q20" s="55">
+      <c r="Q20" s="52">
         <f>'cDEBI-NN'!V18/cNN!V18</f>
         <v>1.6039284046751569E-2</v>
       </c>
-      <c r="R20" s="70">
+      <c r="R20" s="67">
         <f>'cDEBI-NN'!W18/cNN!W18</f>
         <v>1.6047189876339782E-2</v>
       </c>
-      <c r="S20" s="55">
+      <c r="S20" s="52">
         <f>'cDEBI-NN'!X18/cNN!X18</f>
         <v>8.7221914227458737E-3</v>
       </c>
-      <c r="T20" s="55">
+      <c r="T20" s="52">
         <f>'cDEBI-NN'!Y18/cNN!Y18</f>
         <v>8.7372389318826106E-3</v>
       </c>
-      <c r="U20" s="55">
+      <c r="U20" s="52">
         <f>'cDEBI-NN'!Z18/cNN!Z18</f>
         <v>8.750213511314605E-3</v>
       </c>
-      <c r="V20" s="56">
+      <c r="V20" s="53">
         <f>'cDEBI-NN'!AA18/cNN!AA18</f>
         <v>8.7601680769823359E-3</v>
       </c>
-      <c r="W20" s="57"/>
+      <c r="W20" s="54"/>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B21" s="57"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="57"/>
-      <c r="M21" s="57"/>
-      <c r="N21" s="57"/>
-      <c r="O21" s="57"/>
-      <c r="P21" s="57"/>
-      <c r="Q21" s="57"/>
-      <c r="R21" s="57"/>
-      <c r="S21" s="57"/>
-      <c r="T21" s="57"/>
-      <c r="U21" s="57"/>
-      <c r="V21" s="57"/>
-      <c r="W21" s="57"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="54"/>
+      <c r="P21" s="54"/>
+      <c r="Q21" s="54"/>
+      <c r="R21" s="54"/>
+      <c r="S21" s="54"/>
+      <c r="T21" s="54"/>
+      <c r="U21" s="54"/>
+      <c r="V21" s="54"/>
+      <c r="W21" s="54"/>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
@@ -8325,7 +8373,7 @@
   <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8335,50 +8383,51 @@
     <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.42578125" customWidth="1"/>
     <col min="6" max="6" width="3.7109375" customWidth="1"/>
-    <col min="7" max="22" width="8.7109375" customWidth="1"/>
+    <col min="7" max="18" width="7.7109375" customWidth="1"/>
+    <col min="19" max="22" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="84" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="93" t="str">
+      <c r="G1" s="89" t="str">
         <f>'Fully-connected'!A3</f>
         <v>Block 50</v>
       </c>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="94" t="str">
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="90" t="str">
         <f>'Fully-connected'!A4</f>
         <v>Block 100</v>
       </c>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="94" t="str">
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="90" t="str">
         <f>'Fully-connected'!A5</f>
         <v>Hinton 200</v>
       </c>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="94"/>
-      <c r="S1" s="98"/>
-      <c r="T1" s="98"/>
-      <c r="U1" s="98"/>
-      <c r="V1" s="98"/>
-      <c r="W1" s="65"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="94"/>
+      <c r="T1" s="94"/>
+      <c r="U1" s="94"/>
+      <c r="V1" s="94"/>
+      <c r="W1" s="62"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="84" t="s">
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="80" t="s">
         <v>38</v>
       </c>
       <c r="G2" s="43" t="str">
@@ -8393,7 +8442,7 @@
         <f>'Fully-connected'!Q2</f>
         <v>3H</v>
       </c>
-      <c r="J2" s="66" t="str">
+      <c r="J2" s="63" t="str">
         <f>'Fully-connected'!R2</f>
         <v>4H</v>
       </c>
@@ -8409,7 +8458,7 @@
         <f t="shared" si="0"/>
         <v>3H</v>
       </c>
-      <c r="N2" s="71" t="str">
+      <c r="N2" s="68" t="str">
         <f t="shared" si="0"/>
         <v>4H</v>
       </c>
@@ -8429,170 +8478,170 @@
         <f t="shared" si="1"/>
         <v>4H</v>
       </c>
-      <c r="S2" s="78"/>
-      <c r="T2" s="78"/>
-      <c r="U2" s="78"/>
-      <c r="V2" s="78"/>
-      <c r="W2" s="57"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="75"/>
+      <c r="U2" s="75"/>
+      <c r="V2" s="75"/>
+      <c r="W2" s="54"/>
     </row>
     <row r="3" spans="1:24" ht="18" x14ac:dyDescent="0.35">
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="84" t="s">
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="113">
         <f>cNN!L3</f>
         <v>2622</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="113">
         <f>cNN!M3</f>
         <v>5132</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="113">
         <f>cNN!N3</f>
         <v>7642</v>
       </c>
-      <c r="J3" s="47">
+      <c r="J3" s="111">
         <f>cNN!O3</f>
         <v>10152</v>
       </c>
-      <c r="K3" s="14">
+      <c r="K3" s="113">
         <f>cNN!P3</f>
         <v>10242</v>
       </c>
-      <c r="L3" s="14">
+      <c r="L3" s="113">
         <f>cNN!Q3</f>
         <v>20262</v>
       </c>
-      <c r="M3" s="14">
+      <c r="M3" s="113">
         <f>cNN!R3</f>
         <v>30282</v>
       </c>
-      <c r="N3" s="47">
+      <c r="N3" s="111">
         <f>cNN!S3</f>
         <v>40302</v>
       </c>
-      <c r="O3" s="14">
+      <c r="O3" s="113">
         <f>cNN!T3</f>
         <v>27001.333333333336</v>
       </c>
-      <c r="P3" s="14">
+      <c r="P3" s="113">
         <f>cNN!U3</f>
         <v>38782.296296296307</v>
       </c>
-      <c r="Q3" s="14">
+      <c r="Q3" s="113">
         <f>cNN!V3</f>
         <v>44002.526748971199</v>
       </c>
-      <c r="R3" s="14">
+      <c r="R3" s="113">
         <f>cNN!W3</f>
         <v>46312.127114769093</v>
       </c>
-      <c r="S3" s="79"/>
-      <c r="T3" s="79"/>
-      <c r="U3" s="79"/>
-      <c r="V3" s="79"/>
-      <c r="W3" s="57"/>
+      <c r="S3" s="76"/>
+      <c r="T3" s="76"/>
+      <c r="U3" s="76"/>
+      <c r="V3" s="76"/>
+      <c r="W3" s="54"/>
     </row>
     <row r="4" spans="1:24" ht="18" x14ac:dyDescent="0.35">
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="85" t="s">
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="45">
+      <c r="G4" s="114">
         <f>'cDEBI-NN'!L3</f>
         <v>628</v>
       </c>
-      <c r="H4" s="45">
+      <c r="H4" s="114">
         <f>'cDEBI-NN'!M3</f>
         <v>938</v>
       </c>
-      <c r="I4" s="45">
+      <c r="I4" s="114">
         <f>'cDEBI-NN'!N3</f>
         <v>1248</v>
       </c>
-      <c r="J4" s="67">
+      <c r="J4" s="112">
         <f>'cDEBI-NN'!O3</f>
         <v>1558</v>
       </c>
-      <c r="K4" s="45">
+      <c r="K4" s="114">
         <f>'cDEBI-NN'!P3</f>
         <v>1248</v>
       </c>
-      <c r="L4" s="45">
+      <c r="L4" s="114">
         <f>'cDEBI-NN'!Q3</f>
         <v>1868</v>
       </c>
-      <c r="M4" s="45">
+      <c r="M4" s="114">
         <f>'cDEBI-NN'!R3</f>
         <v>2488</v>
       </c>
-      <c r="N4" s="67">
+      <c r="N4" s="112">
         <f>'cDEBI-NN'!S3</f>
         <v>3108</v>
       </c>
-      <c r="O4" s="45">
+      <c r="O4" s="114">
         <f>'cDEBI-NN'!T3</f>
         <v>2074</v>
       </c>
-      <c r="P4" s="45">
+      <c r="P4" s="114">
         <f>'cDEBI-NN'!U3</f>
         <v>2625.3333333333335</v>
       </c>
-      <c r="Q4" s="45">
+      <c r="Q4" s="114">
         <f>'cDEBI-NN'!V3</f>
         <v>2992.8888888888891</v>
       </c>
-      <c r="R4" s="45">
+      <c r="R4" s="114">
         <f>'cDEBI-NN'!W3</f>
         <v>3237.9259259259261</v>
       </c>
-      <c r="S4" s="79"/>
-      <c r="T4" s="79"/>
-      <c r="U4" s="79"/>
-      <c r="V4" s="79"/>
-      <c r="W4" s="57"/>
+      <c r="S4" s="76"/>
+      <c r="T4" s="76"/>
+      <c r="U4" s="76"/>
+      <c r="V4" s="76"/>
+      <c r="W4" s="54"/>
     </row>
     <row r="5" spans="1:24" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="83" t="s">
+      <c r="C5" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="83" t="s">
+      <c r="D5" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="83" t="s">
+      <c r="E5" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="86"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="63"/>
-      <c r="R5" s="63"/>
-      <c r="S5" s="77"/>
-      <c r="T5" s="77"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="57"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="60"/>
+      <c r="R5" s="60"/>
+      <c r="S5" s="74"/>
+      <c r="T5" s="74"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
+      <c r="W5" s="54"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B6" s="87" t="str">
+      <c r="B6" s="83" t="str">
         <f>'cDEBI-NN'!I4</f>
         <v>Small</v>
       </c>
@@ -8600,356 +8649,356 @@
         <f>'cDEBI-NN'!J4</f>
         <v>1C</v>
       </c>
-      <c r="D6" s="47">
+      <c r="D6" s="111">
         <f>cNN!K4</f>
         <v>416</v>
       </c>
-      <c r="E6" s="47">
+      <c r="E6" s="111">
         <f>'cDEBI-NN'!K4</f>
         <v>1216</v>
       </c>
-      <c r="F6" s="61"/>
-      <c r="G6" s="48">
+      <c r="F6" s="58"/>
+      <c r="G6" s="95">
         <f>'cDEBI-NN'!L4/cNN!L4</f>
         <v>5.1898230248633784E-2</v>
       </c>
-      <c r="H6" s="49">
+      <c r="H6" s="96">
         <f>'cDEBI-NN'!M4/cNN!M4</f>
         <v>5.5009347088555011E-2</v>
       </c>
-      <c r="I6" s="49">
+      <c r="I6" s="96">
         <f>'cDEBI-NN'!N4/cNN!N4</f>
         <v>5.7861384824657441E-2</v>
       </c>
-      <c r="J6" s="81">
+      <c r="J6" s="97">
         <f>'cDEBI-NN'!O4/cNN!O4</f>
         <v>6.0485412154414574E-2</v>
       </c>
-      <c r="K6" s="49">
+      <c r="K6" s="96">
         <f>'cDEBI-NN'!P4/cNN!P4</f>
         <v>3.0574499044546906E-2</v>
       </c>
-      <c r="L6" s="49">
+      <c r="L6" s="96">
         <f>'cDEBI-NN'!Q4/cNN!Q4</f>
         <v>3.3101803355304507E-2</v>
       </c>
-      <c r="M6" s="49">
+      <c r="M6" s="96">
         <f>'cDEBI-NN'!R4/cNN!R4</f>
         <v>3.525148745172306E-2</v>
       </c>
-      <c r="N6" s="81">
+      <c r="N6" s="97">
         <f>'cDEBI-NN'!S4/cNN!S4</f>
         <v>3.7102301896740714E-2</v>
       </c>
-      <c r="O6" s="49">
+      <c r="O6" s="96">
         <f>'cDEBI-NN'!T4/cNN!T4</f>
         <v>1.8495864083552943E-2</v>
       </c>
-      <c r="P6" s="49">
+      <c r="P6" s="96">
         <f>'cDEBI-NN'!U4/cNN!U4</f>
         <v>1.9856696336932E-2</v>
       </c>
-      <c r="Q6" s="49">
+      <c r="Q6" s="96">
         <f>'cDEBI-NN'!V4/cNN!V4</f>
         <v>2.091126938683056E-2</v>
       </c>
-      <c r="R6" s="50">
+      <c r="R6" s="98">
         <f>'cDEBI-NN'!W4/cNN!W4</f>
         <v>2.1690278314054953E-2</v>
       </c>
-      <c r="S6" s="80"/>
-      <c r="T6" s="80"/>
-      <c r="U6" s="80"/>
-      <c r="V6" s="80"/>
-      <c r="W6" s="57"/>
+      <c r="S6" s="77"/>
+      <c r="T6" s="77"/>
+      <c r="U6" s="77"/>
+      <c r="V6" s="77"/>
+      <c r="W6" s="54"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="87"/>
+      <c r="B7" s="83"/>
       <c r="C7" s="46" t="str">
         <f>'cDEBI-NN'!J5</f>
         <v>2C</v>
       </c>
-      <c r="D7" s="47">
+      <c r="D7" s="111">
         <f>cNN!K5</f>
         <v>2736</v>
       </c>
-      <c r="E7" s="47">
+      <c r="E7" s="111">
         <f>'cDEBI-NN'!K5</f>
         <v>2096</v>
       </c>
-      <c r="F7" s="61"/>
-      <c r="G7" s="51">
+      <c r="F7" s="58"/>
+      <c r="G7" s="99">
         <f>'cDEBI-NN'!L5/cNN!L5</f>
         <v>7.7367562083719282E-2</v>
       </c>
-      <c r="H7" s="52">
+      <c r="H7" s="100">
         <f>'cDEBI-NN'!M5/cNN!M5</f>
         <v>7.9787678675917406E-2</v>
       </c>
-      <c r="I7" s="52">
+      <c r="I7" s="100">
         <f>'cDEBI-NN'!N5/cNN!N5</f>
         <v>8.1966562090465031E-2</v>
       </c>
-      <c r="J7" s="69">
+      <c r="J7" s="101">
         <f>'cDEBI-NN'!O5/cNN!O5</f>
         <v>8.3938568618550466E-2</v>
       </c>
-      <c r="K7" s="52">
+      <c r="K7" s="100">
         <f>'cDEBI-NN'!P5/cNN!P5</f>
         <v>4.4790694646383543E-2</v>
       </c>
-      <c r="L7" s="52">
+      <c r="L7" s="100">
         <f>'cDEBI-NN'!Q5/cNN!Q5</f>
         <v>4.6466109490908382E-2</v>
       </c>
-      <c r="M7" s="52">
+      <c r="M7" s="100">
         <f>'cDEBI-NN'!R5/cNN!R5</f>
         <v>4.7842284451257551E-2</v>
       </c>
-      <c r="N7" s="69">
+      <c r="N7" s="101">
         <f>'cDEBI-NN'!S5/cNN!S5</f>
         <v>4.8992816350575182E-2</v>
       </c>
-      <c r="O7" s="52">
+      <c r="O7" s="100">
         <f>'cDEBI-NN'!T5/cNN!T5</f>
         <v>2.6446533941675978E-2</v>
       </c>
-      <c r="P7" s="52">
+      <c r="P7" s="100">
         <f>'cDEBI-NN'!U5/cNN!U5</f>
         <v>2.7650777694399421E-2</v>
       </c>
-      <c r="Q7" s="52">
+      <c r="Q7" s="100">
         <f>'cDEBI-NN'!V5/cNN!V5</f>
         <v>2.8743227593814296E-2</v>
       </c>
-      <c r="R7" s="53">
+      <c r="R7" s="102">
         <f>'cDEBI-NN'!W5/cNN!W5</f>
         <v>2.9607815644891775E-2</v>
       </c>
-      <c r="S7" s="80"/>
-      <c r="T7" s="80"/>
-      <c r="U7" s="80"/>
-      <c r="V7" s="80"/>
-      <c r="W7" s="65"/>
+      <c r="S7" s="77"/>
+      <c r="T7" s="77"/>
+      <c r="U7" s="77"/>
+      <c r="V7" s="77"/>
+      <c r="W7" s="62"/>
       <c r="X7" s="2"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="87"/>
+      <c r="B8" s="83"/>
       <c r="C8" s="46" t="str">
         <f>'cDEBI-NN'!J6</f>
         <v>3C</v>
       </c>
-      <c r="D8" s="47">
+      <c r="D8" s="111">
         <f>cNN!K6</f>
         <v>7376</v>
       </c>
-      <c r="E8" s="47">
+      <c r="E8" s="111">
         <f>'cDEBI-NN'!K6</f>
         <v>3856</v>
       </c>
-      <c r="F8" s="62"/>
-      <c r="G8" s="51">
+      <c r="F8" s="59"/>
+      <c r="G8" s="99">
         <f>'cDEBI-NN'!L6/cNN!L6</f>
         <v>8.1978181818181825E-2</v>
       </c>
-      <c r="H8" s="52">
+      <c r="H8" s="100">
         <f>'cDEBI-NN'!M6/cNN!M6</f>
         <v>8.3440920572551217E-2</v>
       </c>
-      <c r="I8" s="52">
+      <c r="I8" s="100">
         <f>'cDEBI-NN'!N6/cNN!N6</f>
         <v>8.4804120916361664E-2</v>
       </c>
-      <c r="J8" s="69">
+      <c r="J8" s="101">
         <f>'cDEBI-NN'!O6/cNN!O6</f>
         <v>8.6077608809648667E-2</v>
       </c>
-      <c r="K8" s="52">
+      <c r="K8" s="100">
         <f>'cDEBI-NN'!P6/cNN!P6</f>
         <v>4.6697021721280881E-2</v>
       </c>
-      <c r="L8" s="52">
+      <c r="L8" s="100">
         <f>'cDEBI-NN'!Q6/cNN!Q6</f>
         <v>4.7753316202514065E-2</v>
       </c>
-      <c r="M8" s="52">
+      <c r="M8" s="100">
         <f>'cDEBI-NN'!R6/cNN!R6</f>
         <v>4.8672164145185375E-2</v>
       </c>
-      <c r="N8" s="69">
+      <c r="N8" s="101">
         <f>'cDEBI-NN'!S6/cNN!S6</f>
         <v>4.9478753886484178E-2</v>
       </c>
-      <c r="O8" s="52">
+      <c r="O8" s="100">
         <f>'cDEBI-NN'!T6/cNN!T6</f>
         <v>2.6631135088519758E-2</v>
       </c>
-      <c r="P8" s="52">
+      <c r="P8" s="100">
         <f>'cDEBI-NN'!U6/cNN!U6</f>
         <v>2.7486677430170373E-2</v>
       </c>
-      <c r="Q8" s="52">
+      <c r="Q8" s="100">
         <f>'cDEBI-NN'!V6/cNN!V6</f>
         <v>2.8278634266947236E-2</v>
       </c>
-      <c r="R8" s="53">
+      <c r="R8" s="102">
         <f>'cDEBI-NN'!W6/cNN!W6</f>
         <v>2.8908716348342182E-2</v>
       </c>
-      <c r="S8" s="80"/>
-      <c r="T8" s="80"/>
-      <c r="U8" s="80"/>
-      <c r="V8" s="80"/>
-      <c r="W8" s="65"/>
+      <c r="S8" s="77"/>
+      <c r="T8" s="77"/>
+      <c r="U8" s="77"/>
+      <c r="V8" s="77"/>
+      <c r="W8" s="62"/>
       <c r="X8" s="2"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="87"/>
+      <c r="B9" s="83"/>
       <c r="C9" s="46" t="str">
         <f>'cDEBI-NN'!J7</f>
         <v>4C</v>
       </c>
-      <c r="D9" s="47">
+      <c r="D9" s="111">
         <f>cNN!K7</f>
         <v>16624</v>
       </c>
-      <c r="E9" s="47">
+      <c r="E9" s="111">
         <f>'cDEBI-NN'!K7</f>
         <v>5616</v>
       </c>
-      <c r="F9" s="62"/>
-      <c r="G9" s="51">
+      <c r="F9" s="59"/>
+      <c r="G9" s="99">
         <f>'cDEBI-NN'!L7/cNN!L7</f>
         <v>0.11731006228558105</v>
       </c>
-      <c r="H9" s="52">
+      <c r="H9" s="100">
         <f>'cDEBI-NN'!M7/cNN!M7</f>
         <v>0.11755866743397915</v>
       </c>
-      <c r="I9" s="52">
+      <c r="I9" s="100">
         <f>'cDEBI-NN'!N7/cNN!N7</f>
         <v>0.11778809209110749</v>
       </c>
-      <c r="J9" s="69">
+      <c r="J9" s="101">
         <f>'cDEBI-NN'!O7/cNN!O7</f>
         <v>0.1180004735409021</v>
       </c>
-      <c r="K9" s="52">
+      <c r="K9" s="100">
         <f>'cDEBI-NN'!P7/cNN!P7</f>
         <v>7.1183103300949235E-2</v>
       </c>
-      <c r="L9" s="52">
+      <c r="L9" s="100">
         <f>'cDEBI-NN'!Q7/cNN!Q7</f>
         <v>7.0390700678075555E-2</v>
       </c>
-      <c r="M9" s="52">
+      <c r="M9" s="100">
         <f>'cDEBI-NN'!R7/cNN!R7</f>
         <v>6.9722644198393191E-2</v>
       </c>
-      <c r="N9" s="69">
+      <c r="N9" s="101">
         <f>'cDEBI-NN'!S7/cNN!S7</f>
         <v>6.9151794141992073E-2</v>
       </c>
-      <c r="O9" s="52">
+      <c r="O9" s="100">
         <f>'cDEBI-NN'!T7/cNN!T7</f>
         <v>4.1531056163945756E-2</v>
       </c>
-      <c r="P9" s="52">
+      <c r="P9" s="100">
         <f>'cDEBI-NN'!U7/cNN!U7</f>
         <v>4.1818085264930444E-2</v>
       </c>
-      <c r="Q9" s="52">
+      <c r="Q9" s="100">
         <f>'cDEBI-NN'!V7/cNN!V7</f>
         <v>4.2492148646470176E-2</v>
       </c>
-      <c r="R9" s="53">
+      <c r="R9" s="102">
         <f>'cDEBI-NN'!W7/cNN!W7</f>
         <v>4.3148712952261789E-2</v>
       </c>
-      <c r="S9" s="80"/>
-      <c r="T9" s="80"/>
-      <c r="U9" s="80"/>
-      <c r="V9" s="80"/>
-      <c r="W9" s="65"/>
+      <c r="S9" s="77"/>
+      <c r="T9" s="77"/>
+      <c r="U9" s="77"/>
+      <c r="V9" s="77"/>
+      <c r="W9" s="62"/>
       <c r="X9" s="2"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="95"/>
-      <c r="C10" s="71" t="str">
+      <c r="B10" s="91"/>
+      <c r="C10" s="68" t="str">
         <f>'cDEBI-NN'!J8</f>
         <v>5C</v>
       </c>
-      <c r="D10" s="67">
+      <c r="D10" s="112">
         <f>cNN!K8</f>
         <v>21248</v>
       </c>
-      <c r="E10" s="67">
+      <c r="E10" s="112">
         <f>'cDEBI-NN'!K8</f>
         <v>6496</v>
       </c>
-      <c r="F10" s="72"/>
-      <c r="G10" s="73">
+      <c r="F10" s="69"/>
+      <c r="G10" s="103">
         <f>'cDEBI-NN'!L8/cNN!L8</f>
         <v>0.19985917781508963</v>
       </c>
-      <c r="H10" s="74">
+      <c r="H10" s="104">
         <f>'cDEBI-NN'!M8/cNN!M8</f>
         <v>0.19499949284917334</v>
       </c>
-      <c r="I10" s="74">
+      <c r="I10" s="104">
         <f>'cDEBI-NN'!N8/cNN!N8</f>
         <v>0.19072140370953131</v>
       </c>
-      <c r="J10" s="75">
+      <c r="J10" s="105">
         <f>'cDEBI-NN'!O8/cNN!O8</f>
         <v>0.18692639913622458</v>
       </c>
-      <c r="K10" s="74">
+      <c r="K10" s="104">
         <f>'cDEBI-NN'!P8/cNN!P8</f>
         <v>0.13950406305583651</v>
       </c>
-      <c r="L10" s="74">
+      <c r="L10" s="104">
         <f>'cDEBI-NN'!Q8/cNN!Q8</f>
         <v>0.1279577234806876</v>
       </c>
-      <c r="M10" s="74">
+      <c r="M10" s="104">
         <f>'cDEBI-NN'!R8/cNN!R8</f>
         <v>0.11940144212131393</v>
       </c>
-      <c r="N10" s="75">
+      <c r="N10" s="105">
         <f>'cDEBI-NN'!S8/cNN!S8</f>
         <v>0.11280690112806901</v>
       </c>
-      <c r="O10" s="74">
+      <c r="O10" s="104">
         <f>'cDEBI-NN'!T8/cNN!T8</f>
         <v>8.8520841412696075E-2</v>
       </c>
-      <c r="P10" s="74">
+      <c r="P10" s="104">
         <f>'cDEBI-NN'!U8/cNN!U8</f>
         <v>8.4111981874536973E-2</v>
       </c>
-      <c r="Q10" s="74">
+      <c r="Q10" s="104">
         <f>'cDEBI-NN'!V8/cNN!V8</f>
         <v>8.3499090927875566E-2</v>
       </c>
-      <c r="R10" s="76">
+      <c r="R10" s="106">
         <f>'cDEBI-NN'!W8/cNN!W8</f>
         <v>8.3937581974016739E-2</v>
       </c>
-      <c r="S10" s="80"/>
-      <c r="T10" s="80"/>
-      <c r="U10" s="80"/>
-      <c r="V10" s="80"/>
-      <c r="W10" s="65"/>
+      <c r="S10" s="77"/>
+      <c r="T10" s="77"/>
+      <c r="U10" s="77"/>
+      <c r="V10" s="77"/>
+      <c r="W10" s="62"/>
       <c r="X10" s="2"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="87" t="str">
+      <c r="B11" s="83" t="str">
         <f>'cDEBI-NN'!I9</f>
         <v>Medium</v>
       </c>
@@ -8957,348 +9006,348 @@
         <f>'cDEBI-NN'!J9</f>
         <v>1C</v>
       </c>
-      <c r="D11" s="47">
+      <c r="D11" s="111">
         <f>cNN!K9</f>
         <v>1600</v>
       </c>
-      <c r="E11" s="47">
+      <c r="E11" s="111">
         <f>'cDEBI-NN'!K9</f>
         <v>4736</v>
       </c>
-      <c r="F11" s="62"/>
-      <c r="G11" s="51">
+      <c r="F11" s="59"/>
+      <c r="G11" s="99">
         <f>'cDEBI-NN'!L9/cNN!L9</f>
         <v>3.3826752319464116E-2</v>
       </c>
-      <c r="H11" s="52">
+      <c r="H11" s="100">
         <f>'cDEBI-NN'!M9/cNN!M9</f>
         <v>3.4428719660259087E-2</v>
       </c>
-      <c r="I11" s="52">
+      <c r="I11" s="100">
         <f>'cDEBI-NN'!N9/cNN!N9</f>
         <v>3.5022659533208302E-2</v>
       </c>
-      <c r="J11" s="69">
+      <c r="J11" s="101">
         <f>'cDEBI-NN'!O9/cNN!O9</f>
         <v>3.5608731448837846E-2</v>
       </c>
-      <c r="K11" s="52">
+      <c r="K11" s="100">
         <f>'cDEBI-NN'!P9/cNN!P9</f>
         <v>1.7839310891667862E-2</v>
       </c>
-      <c r="L11" s="52">
+      <c r="L11" s="100">
         <f>'cDEBI-NN'!Q9/cNN!Q9</f>
         <v>1.8428381095289843E-2</v>
       </c>
-      <c r="M11" s="52">
+      <c r="M11" s="100">
         <f>'cDEBI-NN'!R9/cNN!R9</f>
         <v>1.9001899663014007E-2</v>
       </c>
-      <c r="N11" s="69">
+      <c r="N11" s="101">
         <f>'cDEBI-NN'!S9/cNN!S9</f>
         <v>1.9560474423418479E-2</v>
       </c>
-      <c r="O11" s="52">
+      <c r="O11" s="100">
         <f>'cDEBI-NN'!T9/cNN!T9</f>
         <v>9.4931476775103434E-3</v>
       </c>
-      <c r="P11" s="52">
+      <c r="P11" s="100">
         <f>'cDEBI-NN'!U9/cNN!U9</f>
         <v>9.7885900965528905E-3</v>
       </c>
-      <c r="Q11" s="52">
+      <c r="Q11" s="100">
         <f>'cDEBI-NN'!V9/cNN!V9</f>
         <v>1.0000578523537912E-2</v>
       </c>
-      <c r="R11" s="53">
+      <c r="R11" s="102">
         <f>'cDEBI-NN'!W9/cNN!W9</f>
         <v>1.0149022037034907E-2</v>
       </c>
-      <c r="S11" s="80"/>
-      <c r="T11" s="80"/>
-      <c r="U11" s="80"/>
-      <c r="V11" s="80"/>
-      <c r="W11" s="65"/>
+      <c r="S11" s="77"/>
+      <c r="T11" s="77"/>
+      <c r="U11" s="77"/>
+      <c r="V11" s="77"/>
+      <c r="W11" s="62"/>
       <c r="X11" s="2"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B12" s="87"/>
+      <c r="B12" s="83"/>
       <c r="C12" s="46" t="str">
         <f>'cDEBI-NN'!J10</f>
         <v>2C</v>
       </c>
-      <c r="D12" s="47">
+      <c r="D12" s="111">
         <f>cNN!K10</f>
         <v>52864</v>
       </c>
-      <c r="E12" s="47">
+      <c r="E12" s="111">
         <f>'cDEBI-NN'!K10</f>
         <v>14400</v>
       </c>
-      <c r="F12" s="62"/>
-      <c r="G12" s="51">
+      <c r="F12" s="59"/>
+      <c r="G12" s="99">
         <f>'cDEBI-NN'!L10/cNN!L10</f>
         <v>4.2569452909066351E-2</v>
       </c>
-      <c r="H12" s="52">
+      <c r="H12" s="100">
         <f>'cDEBI-NN'!M10/cNN!M10</f>
         <v>4.290269876577233E-2</v>
       </c>
-      <c r="I12" s="52">
+      <c r="I12" s="100">
         <f>'cDEBI-NN'!N10/cNN!N10</f>
         <v>4.3233211680024572E-2</v>
       </c>
-      <c r="J12" s="69">
+      <c r="J12" s="101">
         <f>'cDEBI-NN'!O10/cNN!O10</f>
         <v>4.3561025133738565E-2</v>
       </c>
-      <c r="K12" s="52">
+      <c r="K12" s="100">
         <f>'cDEBI-NN'!P10/cNN!P10</f>
         <v>2.2902203506294124E-2</v>
       </c>
-      <c r="L12" s="52">
+      <c r="L12" s="100">
         <f>'cDEBI-NN'!Q10/cNN!Q10</f>
         <v>2.3237257859433636E-2</v>
       </c>
-      <c r="M12" s="52">
+      <c r="M12" s="100">
         <f>'cDEBI-NN'!R10/cNN!R10</f>
         <v>2.3566600485554996E-2</v>
       </c>
-      <c r="N12" s="69">
+      <c r="N12" s="101">
         <f>'cDEBI-NN'!S10/cNN!S10</f>
         <v>2.3890376203417392E-2</v>
       </c>
-      <c r="O12" s="52">
+      <c r="O12" s="100">
         <f>'cDEBI-NN'!T10/cNN!T10</f>
         <v>1.2108002136758457E-2</v>
       </c>
-      <c r="P12" s="52">
+      <c r="P12" s="100">
         <f>'cDEBI-NN'!U10/cNN!U10</f>
         <v>1.228838621662455E-2</v>
       </c>
-      <c r="Q12" s="52">
+      <c r="Q12" s="100">
         <f>'cDEBI-NN'!V10/cNN!V10</f>
         <v>1.2421993897356352E-2</v>
       </c>
-      <c r="R12" s="53">
+      <c r="R12" s="102">
         <f>'cDEBI-NN'!W10/cNN!W10</f>
         <v>1.2517167196967572E-2</v>
       </c>
-      <c r="S12" s="80"/>
-      <c r="T12" s="80"/>
-      <c r="U12" s="80"/>
-      <c r="V12" s="80"/>
-      <c r="W12" s="57"/>
+      <c r="S12" s="77"/>
+      <c r="T12" s="77"/>
+      <c r="U12" s="77"/>
+      <c r="V12" s="77"/>
+      <c r="W12" s="54"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B13" s="87"/>
+      <c r="B13" s="83"/>
       <c r="C13" s="46" t="str">
         <f>'cDEBI-NN'!J11</f>
         <v>3C</v>
       </c>
-      <c r="D13" s="47">
+      <c r="D13" s="111">
         <f>cNN!K11</f>
         <v>126720</v>
       </c>
-      <c r="E13" s="47">
+      <c r="E13" s="111">
         <f>'cDEBI-NN'!K11</f>
         <v>21440</v>
       </c>
-      <c r="F13" s="62"/>
-      <c r="G13" s="51">
+      <c r="F13" s="59"/>
+      <c r="G13" s="99">
         <f>'cDEBI-NN'!L11/cNN!L11</f>
         <v>3.7872624544827163E-2</v>
       </c>
-      <c r="H13" s="52">
+      <c r="H13" s="100">
         <f>'cDEBI-NN'!M11/cNN!M11</f>
         <v>3.807314970649809E-2</v>
       </c>
-      <c r="I13" s="52">
+      <c r="I13" s="100">
         <f>'cDEBI-NN'!N11/cNN!N11</f>
         <v>3.8272737934128449E-2</v>
       </c>
-      <c r="J13" s="69">
+      <c r="J13" s="101">
         <f>'cDEBI-NN'!O11/cNN!O11</f>
         <v>3.8471395779010945E-2</v>
       </c>
-      <c r="K13" s="52">
+      <c r="K13" s="100">
         <f>'cDEBI-NN'!P11/cNN!P11</f>
         <v>2.0574463848085204E-2</v>
       </c>
-      <c r="L13" s="52">
+      <c r="L13" s="100">
         <f>'cDEBI-NN'!Q11/cNN!Q11</f>
         <v>2.0780498393419541E-2</v>
       </c>
-      <c r="M13" s="52">
+      <c r="M13" s="100">
         <f>'cDEBI-NN'!R11/cNN!R11</f>
         <v>2.0984487529685916E-2</v>
       </c>
-      <c r="N13" s="69">
+      <c r="N13" s="101">
         <f>'cDEBI-NN'!S11/cNN!S11</f>
         <v>2.1186461565156009E-2</v>
       </c>
-      <c r="O13" s="52">
+      <c r="O13" s="100">
         <f>'cDEBI-NN'!T11/cNN!T11</f>
         <v>1.0870913623931593E-2</v>
       </c>
-      <c r="P13" s="52">
+      <c r="P13" s="100">
         <f>'cDEBI-NN'!U11/cNN!U11</f>
         <v>1.0980274591267481E-2</v>
       </c>
-      <c r="Q13" s="52">
+      <c r="Q13" s="100">
         <f>'cDEBI-NN'!V11/cNN!V11</f>
         <v>1.1060324036995636E-2</v>
       </c>
-      <c r="R13" s="53">
+      <c r="R13" s="102">
         <f>'cDEBI-NN'!W11/cNN!W11</f>
         <v>1.1116925326107498E-2</v>
       </c>
-      <c r="S13" s="80"/>
-      <c r="T13" s="80"/>
-      <c r="U13" s="80"/>
-      <c r="V13" s="80"/>
-      <c r="W13" s="57"/>
+      <c r="S13" s="77"/>
+      <c r="T13" s="77"/>
+      <c r="U13" s="77"/>
+      <c r="V13" s="77"/>
+      <c r="W13" s="54"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B14" s="87"/>
+      <c r="B14" s="83"/>
       <c r="C14" s="46" t="str">
         <f>'cDEBI-NN'!J12</f>
         <v>4C</v>
       </c>
-      <c r="D14" s="47">
+      <c r="D14" s="111">
         <f>cNN!K12</f>
         <v>274304</v>
       </c>
-      <c r="E14" s="47">
+      <c r="E14" s="111">
         <f>'cDEBI-NN'!K12</f>
         <v>28480</v>
       </c>
-      <c r="F14" s="62"/>
-      <c r="G14" s="51">
+      <c r="F14" s="59"/>
+      <c r="G14" s="99">
         <f>'cDEBI-NN'!L12/cNN!L12</f>
         <v>4.1802975963944979E-2</v>
       </c>
-      <c r="H14" s="52">
+      <c r="H14" s="100">
         <f>'cDEBI-NN'!M12/cNN!M12</f>
         <v>4.1994755565198202E-2</v>
       </c>
-      <c r="I14" s="52">
+      <c r="I14" s="100">
         <f>'cDEBI-NN'!N12/cNN!N12</f>
         <v>4.2185636954976236E-2</v>
       </c>
-      <c r="J14" s="69">
+      <c r="J14" s="101">
         <f>'cDEBI-NN'!O12/cNN!O12</f>
         <v>4.2375626428778866E-2</v>
       </c>
-      <c r="K14" s="52">
+      <c r="K14" s="100">
         <f>'cDEBI-NN'!P12/cNN!P12</f>
         <v>2.4456495282972945E-2</v>
       </c>
-      <c r="L14" s="52">
+      <c r="L14" s="100">
         <f>'cDEBI-NN'!Q12/cNN!Q12</f>
         <v>2.4658203387678646E-2</v>
       </c>
-      <c r="M14" s="52">
+      <c r="M14" s="100">
         <f>'cDEBI-NN'!R12/cNN!R12</f>
         <v>2.4857748569459472E-2</v>
       </c>
-      <c r="N14" s="69">
+      <c r="N14" s="101">
         <f>'cDEBI-NN'!S12/cNN!S12</f>
         <v>2.5055165432429929E-2</v>
       </c>
-      <c r="O14" s="52">
+      <c r="O14" s="100">
         <f>'cDEBI-NN'!T12/cNN!T12</f>
         <v>1.3484679562401519E-2</v>
       </c>
-      <c r="P14" s="52">
+      <c r="P14" s="100">
         <f>'cDEBI-NN'!U12/cNN!U12</f>
         <v>1.3599230308773505E-2</v>
       </c>
-      <c r="Q14" s="52">
+      <c r="Q14" s="100">
         <f>'cDEBI-NN'!V12/cNN!V12</f>
         <v>1.3685657106115792E-2</v>
       </c>
-      <c r="R14" s="53">
+      <c r="R14" s="102">
         <f>'cDEBI-NN'!W12/cNN!W12</f>
         <v>1.3747814074356938E-2</v>
       </c>
-      <c r="S14" s="80"/>
-      <c r="T14" s="80"/>
-      <c r="U14" s="80"/>
-      <c r="V14" s="80"/>
-      <c r="W14" s="57"/>
+      <c r="S14" s="77"/>
+      <c r="T14" s="77"/>
+      <c r="U14" s="77"/>
+      <c r="V14" s="77"/>
+      <c r="W14" s="54"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B15" s="95"/>
-      <c r="C15" s="71" t="str">
+      <c r="B15" s="91"/>
+      <c r="C15" s="68" t="str">
         <f>'cDEBI-NN'!J13</f>
         <v>5C</v>
       </c>
-      <c r="D15" s="67">
+      <c r="D15" s="112">
         <f>cNN!K13</f>
         <v>348096</v>
       </c>
-      <c r="E15" s="67">
+      <c r="E15" s="112">
         <f>'cDEBI-NN'!K13</f>
         <v>32000</v>
       </c>
-      <c r="F15" s="72"/>
-      <c r="G15" s="73">
+      <c r="F15" s="69"/>
+      <c r="G15" s="103">
         <f>'cDEBI-NN'!L13/cNN!L13</f>
         <v>7.9173201208369764E-2</v>
       </c>
-      <c r="H15" s="74">
+      <c r="H15" s="104">
         <f>'cDEBI-NN'!M13/cNN!M13</f>
         <v>7.9429107601166435E-2</v>
       </c>
-      <c r="I15" s="74">
+      <c r="I15" s="104">
         <f>'cDEBI-NN'!N13/cNN!N13</f>
         <v>7.9682076563207402E-2</v>
       </c>
-      <c r="J15" s="75">
+      <c r="J15" s="105">
         <f>'cDEBI-NN'!O13/cNN!O13</f>
         <v>7.9932158381986501E-2</v>
       </c>
-      <c r="K15" s="74">
+      <c r="K15" s="104">
         <f>'cDEBI-NN'!P13/cNN!P13</f>
         <v>6.7023375864045331E-2</v>
       </c>
-      <c r="L15" s="74">
+      <c r="L15" s="104">
         <f>'cDEBI-NN'!Q13/cNN!Q13</f>
         <v>6.6926058291411766E-2</v>
       </c>
-      <c r="M15" s="74">
+      <c r="M15" s="104">
         <f>'cDEBI-NN'!R13/cNN!R13</f>
         <v>6.6832352429173042E-2</v>
       </c>
-      <c r="N15" s="75">
+      <c r="N15" s="105">
         <f>'cDEBI-NN'!S13/cNN!S13</f>
         <v>6.6742060880221388E-2</v>
       </c>
-      <c r="O15" s="74">
+      <c r="O15" s="104">
         <f>'cDEBI-NN'!T13/cNN!T13</f>
         <v>5.1204444589042018E-2</v>
       </c>
-      <c r="P15" s="74">
+      <c r="P15" s="104">
         <f>'cDEBI-NN'!U13/cNN!U13</f>
         <v>5.1131182878442552E-2</v>
       </c>
-      <c r="Q15" s="74">
+      <c r="Q15" s="104">
         <f>'cDEBI-NN'!V13/cNN!V13</f>
         <v>5.1272193394564326E-2</v>
       </c>
-      <c r="R15" s="76">
+      <c r="R15" s="106">
         <f>'cDEBI-NN'!W13/cNN!W13</f>
         <v>5.1449033231463825E-2</v>
       </c>
-      <c r="S15" s="80"/>
-      <c r="T15" s="80"/>
-      <c r="U15" s="80"/>
-      <c r="V15" s="80"/>
-      <c r="W15" s="57"/>
+      <c r="S15" s="77"/>
+      <c r="T15" s="77"/>
+      <c r="U15" s="77"/>
+      <c r="V15" s="77"/>
+      <c r="W15" s="54"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B16" s="87" t="str">
+      <c r="B16" s="83" t="str">
         <f>'cDEBI-NN'!I14</f>
         <v>Large</v>
       </c>
@@ -9306,364 +9355,364 @@
         <f>'cDEBI-NN'!J14</f>
         <v>1C</v>
       </c>
-      <c r="D16" s="47">
+      <c r="D16" s="111">
         <f>cNN!K14</f>
         <v>11712</v>
       </c>
-      <c r="E16" s="47">
+      <c r="E16" s="111">
         <f>'cDEBI-NN'!K14</f>
         <v>34944</v>
       </c>
-      <c r="F16" s="62"/>
-      <c r="G16" s="51">
+      <c r="F16" s="59"/>
+      <c r="G16" s="99">
         <f>'cDEBI-NN'!L14/cNN!L14</f>
         <v>2.9455970362085526E-2</v>
       </c>
-      <c r="H16" s="52">
+      <c r="H16" s="100">
         <f>'cDEBI-NN'!M14/cNN!M14</f>
         <v>2.9521799606695764E-2</v>
       </c>
-      <c r="I16" s="52">
+      <c r="I16" s="100">
         <f>'cDEBI-NN'!N14/cNN!N14</f>
         <v>2.9587536762882265E-2</v>
       </c>
-      <c r="J16" s="69">
+      <c r="J16" s="101">
         <f>'cDEBI-NN'!O14/cNN!O14</f>
         <v>2.9653182023743486E-2</v>
       </c>
-      <c r="K16" s="52">
+      <c r="K16" s="100">
         <f>'cDEBI-NN'!P14/cNN!P14</f>
         <v>1.4974744504422779E-2</v>
       </c>
-      <c r="L16" s="52">
+      <c r="L16" s="100">
         <f>'cDEBI-NN'!Q14/cNN!Q14</f>
         <v>1.5040931738934853E-2</v>
       </c>
-      <c r="M16" s="52">
+      <c r="M16" s="100">
         <f>'cDEBI-NN'!R14/cNN!R14</f>
         <v>1.5106932430315238E-2</v>
       </c>
-      <c r="N16" s="69">
+      <c r="N16" s="101">
         <f>'cDEBI-NN'!S14/cNN!S14</f>
         <v>1.5172747366088243E-2</v>
       </c>
-      <c r="O16" s="52">
+      <c r="O16" s="100">
         <f>'cDEBI-NN'!T14/cNN!T14</f>
         <v>7.5858367465809779E-3</v>
       </c>
-      <c r="P16" s="52">
+      <c r="P16" s="100">
         <f>'cDEBI-NN'!U14/cNN!U14</f>
         <v>7.6185601130743614E-3</v>
       </c>
-      <c r="Q16" s="52">
+      <c r="Q16" s="100">
         <f>'cDEBI-NN'!V14/cNN!V14</f>
         <v>7.6417702352370147E-3</v>
       </c>
-      <c r="R16" s="53">
+      <c r="R16" s="102">
         <f>'cDEBI-NN'!W14/cNN!W14</f>
         <v>7.6578686912061192E-3</v>
       </c>
-      <c r="S16" s="80"/>
-      <c r="T16" s="80"/>
-      <c r="U16" s="80"/>
-      <c r="V16" s="80"/>
-      <c r="W16" s="57"/>
+      <c r="S16" s="77"/>
+      <c r="T16" s="77"/>
+      <c r="U16" s="77"/>
+      <c r="V16" s="77"/>
+      <c r="W16" s="54"/>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B17" s="87"/>
+      <c r="B17" s="83"/>
       <c r="C17" s="46" t="str">
         <f>'cDEBI-NN'!J15</f>
         <v>2C</v>
       </c>
-      <c r="D17" s="47">
+      <c r="D17" s="111">
         <f>cNN!K15</f>
         <v>2002624</v>
       </c>
-      <c r="E17" s="47">
+      <c r="E17" s="111">
         <f>'cDEBI-NN'!K15</f>
         <v>159616</v>
       </c>
-      <c r="F17" s="62"/>
-      <c r="G17" s="51">
+      <c r="F17" s="59"/>
+      <c r="G17" s="99">
         <f>'cDEBI-NN'!L15/cNN!L15</f>
         <v>3.3176875335928377E-2</v>
       </c>
-      <c r="H17" s="52">
+      <c r="H17" s="100">
         <f>'cDEBI-NN'!M15/cNN!M15</f>
         <v>3.320230907814116E-2</v>
       </c>
-      <c r="I17" s="52">
+      <c r="I17" s="100">
         <f>'cDEBI-NN'!N15/cNN!N15</f>
         <v>3.3227728501753415E-2</v>
       </c>
-      <c r="J17" s="69">
+      <c r="J17" s="101">
         <f>'cDEBI-NN'!O15/cNN!O15</f>
         <v>3.3253133618853285E-2</v>
       </c>
-      <c r="K17" s="52">
+      <c r="K17" s="100">
         <f>'cDEBI-NN'!P15/cNN!P15</f>
         <v>1.888304465896656E-2</v>
       </c>
-      <c r="L17" s="52">
+      <c r="L17" s="100">
         <f>'cDEBI-NN'!Q15/cNN!Q15</f>
         <v>1.8910482392197552E-2</v>
       </c>
-      <c r="M17" s="52">
+      <c r="M17" s="100">
         <f>'cDEBI-NN'!R15/cNN!R15</f>
         <v>1.8937885126916444E-2</v>
       </c>
-      <c r="N17" s="69">
+      <c r="N17" s="101">
         <f>'cDEBI-NN'!S15/cNN!S15</f>
         <v>1.8965252930044686E-2</v>
       </c>
-      <c r="O17" s="52">
+      <c r="O17" s="100">
         <f>'cDEBI-NN'!T15/cNN!T15</f>
         <v>1.0157795912521396E-2</v>
       </c>
-      <c r="P17" s="52">
+      <c r="P17" s="100">
         <f>'cDEBI-NN'!U15/cNN!U15</f>
         <v>1.0172547814979725E-2</v>
       </c>
-      <c r="Q17" s="52">
+      <c r="Q17" s="100">
         <f>'cDEBI-NN'!V15/cNN!V15</f>
         <v>1.0183292138540712E-2</v>
       </c>
-      <c r="R17" s="53">
+      <c r="R17" s="102">
         <f>'cDEBI-NN'!W15/cNN!W15</f>
         <v>1.0190860435711756E-2</v>
       </c>
-      <c r="S17" s="80"/>
-      <c r="T17" s="80"/>
-      <c r="U17" s="80"/>
-      <c r="V17" s="80"/>
-      <c r="W17" s="57"/>
+      <c r="S17" s="77"/>
+      <c r="T17" s="77"/>
+      <c r="U17" s="77"/>
+      <c r="V17" s="77"/>
+      <c r="W17" s="54"/>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B18" s="87"/>
+      <c r="B18" s="83"/>
       <c r="C18" s="46" t="str">
         <f>'cDEBI-NN'!J16</f>
         <v>3C</v>
       </c>
-      <c r="D18" s="47">
+      <c r="D18" s="111">
         <f>cNN!K16</f>
         <v>6819904</v>
       </c>
-      <c r="E18" s="47">
+      <c r="E18" s="111">
         <f>'cDEBI-NN'!K16</f>
         <v>272896</v>
       </c>
-      <c r="F18" s="62"/>
-      <c r="G18" s="51">
+      <c r="F18" s="59"/>
+      <c r="G18" s="99">
         <f>'cDEBI-NN'!L16/cNN!L16</f>
         <v>2.9143035478816161E-2</v>
       </c>
-      <c r="H18" s="52">
+      <c r="H18" s="100">
         <f>'cDEBI-NN'!M16/cNN!M16</f>
         <v>2.9159193256453057E-2</v>
       </c>
-      <c r="I18" s="52">
+      <c r="I18" s="100">
         <f>'cDEBI-NN'!N16/cNN!N16</f>
         <v>2.9175345501640866E-2</v>
       </c>
-      <c r="J18" s="69">
+      <c r="J18" s="101">
         <f>'cDEBI-NN'!O16/cNN!O16</f>
         <v>2.9191492217220588E-2</v>
       </c>
-      <c r="K18" s="52">
+      <c r="K18" s="100">
         <f>'cDEBI-NN'!P16/cNN!P16</f>
         <v>1.914379083972759E-2</v>
       </c>
-      <c r="L18" s="52">
+      <c r="L18" s="100">
         <f>'cDEBI-NN'!Q16/cNN!Q16</f>
         <v>1.91629455188893E-2</v>
       </c>
-      <c r="M18" s="52">
+      <c r="M18" s="100">
         <f>'cDEBI-NN'!R16/cNN!R16</f>
         <v>1.918208303370458E-2</v>
       </c>
-      <c r="N18" s="69">
+      <c r="N18" s="101">
         <f>'cDEBI-NN'!S16/cNN!S16</f>
         <v>1.9201203407234333E-2</v>
       </c>
-      <c r="O18" s="52">
+      <c r="O18" s="100">
         <f>'cDEBI-NN'!T16/cNN!T16</f>
         <v>1.1361724775762106E-2</v>
       </c>
-      <c r="P18" s="52">
+      <c r="P18" s="100">
         <f>'cDEBI-NN'!U16/cNN!U16</f>
         <v>1.1372789074153048E-2</v>
       </c>
-      <c r="Q18" s="52">
+      <c r="Q18" s="100">
         <f>'cDEBI-NN'!V16/cNN!V16</f>
         <v>1.1380955670308E-2</v>
       </c>
-      <c r="R18" s="53">
+      <c r="R18" s="102">
         <f>'cDEBI-NN'!W16/cNN!W16</f>
         <v>1.138675197776538E-2</v>
       </c>
-      <c r="S18" s="80"/>
-      <c r="T18" s="80"/>
-      <c r="U18" s="80"/>
-      <c r="V18" s="80"/>
-      <c r="W18" s="57"/>
+      <c r="S18" s="77"/>
+      <c r="T18" s="77"/>
+      <c r="U18" s="77"/>
+      <c r="V18" s="77"/>
+      <c r="W18" s="54"/>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B19" s="87"/>
+      <c r="B19" s="83"/>
       <c r="C19" s="46" t="str">
         <f>'cDEBI-NN'!J17</f>
         <v>4C</v>
       </c>
-      <c r="D19" s="47">
+      <c r="D19" s="111">
         <f>cNN!K17</f>
         <v>10506688</v>
       </c>
-      <c r="E19" s="47">
+      <c r="E19" s="111">
         <f>'cDEBI-NN'!K17</f>
         <v>330880</v>
       </c>
-      <c r="F19" s="62"/>
-      <c r="G19" s="51">
+      <c r="F19" s="59"/>
+      <c r="G19" s="99">
         <f>'cDEBI-NN'!L17/cNN!L17</f>
         <v>2.7050538235249097E-2</v>
       </c>
-      <c r="H19" s="52">
+      <c r="H19" s="100">
         <f>'cDEBI-NN'!M17/cNN!M17</f>
         <v>2.7064900377504086E-2</v>
       </c>
-      <c r="I19" s="52">
+      <c r="I19" s="100">
         <f>'cDEBI-NN'!N17/cNN!N17</f>
         <v>2.7079258243371439E-2</v>
       </c>
-      <c r="J19" s="69">
+      <c r="J19" s="101">
         <f>'cDEBI-NN'!O17/cNN!O17</f>
         <v>2.7093611834760837E-2</v>
       </c>
-      <c r="K19" s="52">
+      <c r="K19" s="100">
         <f>'cDEBI-NN'!P17/cNN!P17</f>
         <v>1.9778411299840152E-2</v>
       </c>
-      <c r="L19" s="52">
+      <c r="L19" s="100">
         <f>'cDEBI-NN'!Q17/cNN!Q17</f>
         <v>1.9796677481792507E-2</v>
       </c>
-      <c r="M19" s="52">
+      <c r="M19" s="100">
         <f>'cDEBI-NN'!R17/cNN!R17</f>
         <v>1.9814927819287082E-2</v>
       </c>
-      <c r="N19" s="69">
+      <c r="N19" s="101">
         <f>'cDEBI-NN'!S17/cNN!S17</f>
         <v>1.9833162332930646E-2</v>
       </c>
-      <c r="O19" s="52">
+      <c r="O19" s="100">
         <f>'cDEBI-NN'!T17/cNN!T17</f>
         <v>1.2868688859636331E-2</v>
       </c>
-      <c r="P19" s="52">
+      <c r="P19" s="100">
         <f>'cDEBI-NN'!U17/cNN!U17</f>
         <v>1.2879931984443127E-2</v>
       </c>
-      <c r="Q19" s="52">
+      <c r="Q19" s="100">
         <f>'cDEBI-NN'!V17/cNN!V17</f>
         <v>1.2888377812484912E-2</v>
       </c>
-      <c r="R19" s="53">
+      <c r="R19" s="102">
         <f>'cDEBI-NN'!W17/cNN!W17</f>
         <v>1.2894431420615806E-2</v>
       </c>
-      <c r="S19" s="80"/>
-      <c r="T19" s="80"/>
-      <c r="U19" s="80"/>
-      <c r="V19" s="80"/>
-      <c r="W19" s="57"/>
+      <c r="S19" s="77"/>
+      <c r="T19" s="77"/>
+      <c r="U19" s="77"/>
+      <c r="V19" s="77"/>
+      <c r="W19" s="54"/>
     </row>
     <row r="20" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="87"/>
+      <c r="B20" s="83"/>
       <c r="C20" s="46" t="str">
         <f>'cDEBI-NN'!J18</f>
         <v>5C</v>
       </c>
-      <c r="D20" s="47">
+      <c r="D20" s="111">
         <f>cNN!K18</f>
         <v>11391680</v>
       </c>
-      <c r="E20" s="47">
+      <c r="E20" s="111">
         <f>'cDEBI-NN'!K18</f>
         <v>344960</v>
       </c>
-      <c r="F20" s="62"/>
-      <c r="G20" s="54">
+      <c r="F20" s="59"/>
+      <c r="G20" s="107">
         <f>'cDEBI-NN'!L18/cNN!L18</f>
         <v>2.7662593524068524E-2</v>
       </c>
-      <c r="H20" s="55">
+      <c r="H20" s="108">
         <f>'cDEBI-NN'!M18/cNN!M18</f>
         <v>2.7678451596163903E-2</v>
       </c>
-      <c r="I20" s="55">
+      <c r="I20" s="108">
         <f>'cDEBI-NN'!N18/cNN!N18</f>
         <v>2.7694304421431767E-2</v>
       </c>
-      <c r="J20" s="70">
+      <c r="J20" s="109">
         <f>'cDEBI-NN'!O18/cNN!O18</f>
         <v>2.7710152002475646E-2</v>
       </c>
-      <c r="K20" s="55">
+      <c r="K20" s="108">
         <f>'cDEBI-NN'!P18/cNN!P18</f>
         <v>2.2262646372269265E-2</v>
       </c>
-      <c r="L20" s="55">
+      <c r="L20" s="108">
         <f>'cDEBI-NN'!Q18/cNN!Q18</f>
         <v>2.2283665299995349E-2</v>
       </c>
-      <c r="M20" s="55">
+      <c r="M20" s="108">
         <f>'cDEBI-NN'!R18/cNN!R18</f>
         <v>2.2304661934316225E-2</v>
       </c>
-      <c r="N20" s="70">
+      <c r="N20" s="109">
         <f>'cDEBI-NN'!S18/cNN!S18</f>
         <v>2.2325636310680824E-2</v>
       </c>
-      <c r="O20" s="55">
+      <c r="O20" s="108">
         <f>'cDEBI-NN'!T18/cNN!T18</f>
         <v>1.6014703785785119E-2</v>
       </c>
-      <c r="P20" s="55">
+      <c r="P20" s="108">
         <f>'cDEBI-NN'!U18/cNN!U18</f>
         <v>1.6028492664725856E-2</v>
       </c>
-      <c r="Q20" s="55">
+      <c r="Q20" s="108">
         <f>'cDEBI-NN'!V18/cNN!V18</f>
         <v>1.6039284046751569E-2</v>
       </c>
-      <c r="R20" s="56">
+      <c r="R20" s="110">
         <f>'cDEBI-NN'!W18/cNN!W18</f>
         <v>1.6047189876339782E-2</v>
       </c>
-      <c r="S20" s="80"/>
-      <c r="T20" s="80"/>
-      <c r="U20" s="80"/>
-      <c r="V20" s="80"/>
-      <c r="W20" s="57"/>
+      <c r="S20" s="77"/>
+      <c r="T20" s="77"/>
+      <c r="U20" s="77"/>
+      <c r="V20" s="77"/>
+      <c r="W20" s="54"/>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B21" s="57"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="57"/>
-      <c r="M21" s="57"/>
-      <c r="N21" s="57"/>
-      <c r="O21" s="57"/>
-      <c r="P21" s="57"/>
-      <c r="Q21" s="57"/>
-      <c r="R21" s="57"/>
-      <c r="W21" s="57"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="54"/>
+      <c r="P21" s="54"/>
+      <c r="Q21" s="54"/>
+      <c r="R21" s="54"/>
+      <c r="W21" s="54"/>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
